--- a/DraftedPlayers.xlsx
+++ b/DraftedPlayers.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frederico.pontes\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\ISEG\4 Bloco\Projecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50491554-B5E1-4305-BD13-6C2A0997833B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$781</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3193,49 +3192,49 @@
     <t>DRAFT_DATE</t>
   </si>
   <si>
-    <t>29/07/2021</t>
-  </si>
-  <si>
-    <t>18/11/2020</t>
-  </si>
-  <si>
-    <t>20/06/2019</t>
-  </si>
-  <si>
-    <t>22/06/2018</t>
-  </si>
-  <si>
-    <t>22/06/2017</t>
-  </si>
-  <si>
-    <t>23/06/2016</t>
-  </si>
-  <si>
-    <t>25/06/2015</t>
-  </si>
-  <si>
-    <t>26/06/2014</t>
-  </si>
-  <si>
-    <t>28/06/2013</t>
-  </si>
-  <si>
-    <t>29/06/2012</t>
-  </si>
-  <si>
-    <t>24/06/2011</t>
-  </si>
-  <si>
-    <t>25/06/2010</t>
-  </si>
-  <si>
-    <t>25/06/2009</t>
+    <t>07-29-2021</t>
+  </si>
+  <si>
+    <t>11-18-2020</t>
+  </si>
+  <si>
+    <t>06-20-2019</t>
+  </si>
+  <si>
+    <t>06-22-2018</t>
+  </si>
+  <si>
+    <t>06-22-2017</t>
+  </si>
+  <si>
+    <t>06-23-2016</t>
+  </si>
+  <si>
+    <t>06-25-2015</t>
+  </si>
+  <si>
+    <t>06-26-2014</t>
+  </si>
+  <si>
+    <t>06-28-2013</t>
+  </si>
+  <si>
+    <t>06-29-2012</t>
+  </si>
+  <si>
+    <t>06-24-2011</t>
+  </si>
+  <si>
+    <t>06-25-2010</t>
+  </si>
+  <si>
+    <t>06-25-2009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3583,10 +3582,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A743" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3597,7 +3598,7 @@
     <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -23903,1497 +23904,1497 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H781" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H781"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.nba.com/stats/player/1630595/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://www.nba.com/stats/player/1630224/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B3" r:id="rId4" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.nba.com/stats/player/1630596/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B4" r:id="rId6" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A5" r:id="rId7" display="https://www.nba.com/stats/player/1630567/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B5" r:id="rId8" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A6" r:id="rId9" display="https://www.nba.com/stats/player/1630591/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B6" r:id="rId10" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A7" r:id="rId11" display="https://www.nba.com/stats/player/1630581/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B7" r:id="rId12" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A8" r:id="rId13" display="https://www.nba.com/stats/player/1630228/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B8" r:id="rId14" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A9" r:id="rId15" display="https://www.nba.com/stats/player/1630532/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B9" r:id="rId16" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A10" r:id="rId17" display="https://www.nba.com/stats/player/1630558/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B10" r:id="rId18" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A11" r:id="rId19" display="https://www.nba.com/stats/player/1630533/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B11" r:id="rId20" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A12" r:id="rId21" display="https://www.nba.com/stats/player/1630547/" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B12" r:id="rId22" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A13" r:id="rId23" display="https://www.nba.com/stats/player/1630563/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B13" r:id="rId24" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A14" r:id="rId25" display="https://www.nba.com/stats/player/1630537/" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B14" r:id="rId26" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A15" r:id="rId27" display="https://www.nba.com/stats/player/1630541/" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B15" r:id="rId28" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A16" r:id="rId29" display="https://www.nba.com/stats/player/1630557/" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B16" r:id="rId30" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A17" r:id="rId31" display="https://www.nba.com/stats/player/1630578/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B17" r:id="rId32" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A18" r:id="rId33" display="https://www.nba.com/stats/player/1630530/" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B18" r:id="rId34" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A19" r:id="rId35" display="https://www.nba.com/stats/player/1630544/" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B19" r:id="rId36" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A20" r:id="rId37" display="https://www.nba.com/stats/player/1630539/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B20" r:id="rId38" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A21" r:id="rId39" display="https://www.nba.com/stats/player/1630552/" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B21" r:id="rId40" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A22" r:id="rId41" display="https://www.nba.com/stats/player/1630553/" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B22" r:id="rId42" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A23" r:id="rId43" display="https://www.nba.com/stats/player/1630543/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B23" r:id="rId44" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A24" r:id="rId45" display="https://www.nba.com/stats/player/1630586/" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B24" r:id="rId46" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A25" r:id="rId47" display="https://www.nba.com/stats/player/1630528/" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B25" r:id="rId48" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A26" r:id="rId49" display="https://www.nba.com/stats/player/1629656/" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B26" r:id="rId50" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="A27" r:id="rId51" display="https://www.nba.com/stats/player/1630538/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B27" r:id="rId52" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A28" r:id="rId53" display="https://www.nba.com/stats/player/1630560/" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B28" r:id="rId54" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A29" r:id="rId55" display="https://www.nba.com/stats/player/1630531/" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B29" r:id="rId56" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A30" r:id="rId57" display="https://www.nba.com/stats/player/1630549/" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B30" r:id="rId58" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="A31" r:id="rId59" display="https://www.nba.com/stats/player/1630583/" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B31" r:id="rId60" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="A32" r:id="rId61" display="https://www.nba.com/stats/player/1630225/" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B32" r:id="rId62" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="A33" r:id="rId63" display="https://www.nba.com/stats/player/1630526/" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B33" r:id="rId64" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A34" r:id="rId65" display="https://www.nba.com/stats/player/1630554/" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B34" r:id="rId66" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B35" r:id="rId67" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="A36" r:id="rId68" display="https://www.nba.com/stats/player/1630529/" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B36" r:id="rId69" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="A37" r:id="rId70" display="https://www.nba.com/stats/player/1630540/" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B37" r:id="rId71" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="A38" r:id="rId72" display="https://www.nba.com/stats/player/1630550/" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B38" r:id="rId73" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="A39" r:id="rId74" display="https://www.nba.com/stats/player/1630245/" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B39" r:id="rId75" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="A40" r:id="rId76" display="https://www.nba.com/stats/player/1629674/" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B40" r:id="rId77" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="A41" r:id="rId78" display="https://www.nba.com/stats/player/1630215/" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B41" r:id="rId79" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="A42" r:id="rId80" display="https://www.nba.com/stats/player/1630580/" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B42" r:id="rId81" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="A43" r:id="rId82" display="https://www.nba.com/stats/player/1630587/" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B43" r:id="rId83" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="A44" r:id="rId84" display="https://www.nba.com/stats/player/1630535/" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B44" r:id="rId85" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="A45" r:id="rId86" display="https://www.nba.com/stats/player/1630556/" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B45" r:id="rId87" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B46" r:id="rId88" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="A47" r:id="rId89" display="https://www.nba.com/stats/player/1630625/" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B47" r:id="rId90" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="A48" r:id="rId91" display="https://www.nba.com/stats/player/1630525/" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B48" r:id="rId92" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="A49" r:id="rId93" display="https://www.nba.com/stats/player/1630536/" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B49" r:id="rId94" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B50" r:id="rId95" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B51" r:id="rId96" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="A52" r:id="rId97" display="https://www.nba.com/stats/player/1630527/" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B52" r:id="rId98" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="A53" r:id="rId99" display="https://www.nba.com/stats/player/1630568/" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B53" r:id="rId100" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="A54" r:id="rId101" display="https://www.nba.com/stats/player/1629646/" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B54" r:id="rId102" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="A55" r:id="rId103" display="https://www.nba.com/stats/player/1630572/" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B55" r:id="rId104" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="A56" r:id="rId105" display="https://www.nba.com/stats/player/1630598/" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B56" r:id="rId106" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="A57" r:id="rId107" display="https://www.nba.com/stats/player/1630575/" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B57" r:id="rId108" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B58" r:id="rId109" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="A59" r:id="rId110" display="https://www.nba.com/stats/player/1630579/" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B59" r:id="rId111" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B60" r:id="rId112" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="A61" r:id="rId113" display="https://www.nba.com/stats/player/1630686/" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B61" r:id="rId114" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="A62" r:id="rId115" display="https://www.nba.com/stats/player/1630162/" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B62" r:id="rId116" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="A63" r:id="rId117" display="https://www.nba.com/stats/player/1630164/" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B63" r:id="rId118" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="A64" r:id="rId119" display="https://www.nba.com/stats/player/1630163/" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B64" r:id="rId120" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="A65" r:id="rId121" display="https://www.nba.com/stats/player/1630172/" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B65" r:id="rId122" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="A66" r:id="rId123" display="https://www.nba.com/stats/player/1630171/" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B66" r:id="rId124" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="A67" r:id="rId125" display="https://www.nba.com/stats/player/1630168/" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B67" r:id="rId126" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="A68" r:id="rId127" display="https://www.nba.com/stats/player/1630165/" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B68" r:id="rId128" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="A69" r:id="rId129" display="https://www.nba.com/stats/player/1630167/" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B69" r:id="rId130" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="A70" r:id="rId131" display="https://www.nba.com/stats/player/1630166/" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B70" r:id="rId132" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="A71" r:id="rId133" display="https://www.nba.com/stats/player/1630188/" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B71" r:id="rId134" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="A72" r:id="rId135" display="https://www.nba.com/stats/player/1630170/" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B72" r:id="rId136" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="A73" r:id="rId137" display="https://www.nba.com/stats/player/1630169/" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B73" r:id="rId138" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="A74" r:id="rId139" display="https://www.nba.com/stats/player/1630184/" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B74" r:id="rId140" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="A75" r:id="rId141" display="https://www.nba.com/stats/player/1630174/" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B75" r:id="rId142" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="A76" r:id="rId143" display="https://www.nba.com/stats/player/1630175/" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B76" r:id="rId144" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="A77" r:id="rId145" display="https://www.nba.com/stats/player/1630191/" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B77" r:id="rId146" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="A78" r:id="rId147" display="https://www.nba.com/stats/player/1630197/" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B78" r:id="rId148" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="A79" r:id="rId149" display="https://www.nba.com/stats/player/1630182/" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B79" r:id="rId150" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="A80" r:id="rId151" display="https://www.nba.com/stats/player/1630180/" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B80" r:id="rId152" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="A81" r:id="rId153" display="https://www.nba.com/stats/player/1630173/" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B81" r:id="rId154" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="A82" r:id="rId155" display="https://www.nba.com/stats/player/1630178/" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B82" r:id="rId156" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="A83" r:id="rId157" display="https://www.nba.com/stats/player/1630192/" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B83" r:id="rId158" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="A84" r:id="rId159" display="https://www.nba.com/stats/player/1630195/" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B84" r:id="rId160" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="A85" r:id="rId161" display="https://www.nba.com/stats/player/1630181/" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B85" r:id="rId162" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="A86" r:id="rId163" display="https://www.nba.com/stats/player/1630193/" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B86" r:id="rId164" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="A87" r:id="rId165" display="https://www.nba.com/stats/player/1630202/" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B87" r:id="rId166" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="A88" r:id="rId167" display="https://www.nba.com/stats/player/1628962/" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B88" r:id="rId168" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="A89" r:id="rId169" display="https://www.nba.com/stats/player/1630183/" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B89" r:id="rId170" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="A90" r:id="rId171" display="https://www.nba.com/stats/player/1630201/" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B90" r:id="rId172" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="A91" r:id="rId173" display="https://www.nba.com/stats/player/1630217/" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B91" r:id="rId174" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="A92" r:id="rId175" display="https://www.nba.com/stats/player/1630179/" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B92" r:id="rId176" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="A93" r:id="rId177" display="https://www.nba.com/stats/player/1630176/" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B93" r:id="rId178" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="A94" r:id="rId179" display="https://www.nba.com/stats/player/1630187/" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B94" r:id="rId180" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="A95" r:id="rId181" display="https://www.nba.com/stats/player/1630177/" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B95" r:id="rId182" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="A96" r:id="rId183" display="https://www.nba.com/stats/player/1630214/" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B96" r:id="rId184" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="A97" r:id="rId185" display="https://www.nba.com/stats/player/1630189/" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B97" r:id="rId186" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="A98" r:id="rId187" display="https://www.nba.com/stats/player/1630249/" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B98" r:id="rId188" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="A99" r:id="rId189" display="https://www.nba.com/stats/player/1630240/" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B99" r:id="rId190" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="A100" r:id="rId191" display="https://www.nba.com/stats/player/1630190/" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B100" r:id="rId192" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="A101" r:id="rId193" display="https://www.nba.com/stats/player/1630218/" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B101" r:id="rId194" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="A102" r:id="rId195" display="https://www.nba.com/stats/player/1630200/" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B102" r:id="rId196" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="A103" r:id="rId197" display="https://www.nba.com/stats/player/1630208/" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B103" r:id="rId198" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="A104" r:id="rId199" display="https://www.nba.com/stats/player/1630186/" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B104" r:id="rId200" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="A105" r:id="rId201" display="https://www.nba.com/stats/player/1630250/" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B105" r:id="rId202" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="A106" r:id="rId203" display="https://www.nba.com/stats/player/1629670/" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B106" r:id="rId204" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="A107" r:id="rId205" display="https://www.nba.com/stats/player/1629604/" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B107" r:id="rId206" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B108" r:id="rId207" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="A109" r:id="rId208" display="https://www.nba.com/stats/player/1630185/" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B109" r:id="rId209" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="A110" r:id="rId210" display="https://www.nba.com/stats/player/1630198/" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B110" r:id="rId211" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="A111" r:id="rId212" display="https://www.nba.com/stats/player/1630219/" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B111" r:id="rId213" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B112" r:id="rId214" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="A113" r:id="rId215" display="https://www.nba.com/stats/player/1630231/" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B113" r:id="rId216" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="A114" r:id="rId217" display="https://www.nba.com/stats/player/1630216/" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B114" r:id="rId218" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="A115" r:id="rId219" display="https://www.nba.com/stats/player/1630199/" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B115" r:id="rId220" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="A116" r:id="rId221" display="https://www.nba.com/stats/player/1630206/" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B116" r:id="rId222" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="A117" r:id="rId223" display="https://www.nba.com/stats/player/1630203/" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B117" r:id="rId224" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="A118" r:id="rId225" display="https://www.nba.com/stats/player/1629617/" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B118" r:id="rId226" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="A119" r:id="rId227" display="https://www.nba.com/stats/player/1630194/" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B119" r:id="rId228" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="A120" r:id="rId229" display="https://www.nba.com/stats/player/1630223/" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B120" r:id="rId230" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="A121" r:id="rId231" display="https://www.nba.com/stats/player/1630241/" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B121" r:id="rId232" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="A122" r:id="rId233" display="https://www.nba.com/stats/player/1629627/" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B122" r:id="rId234" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="A123" r:id="rId235" display="https://www.nba.com/stats/player/1629630/" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B123" r:id="rId236" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="A124" r:id="rId237" display="https://www.nba.com/stats/player/1629628/" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B124" r:id="rId238" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="A125" r:id="rId239" display="https://www.nba.com/stats/player/1629631/" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B125" r:id="rId240" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="A126" r:id="rId241" display="https://www.nba.com/stats/player/1629636/" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B126" r:id="rId242" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="A127" r:id="rId243" display="https://www.nba.com/stats/player/1629633/" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B127" r:id="rId244" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="A128" r:id="rId245" display="https://www.nba.com/stats/player/1629632/" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B128" r:id="rId246" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="A129" r:id="rId247" display="https://www.nba.com/stats/player/1629637/" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B129" r:id="rId248" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="A130" r:id="rId249" display="https://www.nba.com/stats/player/1629060/" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B130" r:id="rId250" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="A131" r:id="rId251" display="https://www.nba.com/stats/player/1629629/" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B131" r:id="rId252" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="A132" r:id="rId253" display="https://www.nba.com/stats/player/1629661/" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B132" r:id="rId254" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="A133" r:id="rId255" display="https://www.nba.com/stats/player/1629023/" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B133" r:id="rId256" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="A134" r:id="rId257" display="https://www.nba.com/stats/player/1629639/" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B134" r:id="rId258" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="A135" r:id="rId259" display="https://www.nba.com/stats/player/1629641/" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B135" r:id="rId260" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="A136" r:id="rId261" display="https://www.nba.com/stats/player/1629635/" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B136" r:id="rId262" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="A137" r:id="rId263" display="https://www.nba.com/stats/player/1629643/" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B137" r:id="rId264" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="A138" r:id="rId265" display="https://www.nba.com/stats/player/1629638/" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B138" r:id="rId266" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="A139" r:id="rId267" display="https://www.nba.com/stats/player/1629048/" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B139" r:id="rId268" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="A140" r:id="rId269" display="https://www.nba.com/stats/player/1629677/" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B140" r:id="rId270" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="A141" r:id="rId271" display="https://www.nba.com/stats/player/1629680/" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B141" r:id="rId272" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="A142" r:id="rId273" display="https://www.nba.com/stats/player/1629634/" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B142" r:id="rId274" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="A143" r:id="rId275" display="https://www.nba.com/stats/player/1629684/" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B143" r:id="rId276" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="A144" r:id="rId277" display="https://www.nba.com/stats/player/1629647/" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B144" r:id="rId278" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="A145" r:id="rId279" display="https://www.nba.com/stats/player/1629660/" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B145" r:id="rId280" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="A146" r:id="rId281" display="https://www.nba.com/stats/player/1629642/" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B146" r:id="rId282" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="A147" r:id="rId283" display="https://www.nba.com/stats/player/1629685/" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B147" r:id="rId284" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="A148" r:id="rId285" display="https://www.nba.com/stats/player/1629662/" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B148" r:id="rId286" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="A149" r:id="rId287" display="https://www.nba.com/stats/player/1629673/" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B149" r:id="rId288" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="A150" r:id="rId289" display="https://www.nba.com/stats/player/1629640/" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B150" r:id="rId290" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="A151" r:id="rId291" display="https://www.nba.com/stats/player/1629645/" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B151" r:id="rId292" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="A152" r:id="rId293" display="https://www.nba.com/stats/player/1629651/" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B152" r:id="rId294" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="A153" r:id="rId295" display="https://www.nba.com/stats/player/1629644/" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B153" r:id="rId296" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="A154" r:id="rId297" display="https://www.nba.com/stats/player/1629035/" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B154" r:id="rId298" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="A155" r:id="rId299" display="https://www.nba.com/stats/player/1628981/" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B155" r:id="rId300" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="A156" r:id="rId301" display="https://www.nba.com/stats/player/1629712/" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B156" r:id="rId302" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="A157" r:id="rId303" display="https://www.nba.com/stats/player/1628998/" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B157" r:id="rId304" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="A158" r:id="rId305" display="https://www.nba.com/stats/player/1629686/" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B158" r:id="rId306" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="A159" r:id="rId307" display="https://www.nba.com/stats/player/1629655/" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B159" r:id="rId308" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="A160" r:id="rId309" display="https://www.nba.com/stats/player/1629346/" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B160" r:id="rId310" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="A161" r:id="rId311" display="https://www.nba.com/stats/player/1629713/" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B161" r:id="rId312" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="A162" r:id="rId313" display="https://www.nba.com/stats/player/1629672/" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B162" r:id="rId314" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="A163" r:id="rId315" display="https://www.nba.com/stats/player/1629678/" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B163" r:id="rId316" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="A164" r:id="rId317" display="https://www.nba.com/stats/player/1629669/" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B164" r:id="rId318" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="A165" r:id="rId319" display="https://www.nba.com/stats/player/1629626/" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B165" r:id="rId320" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="A166" r:id="rId321" display="https://www.nba.com/stats/player/1629676/" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B166" r:id="rId322" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="A167" r:id="rId323" display="https://www.nba.com/stats/player/1629659/" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B167" r:id="rId324" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="A168" r:id="rId325" display="https://www.nba.com/stats/player/1629649/" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B168" r:id="rId326" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="A169" r:id="rId327" display="https://www.nba.com/stats/player/1629611/" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B169" r:id="rId328" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="A170" r:id="rId329" display="https://www.nba.com/stats/player/1629683/" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B170" r:id="rId330" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="A171" r:id="rId331" display="https://www.nba.com/stats/player/1629714/" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B171" r:id="rId332" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="A172" r:id="rId333" display="https://www.nba.com/stats/player/1629682/" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B172" r:id="rId334" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="A173" r:id="rId335" display="https://www.nba.com/stats/player/1629667/" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B173" r:id="rId336" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="A174" r:id="rId337" display="https://www.nba.com/stats/player/1629625/" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B174" r:id="rId338" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="A175" r:id="rId339" display="https://www.nba.com/stats/player/1629621/" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B175" r:id="rId340" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="A176" r:id="rId341" display="https://www.nba.com/stats/player/1629657/" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B176" r:id="rId342" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B177" r:id="rId343" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="A178" r:id="rId344" display="https://www.nba.com/stats/player/1629648/" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B178" r:id="rId345" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="A179" r:id="rId346" display="https://www.nba.com/stats/player/1629671/" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B179" r:id="rId347" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="A180" r:id="rId348" display="https://www.nba.com/stats/player/1629608/" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B180" r:id="rId349" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B181" r:id="rId350" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="A182" r:id="rId351" display="https://www.nba.com/stats/player/1629028/" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B182" r:id="rId352" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="A183" r:id="rId353" display="https://www.nba.com/stats/player/1628963/" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B183" r:id="rId354" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="A184" r:id="rId355" display="https://www.nba.com/stats/player/1629029/" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B184" r:id="rId356" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="A185" r:id="rId357" display="https://www.nba.com/stats/player/1628991/" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B185" r:id="rId358" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="A186" r:id="rId359" display="https://www.nba.com/stats/player/1629027/" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B186" r:id="rId360" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="A187" r:id="rId361" display="https://www.nba.com/stats/player/1628964/" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B187" r:id="rId362" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="A188" r:id="rId363" display="https://www.nba.com/stats/player/1628976/" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B188" r:id="rId364" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="A189" r:id="rId365" display="https://www.nba.com/stats/player/1629012/" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B189" r:id="rId366" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="A190" r:id="rId367" display="https://www.nba.com/stats/player/1628995/" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B190" r:id="rId368" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="A191" r:id="rId369" display="https://www.nba.com/stats/player/1628969/" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B191" r:id="rId370" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="A192" r:id="rId371" display="https://www.nba.com/stats/player/1628983/" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B192" r:id="rId372" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="A193" r:id="rId373" display="https://www.nba.com/stats/player/1628970/" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B193" r:id="rId374" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="A194" r:id="rId375" display="https://www.nba.com/stats/player/1629010/" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B194" r:id="rId376" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="A195" r:id="rId377" display="https://www.nba.com/stats/player/1629008/" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B195" r:id="rId378" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="A196" r:id="rId379" display="https://www.nba.com/stats/player/1628972/" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B196" r:id="rId380" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="A197" r:id="rId381" display="https://www.nba.com/stats/player/1629015/" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B197" r:id="rId382" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="A198" r:id="rId383" display="https://www.nba.com/stats/player/1628978/" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B198" r:id="rId384" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="A199" r:id="rId385" display="https://www.nba.com/stats/player/1629022/" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B199" r:id="rId386" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="A200" r:id="rId387" display="https://www.nba.com/stats/player/1628989/" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B200" r:id="rId388" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="A201" r:id="rId389" display="https://www.nba.com/stats/player/1629006/" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B201" r:id="rId390" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="A202" r:id="rId391" display="https://www.nba.com/stats/player/1628960/" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B202" r:id="rId392" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="A203" r:id="rId393" display="https://www.nba.com/stats/player/1628990/" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B203" r:id="rId394" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="A204" r:id="rId395" display="https://www.nba.com/stats/player/1628988/" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B204" r:id="rId396" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="A205" r:id="rId397" display="https://www.nba.com/stats/player/1629014/" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B205" r:id="rId398" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="A206" r:id="rId399" display="https://www.nba.com/stats/player/1629021/" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B206" r:id="rId400" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="A207" r:id="rId401" display="https://www.nba.com/stats/player/1629013/" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B207" r:id="rId402" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="A208" r:id="rId403" display="https://www.nba.com/stats/player/1629057/" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B208" r:id="rId404" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="A209" r:id="rId405" display="https://www.nba.com/stats/player/1628980/" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="B209" r:id="rId406" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="A210" r:id="rId407" display="https://www.nba.com/stats/player/1629058/" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="B210" r:id="rId408" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="A211" r:id="rId409" display="https://www.nba.com/stats/player/1629016/" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="B211" r:id="rId410" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="A212" r:id="rId411" display="https://www.nba.com/stats/player/1629059/" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="B212" r:id="rId412" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="A213" r:id="rId413" display="https://www.nba.com/stats/player/1628975/" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="B213" r:id="rId414" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="A214" r:id="rId415" display="https://www.nba.com/stats/player/1628973/" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="B214" r:id="rId416" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="A215" r:id="rId417" display="https://www.nba.com/stats/player/1628984/" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="B215" r:id="rId418" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="A216" r:id="rId419" display="https://www.nba.com/stats/player/1628982/" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="B216" r:id="rId420" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="A217" r:id="rId421" display="https://www.nba.com/stats/player/1629011/" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="B217" r:id="rId422" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="A218" r:id="rId423" display="https://www.nba.com/stats/player/1629018/" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="B218" r:id="rId424" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="A219" r:id="rId425" display="https://www.nba.com/stats/player/1629017/" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="B219" r:id="rId426" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="A220" r:id="rId427" display="https://www.nba.com/stats/player/1629067/" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="B220" r:id="rId428" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="A221" r:id="rId429" display="https://www.nba.com/stats/player/1629066/" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="B221" r:id="rId430" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="A222" r:id="rId431" display="https://www.nba.com/stats/player/1629020/" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="B222" r:id="rId432" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="A223" r:id="rId433" display="https://www.nba.com/stats/player/1628971/" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="B223" r:id="rId434" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="B224" r:id="rId435" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="B225" r:id="rId436" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="A226" r:id="rId437" display="https://www.nba.com/stats/player/1628977/" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="B226" r:id="rId438" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="A227" r:id="rId439" display="https://www.nba.com/stats/player/1629001/" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="B227" r:id="rId440" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="A228" r:id="rId441" display="https://www.nba.com/stats/player/1629004/" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="B228" r:id="rId442" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="A229" r:id="rId443" display="https://www.nba.com/stats/player/1628966/" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="B229" r:id="rId444" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="A230" r:id="rId445" display="https://www.nba.com/stats/player/1629002/" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="B230" r:id="rId446" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="A231" r:id="rId447" display="https://www.nba.com/stats/player/1628993/" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
-    <hyperlink ref="B231" r:id="rId448" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="B232" r:id="rId449" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
-    <hyperlink ref="A233" r:id="rId450" display="https://www.nba.com/stats/player/1629053/" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="B233" r:id="rId451" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="A234" r:id="rId452" display="https://www.nba.com/stats/player/1628985/" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="B234" r:id="rId453" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="A235" r:id="rId454" display="https://www.nba.com/stats/player/1629003/" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="B235" r:id="rId455" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="A236" r:id="rId456" display="https://www.nba.com/stats/player/1629083/" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="B236" r:id="rId457" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="A237" r:id="rId458" display="https://www.nba.com/stats/player/1629034/" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="B237" r:id="rId459" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="A238" r:id="rId460" display="https://www.nba.com/stats/player/1628987/" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="B238" r:id="rId461" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="A239" r:id="rId462" display="https://www.nba.com/stats/player/1629118/" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="B239" r:id="rId463" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="A240" r:id="rId464" display="https://www.nba.com/stats/player/1628994/" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="B240" r:id="rId465" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="A241" r:id="rId466" display="https://www.nba.com/stats/player/1628961/" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
-    <hyperlink ref="B241" r:id="rId467" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="A242" r:id="rId468" display="https://www.nba.com/stats/player/1628365/" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="B242" r:id="rId469" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="A243" r:id="rId470" display="https://www.nba.com/stats/player/1628366/" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="B243" r:id="rId471" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="A244" r:id="rId472" display="https://www.nba.com/stats/player/1628369/" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="B244" r:id="rId473" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="A245" r:id="rId474" display="https://www.nba.com/stats/player/1628367/" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="B245" r:id="rId475" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="A246" r:id="rId476" display="https://www.nba.com/stats/player/1628368/" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="B246" r:id="rId477" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="A247" r:id="rId478" display="https://www.nba.com/stats/player/1628371/" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="B247" r:id="rId479" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="A248" r:id="rId480" display="https://www.nba.com/stats/player/1628374/" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="B248" r:id="rId481" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="A249" r:id="rId482" display="https://www.nba.com/stats/player/1628373/" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="B249" r:id="rId483" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="A250" r:id="rId484" display="https://www.nba.com/stats/player/1628372/" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="B250" r:id="rId485" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="A251" r:id="rId486" display="https://www.nba.com/stats/player/1628380/" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="B251" r:id="rId487" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="A252" r:id="rId488" display="https://www.nba.com/stats/player/1628370/" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="B252" r:id="rId489" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="A253" r:id="rId490" display="https://www.nba.com/stats/player/1628379/" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="B253" r:id="rId491" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="A254" r:id="rId492" display="https://www.nba.com/stats/player/1628378/" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="B254" r:id="rId493" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="A255" r:id="rId494" display="https://www.nba.com/stats/player/1628389/" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="B255" r:id="rId495" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="A256" r:id="rId496" display="https://www.nba.com/stats/player/1628382/" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="B256" r:id="rId497" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="A257" r:id="rId498" display="https://www.nba.com/stats/player/1628383/" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="B257" r:id="rId499" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
-    <hyperlink ref="A258" r:id="rId500" display="https://www.nba.com/stats/player/1628391/" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
-    <hyperlink ref="B258" r:id="rId501" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
-    <hyperlink ref="A259" r:id="rId502" display="https://www.nba.com/stats/player/1628388/" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
-    <hyperlink ref="B259" r:id="rId503" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
-    <hyperlink ref="A260" r:id="rId504" display="https://www.nba.com/stats/player/1628381/" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
-    <hyperlink ref="B260" r:id="rId505" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
-    <hyperlink ref="A261" r:id="rId506" display="https://www.nba.com/stats/player/1628385/" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
-    <hyperlink ref="B261" r:id="rId507" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
-    <hyperlink ref="A262" r:id="rId508" display="https://www.nba.com/stats/player/1628390/" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
-    <hyperlink ref="B262" r:id="rId509" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
-    <hyperlink ref="A263" r:id="rId510" display="https://www.nba.com/stats/player/1628386/" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
-    <hyperlink ref="B263" r:id="rId511" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
-    <hyperlink ref="A264" r:id="rId512" display="https://www.nba.com/stats/player/1628384/" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
-    <hyperlink ref="B264" r:id="rId513" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
-    <hyperlink ref="A265" r:id="rId514" display="https://www.nba.com/stats/player/1628399/" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
-    <hyperlink ref="B265" r:id="rId515" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
-    <hyperlink ref="A266" r:id="rId516" display="https://www.nba.com/stats/player/1628394/" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
-    <hyperlink ref="B266" r:id="rId517" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
-    <hyperlink ref="A267" r:id="rId518" display="https://www.nba.com/stats/player/1628403/" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
-    <hyperlink ref="B267" r:id="rId519" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
-    <hyperlink ref="A268" r:id="rId520" display="https://www.nba.com/stats/player/1628398/" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
-    <hyperlink ref="B268" r:id="rId521" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
-    <hyperlink ref="A269" r:id="rId522" display="https://www.nba.com/stats/player/1628396/" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
-    <hyperlink ref="B269" r:id="rId523" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
-    <hyperlink ref="A270" r:id="rId524" display="https://www.nba.com/stats/player/1628401/" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
-    <hyperlink ref="B270" r:id="rId525" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
-    <hyperlink ref="A271" r:id="rId526" display="https://www.nba.com/stats/player/1628404/" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
-    <hyperlink ref="B271" r:id="rId527" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
-    <hyperlink ref="A272" r:id="rId528" display="https://www.nba.com/stats/player/1628402/" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
-    <hyperlink ref="B272" r:id="rId529" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
-    <hyperlink ref="A273" r:id="rId530" display="https://www.nba.com/stats/player/1628432/" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
-    <hyperlink ref="B273" r:id="rId531" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
-    <hyperlink ref="A274" r:id="rId532" display="https://www.nba.com/stats/player/1628411/" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
-    <hyperlink ref="B274" r:id="rId533" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
-    <hyperlink ref="A275" r:id="rId534" display="https://www.nba.com/stats/player/1628412/" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
-    <hyperlink ref="B275" r:id="rId535" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
-    <hyperlink ref="A276" r:id="rId536" display="https://www.nba.com/stats/player/1628397/" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
-    <hyperlink ref="B276" r:id="rId537" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
-    <hyperlink ref="A277" r:id="rId538" display="https://www.nba.com/stats/player/1628413/" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
-    <hyperlink ref="B277" r:id="rId539" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
-    <hyperlink ref="A278" r:id="rId540" display="https://www.nba.com/stats/player/1628400/" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
-    <hyperlink ref="B278" r:id="rId541" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
-    <hyperlink ref="A279" r:id="rId542" display="https://www.nba.com/stats/player/1628395/" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
-    <hyperlink ref="B279" r:id="rId543" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
-    <hyperlink ref="A280" r:id="rId544" display="https://www.nba.com/stats/player/1628393/" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
-    <hyperlink ref="B280" r:id="rId545" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
-    <hyperlink ref="A281" r:id="rId546" display="https://www.nba.com/stats/player/1628407/" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
-    <hyperlink ref="B281" r:id="rId547" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
-    <hyperlink ref="A282" r:id="rId548" display="https://www.nba.com/stats/player/1628416/" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
-    <hyperlink ref="B282" r:id="rId549" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
-    <hyperlink ref="A283" r:id="rId550" display="https://www.nba.com/stats/player/1628418/" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
-    <hyperlink ref="B283" r:id="rId551" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
-    <hyperlink ref="A284" r:id="rId552" display="https://www.nba.com/stats/player/1628392/" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
-    <hyperlink ref="B284" r:id="rId553" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
-    <hyperlink ref="A285" r:id="rId554" display="https://www.nba.com/stats/player/1628422/" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
-    <hyperlink ref="B285" r:id="rId555" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
-    <hyperlink ref="A286" r:id="rId556" display="https://www.nba.com/stats/player/1628415/" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
-    <hyperlink ref="B286" r:id="rId557" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
-    <hyperlink ref="A287" r:id="rId558" display="https://www.nba.com/stats/player/1628425/" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
-    <hyperlink ref="B287" r:id="rId559" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
-    <hyperlink ref="A288" r:id="rId560" display="https://www.nba.com/stats/player/1628387/" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
-    <hyperlink ref="B288" r:id="rId561" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
-    <hyperlink ref="A289" r:id="rId562" display="https://www.nba.com/stats/player/1628414/" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
-    <hyperlink ref="B289" r:id="rId563" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
-    <hyperlink ref="A290" r:id="rId564" display="https://www.nba.com/stats/player/1628427/" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
-    <hyperlink ref="B290" r:id="rId565" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
-    <hyperlink ref="B291" r:id="rId566" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
-    <hyperlink ref="A292" r:id="rId567" display="https://www.nba.com/stats/player/1628420/" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
-    <hyperlink ref="B292" r:id="rId568" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
-    <hyperlink ref="A293" r:id="rId569" display="https://www.nba.com/stats/player/1628410/" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
-    <hyperlink ref="B293" r:id="rId570" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
-    <hyperlink ref="A294" r:id="rId571" display="https://www.nba.com/stats/player/1628443/" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
-    <hyperlink ref="B294" r:id="rId572" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
-    <hyperlink ref="A295" r:id="rId573" display="https://www.nba.com/stats/player/1628409/" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
-    <hyperlink ref="B295" r:id="rId574" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
-    <hyperlink ref="A296" r:id="rId575" display="https://www.nba.com/stats/player/1628430/" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
-    <hyperlink ref="B296" r:id="rId576" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
-    <hyperlink ref="A297" r:id="rId577" display="https://www.nba.com/stats/player/1628444/" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
-    <hyperlink ref="B297" r:id="rId578" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
-    <hyperlink ref="B298" r:id="rId579" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
-    <hyperlink ref="B299" r:id="rId580" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
-    <hyperlink ref="A300" r:id="rId581" display="https://www.nba.com/stats/player/1628417/" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
-    <hyperlink ref="B300" r:id="rId582" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
-    <hyperlink ref="B301" r:id="rId583" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
-    <hyperlink ref="A302" r:id="rId584" display="https://www.nba.com/stats/player/1627732/" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
-    <hyperlink ref="B302" r:id="rId585" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
-    <hyperlink ref="A303" r:id="rId586" display="https://www.nba.com/stats/player/1627742/" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
-    <hyperlink ref="B303" r:id="rId587" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
-    <hyperlink ref="A304" r:id="rId588" display="https://www.nba.com/stats/player/1627759/" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
-    <hyperlink ref="B304" r:id="rId589" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
-    <hyperlink ref="A305" r:id="rId590" display="https://www.nba.com/stats/player/1627733/" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
-    <hyperlink ref="B305" r:id="rId591" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
-    <hyperlink ref="A306" r:id="rId592" display="https://www.nba.com/stats/player/1627739/" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
-    <hyperlink ref="B306" r:id="rId593" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
-    <hyperlink ref="A307" r:id="rId594" display="https://www.nba.com/stats/player/1627741/" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
-    <hyperlink ref="B307" r:id="rId595" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
-    <hyperlink ref="A308" r:id="rId596" display="https://www.nba.com/stats/player/1627750/" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
-    <hyperlink ref="B308" r:id="rId597" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
-    <hyperlink ref="A309" r:id="rId598" display="https://www.nba.com/stats/player/1627737/" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
-    <hyperlink ref="B309" r:id="rId599" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
-    <hyperlink ref="A310" r:id="rId600" display="https://www.nba.com/stats/player/1627751/" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
-    <hyperlink ref="B310" r:id="rId601" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
-    <hyperlink ref="A311" r:id="rId602" display="https://www.nba.com/stats/player/1627748/" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
-    <hyperlink ref="B311" r:id="rId603" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
-    <hyperlink ref="A312" r:id="rId604" display="https://www.nba.com/stats/player/1627734/" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
-    <hyperlink ref="B312" r:id="rId605" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
-    <hyperlink ref="A313" r:id="rId606" display="https://www.nba.com/stats/player/1627752/" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
-    <hyperlink ref="B313" r:id="rId607" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
-    <hyperlink ref="A314" r:id="rId608" display="https://www.nba.com/stats/player/1627834/" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
-    <hyperlink ref="B314" r:id="rId609" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
-    <hyperlink ref="A315" r:id="rId610" display="https://www.nba.com/stats/player/1627756/" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
-    <hyperlink ref="B315" r:id="rId611" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
-    <hyperlink ref="A316" r:id="rId612" display="https://www.nba.com/stats/player/1627823/" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
-    <hyperlink ref="B316" r:id="rId613" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
-    <hyperlink ref="A317" r:id="rId614" display="https://www.nba.com/stats/player/1627824/" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
-    <hyperlink ref="B317" r:id="rId615" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
-    <hyperlink ref="A318" r:id="rId616" display="https://www.nba.com/stats/player/1627735/" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
-    <hyperlink ref="B318" r:id="rId617" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
-    <hyperlink ref="A319" r:id="rId618" display="https://www.nba.com/stats/player/1627740/" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
-    <hyperlink ref="B319" r:id="rId619" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
-    <hyperlink ref="A320" r:id="rId620" display="https://www.nba.com/stats/player/1627736/" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
-    <hyperlink ref="B320" r:id="rId621" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
-    <hyperlink ref="A321" r:id="rId622" display="https://www.nba.com/stats/player/1627747/" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
-    <hyperlink ref="B321" r:id="rId623" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
-    <hyperlink ref="A322" r:id="rId624" display="https://www.nba.com/stats/player/1627761/" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
-    <hyperlink ref="B322" r:id="rId625" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
-    <hyperlink ref="A323" r:id="rId626" display="https://www.nba.com/stats/player/1627781/" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
-    <hyperlink ref="B323" r:id="rId627" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
-    <hyperlink ref="A324" r:id="rId628" display="https://www.nba.com/stats/player/1627790/" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
-    <hyperlink ref="B324" r:id="rId629" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
-    <hyperlink ref="A325" r:id="rId630" display="https://www.nba.com/stats/player/1627789/" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
-    <hyperlink ref="B325" r:id="rId631" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
-    <hyperlink ref="A326" r:id="rId632" display="https://www.nba.com/stats/player/1627744/" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
-    <hyperlink ref="B326" r:id="rId633" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
-    <hyperlink ref="A327" r:id="rId634" display="https://www.nba.com/stats/player/1627788/" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
-    <hyperlink ref="B327" r:id="rId635" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
-    <hyperlink ref="A328" r:id="rId636" display="https://www.nba.com/stats/player/1627783/" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
-    <hyperlink ref="B328" r:id="rId637" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
-    <hyperlink ref="A329" r:id="rId638" display="https://www.nba.com/stats/player/1627746/" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
-    <hyperlink ref="B329" r:id="rId639" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
-    <hyperlink ref="A330" r:id="rId640" display="https://www.nba.com/stats/player/1627749/" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
-    <hyperlink ref="B330" r:id="rId641" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
-    <hyperlink ref="A331" r:id="rId642" display="https://www.nba.com/stats/player/1627745/" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
-    <hyperlink ref="B331" r:id="rId643" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
-    <hyperlink ref="A332" r:id="rId644" display="https://www.nba.com/stats/player/1627738/" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
-    <hyperlink ref="B332" r:id="rId645" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
-    <hyperlink ref="A333" r:id="rId646" display="https://www.nba.com/stats/player/1627826/" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
-    <hyperlink ref="B333" r:id="rId647" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
-    <hyperlink ref="A334" r:id="rId648" display="https://www.nba.com/stats/player/1627767/" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
-    <hyperlink ref="B334" r:id="rId649" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
-    <hyperlink ref="A335" r:id="rId650" display="https://www.nba.com/stats/player/1627755/" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
-    <hyperlink ref="B335" r:id="rId651" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
-    <hyperlink ref="A336" r:id="rId652" display="https://www.nba.com/stats/player/1627825/" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
-    <hyperlink ref="B336" r:id="rId653" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
-    <hyperlink ref="A337" r:id="rId654" display="https://www.nba.com/stats/player/1627763/" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
-    <hyperlink ref="B337" r:id="rId655" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
-    <hyperlink ref="A338" r:id="rId656" display="https://www.nba.com/stats/player/1627778/" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
-    <hyperlink ref="B338" r:id="rId657" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
-    <hyperlink ref="A339" r:id="rId658" display="https://www.nba.com/stats/player/1627775/" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
-    <hyperlink ref="B339" r:id="rId659" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
-    <hyperlink ref="B340" r:id="rId660" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
-    <hyperlink ref="A341" r:id="rId661" display="https://www.nba.com/stats/player/1627754/" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
-    <hyperlink ref="B341" r:id="rId662" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
-    <hyperlink ref="A342" r:id="rId663" display="https://www.nba.com/stats/player/1627757/" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
-    <hyperlink ref="B342" r:id="rId664" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
-    <hyperlink ref="A343" r:id="rId665" display="https://www.nba.com/stats/player/1627785/" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
-    <hyperlink ref="B343" r:id="rId666" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
-    <hyperlink ref="A344" r:id="rId667" display="https://www.nba.com/stats/player/1627753/" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
-    <hyperlink ref="B344" r:id="rId668" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
-    <hyperlink ref="B345" r:id="rId669" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
-    <hyperlink ref="A346" r:id="rId670" display="https://www.nba.com/stats/player/1627743/" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
-    <hyperlink ref="B346" r:id="rId671" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
-    <hyperlink ref="A347" r:id="rId672" display="https://www.nba.com/stats/player/1627773/" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
-    <hyperlink ref="B347" r:id="rId673" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
-    <hyperlink ref="A348" r:id="rId674" display="https://www.nba.com/stats/player/1627774/" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
-    <hyperlink ref="B348" r:id="rId675" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
-    <hyperlink ref="A349" r:id="rId676" display="https://www.nba.com/stats/player/1627835/" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
-    <hyperlink ref="B349" r:id="rId677" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
-    <hyperlink ref="A350" r:id="rId678" display="https://www.nba.com/stats/player/1627771/" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
-    <hyperlink ref="B350" r:id="rId679" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
-    <hyperlink ref="A351" r:id="rId680" display="https://www.nba.com/stats/player/1627777/" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
-    <hyperlink ref="B351" r:id="rId681" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
-    <hyperlink ref="A352" r:id="rId682" display="https://www.nba.com/stats/player/1627791/" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
-    <hyperlink ref="B352" r:id="rId683" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
-    <hyperlink ref="A353" r:id="rId684" display="https://www.nba.com/stats/player/1627762/" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
-    <hyperlink ref="B353" r:id="rId685" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-0000AC020000}"/>
-    <hyperlink ref="A354" r:id="rId686" display="https://www.nba.com/stats/player/1627822/" xr:uid="{00000000-0004-0000-0000-0000AD020000}"/>
-    <hyperlink ref="B354" r:id="rId687" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-0000AE020000}"/>
-    <hyperlink ref="A355" r:id="rId688" display="https://www.nba.com/stats/player/1627770/" xr:uid="{00000000-0004-0000-0000-0000AF020000}"/>
-    <hyperlink ref="B355" r:id="rId689" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-0000B0020000}"/>
-    <hyperlink ref="A356" r:id="rId690" display="https://www.nba.com/stats/player/1627779/" xr:uid="{00000000-0004-0000-0000-0000B1020000}"/>
-    <hyperlink ref="B356" r:id="rId691" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-0000B2020000}"/>
-    <hyperlink ref="A357" r:id="rId692" display="https://www.nba.com/stats/player/1627772/" xr:uid="{00000000-0004-0000-0000-0000B3020000}"/>
-    <hyperlink ref="B357" r:id="rId693" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-0000B4020000}"/>
-    <hyperlink ref="B358" r:id="rId694" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-0000B5020000}"/>
-    <hyperlink ref="A359" r:id="rId695" display="https://www.nba.com/stats/player/1627846/" xr:uid="{00000000-0004-0000-0000-0000B6020000}"/>
-    <hyperlink ref="B359" r:id="rId696" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-0000B7020000}"/>
-    <hyperlink ref="A360" r:id="rId697" display="https://www.nba.com/stats/player/1627766/" xr:uid="{00000000-0004-0000-0000-0000B8020000}"/>
-    <hyperlink ref="B360" r:id="rId698" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-0000B9020000}"/>
-    <hyperlink ref="A361" r:id="rId699" display="https://www.nba.com/stats/player/1627820/" xr:uid="{00000000-0004-0000-0000-0000BA020000}"/>
-    <hyperlink ref="B361" r:id="rId700" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-0000BB020000}"/>
-    <hyperlink ref="A362" r:id="rId701" display="https://www.nba.com/stats/player/1626157/" xr:uid="{00000000-0004-0000-0000-0000BC020000}"/>
-    <hyperlink ref="B362" r:id="rId702" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-0000BD020000}"/>
-    <hyperlink ref="A363" r:id="rId703" display="https://www.nba.com/stats/player/1626156/" xr:uid="{00000000-0004-0000-0000-0000BE020000}"/>
-    <hyperlink ref="B363" r:id="rId704" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-0000BF020000}"/>
-    <hyperlink ref="A364" r:id="rId705" display="https://www.nba.com/stats/player/1626143/" xr:uid="{00000000-0004-0000-0000-0000C0020000}"/>
-    <hyperlink ref="B364" r:id="rId706" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-0000C1020000}"/>
-    <hyperlink ref="A365" r:id="rId707" display="https://www.nba.com/stats/player/204001/" xr:uid="{00000000-0004-0000-0000-0000C2020000}"/>
-    <hyperlink ref="B365" r:id="rId708" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-0000C3020000}"/>
-    <hyperlink ref="A366" r:id="rId709" display="https://www.nba.com/stats/player/1626209/" xr:uid="{00000000-0004-0000-0000-0000C4020000}"/>
-    <hyperlink ref="B366" r:id="rId710" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-0000C5020000}"/>
-    <hyperlink ref="A367" r:id="rId711" display="https://www.nba.com/stats/player/1626161/" xr:uid="{00000000-0004-0000-0000-0000C6020000}"/>
-    <hyperlink ref="B367" r:id="rId712" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-0000C7020000}"/>
-    <hyperlink ref="A368" r:id="rId713" display="https://www.nba.com/stats/player/1626144/" xr:uid="{00000000-0004-0000-0000-0000C8020000}"/>
-    <hyperlink ref="B368" r:id="rId714" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-0000C9020000}"/>
-    <hyperlink ref="A369" r:id="rId715" display="https://www.nba.com/stats/player/1626169/" xr:uid="{00000000-0004-0000-0000-0000CA020000}"/>
-    <hyperlink ref="B369" r:id="rId716" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-0000CB020000}"/>
-    <hyperlink ref="A370" r:id="rId717" display="https://www.nba.com/stats/player/1626163/" xr:uid="{00000000-0004-0000-0000-0000CC020000}"/>
-    <hyperlink ref="B370" r:id="rId718" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-0000CD020000}"/>
-    <hyperlink ref="A371" r:id="rId719" display="https://www.nba.com/stats/player/1626159/" xr:uid="{00000000-0004-0000-0000-0000CE020000}"/>
-    <hyperlink ref="B371" r:id="rId720" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-0000CF020000}"/>
-    <hyperlink ref="A372" r:id="rId721" display="https://www.nba.com/stats/player/1626167/" xr:uid="{00000000-0004-0000-0000-0000D0020000}"/>
-    <hyperlink ref="B372" r:id="rId722" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-0000D1020000}"/>
-    <hyperlink ref="A373" r:id="rId723" display="https://www.nba.com/stats/player/1626168/" xr:uid="{00000000-0004-0000-0000-0000D2020000}"/>
-    <hyperlink ref="B373" r:id="rId724" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-0000D3020000}"/>
-    <hyperlink ref="A374" r:id="rId725" display="https://www.nba.com/stats/player/1626164/" xr:uid="{00000000-0004-0000-0000-0000D4020000}"/>
-    <hyperlink ref="B374" r:id="rId726" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-0000D5020000}"/>
-    <hyperlink ref="A375" r:id="rId727" display="https://www.nba.com/stats/player/1626166/" xr:uid="{00000000-0004-0000-0000-0000D6020000}"/>
-    <hyperlink ref="B375" r:id="rId728" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-0000D7020000}"/>
-    <hyperlink ref="A376" r:id="rId729" display="https://www.nba.com/stats/player/1626162/" xr:uid="{00000000-0004-0000-0000-0000D8020000}"/>
-    <hyperlink ref="B376" r:id="rId730" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-0000D9020000}"/>
-    <hyperlink ref="A377" r:id="rId731" display="https://www.nba.com/stats/player/1626179/" xr:uid="{00000000-0004-0000-0000-0000DA020000}"/>
-    <hyperlink ref="B377" r:id="rId732" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-0000DB020000}"/>
-    <hyperlink ref="A378" r:id="rId733" display="https://www.nba.com/stats/player/1626173/" xr:uid="{00000000-0004-0000-0000-0000DC020000}"/>
-    <hyperlink ref="B378" r:id="rId734" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-0000DD020000}"/>
-    <hyperlink ref="A379" r:id="rId735" display="https://www.nba.com/stats/player/1626155/" xr:uid="{00000000-0004-0000-0000-0000DE020000}"/>
-    <hyperlink ref="B379" r:id="rId736" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-0000DF020000}"/>
-    <hyperlink ref="A380" r:id="rId737" display="https://www.nba.com/stats/player/1626170/" xr:uid="{00000000-0004-0000-0000-0000E0020000}"/>
-    <hyperlink ref="B380" r:id="rId738" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-0000E1020000}"/>
-    <hyperlink ref="A381" r:id="rId739" display="https://www.nba.com/stats/player/1626153/" xr:uid="{00000000-0004-0000-0000-0000E2020000}"/>
-    <hyperlink ref="B381" r:id="rId740" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-0000E3020000}"/>
-    <hyperlink ref="A382" r:id="rId741" display="https://www.nba.com/stats/player/1626147/" xr:uid="{00000000-0004-0000-0000-0000E4020000}"/>
-    <hyperlink ref="B382" r:id="rId742" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-0000E5020000}"/>
-    <hyperlink ref="A383" r:id="rId743" display="https://www.nba.com/stats/player/1626171/" xr:uid="{00000000-0004-0000-0000-0000E6020000}"/>
-    <hyperlink ref="B383" r:id="rId744" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-0000E7020000}"/>
-    <hyperlink ref="A384" r:id="rId745" display="https://www.nba.com/stats/player/1626178/" xr:uid="{00000000-0004-0000-0000-0000E8020000}"/>
-    <hyperlink ref="B384" r:id="rId746" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-0000E9020000}"/>
-    <hyperlink ref="A385" r:id="rId747" display="https://www.nba.com/stats/player/1626145/" xr:uid="{00000000-0004-0000-0000-0000EA020000}"/>
-    <hyperlink ref="B385" r:id="rId748" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-0000EB020000}"/>
-    <hyperlink ref="A386" r:id="rId749" display="https://www.nba.com/stats/player/1626185/" xr:uid="{00000000-0004-0000-0000-0000EC020000}"/>
-    <hyperlink ref="B386" r:id="rId750" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-0000ED020000}"/>
-    <hyperlink ref="B387" r:id="rId751" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-0000EE020000}"/>
-    <hyperlink ref="A388" r:id="rId752" display="https://www.nba.com/stats/player/1626204/" xr:uid="{00000000-0004-0000-0000-0000EF020000}"/>
-    <hyperlink ref="B388" r:id="rId753" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-0000F0020000}"/>
-    <hyperlink ref="A389" r:id="rId754" display="https://www.nba.com/stats/player/1626154/" xr:uid="{00000000-0004-0000-0000-0000F1020000}"/>
-    <hyperlink ref="B389" r:id="rId755" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-0000F2020000}"/>
-    <hyperlink ref="A390" r:id="rId756" display="https://www.nba.com/stats/player/1626191/" xr:uid="{00000000-0004-0000-0000-0000F3020000}"/>
-    <hyperlink ref="B390" r:id="rId757" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-0000F4020000}"/>
-    <hyperlink ref="A391" r:id="rId758" display="https://www.nba.com/stats/player/1626172/" xr:uid="{00000000-0004-0000-0000-0000F5020000}"/>
-    <hyperlink ref="B391" r:id="rId759" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-0000F6020000}"/>
-    <hyperlink ref="A392" r:id="rId760" display="https://www.nba.com/stats/player/1626224/" xr:uid="{00000000-0004-0000-0000-0000F7020000}"/>
-    <hyperlink ref="B392" r:id="rId761" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-0000F8020000}"/>
-    <hyperlink ref="A393" r:id="rId762" display="https://www.nba.com/stats/player/1626149/" xr:uid="{00000000-0004-0000-0000-0000F9020000}"/>
-    <hyperlink ref="B393" r:id="rId763" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-0000FA020000}"/>
-    <hyperlink ref="A394" r:id="rId764" display="https://www.nba.com/stats/player/1626175/" xr:uid="{00000000-0004-0000-0000-0000FB020000}"/>
-    <hyperlink ref="B394" r:id="rId765" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
-    <hyperlink ref="A395" r:id="rId766" display="https://www.nba.com/stats/player/1626148/" xr:uid="{00000000-0004-0000-0000-0000FD020000}"/>
-    <hyperlink ref="B395" r:id="rId767" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-0000FE020000}"/>
-    <hyperlink ref="A396" r:id="rId768" display="https://www.nba.com/stats/player/1626195/" xr:uid="{00000000-0004-0000-0000-0000FF020000}"/>
-    <hyperlink ref="B396" r:id="rId769" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000000030000}"/>
-    <hyperlink ref="A397" r:id="rId770" display="https://www.nba.com/stats/player/1626176/" xr:uid="{00000000-0004-0000-0000-000001030000}"/>
-    <hyperlink ref="B397" r:id="rId771" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-000002030000}"/>
-    <hyperlink ref="A398" r:id="rId772" display="https://www.nba.com/stats/player/1626158/" xr:uid="{00000000-0004-0000-0000-000003030000}"/>
-    <hyperlink ref="B398" r:id="rId773" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000004030000}"/>
-    <hyperlink ref="A399" r:id="rId774" display="https://www.nba.com/stats/player/1626199/" xr:uid="{00000000-0004-0000-0000-000005030000}"/>
-    <hyperlink ref="B399" r:id="rId775" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-000006030000}"/>
-    <hyperlink ref="B400" r:id="rId776" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-000007030000}"/>
-    <hyperlink ref="A401" r:id="rId777" display="https://www.nba.com/stats/player/1626196/" xr:uid="{00000000-0004-0000-0000-000008030000}"/>
-    <hyperlink ref="B401" r:id="rId778" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-000009030000}"/>
-    <hyperlink ref="A402" r:id="rId779" display="https://www.nba.com/stats/player/1626192/" xr:uid="{00000000-0004-0000-0000-00000A030000}"/>
-    <hyperlink ref="B402" r:id="rId780" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-00000B030000}"/>
-    <hyperlink ref="B403" r:id="rId781" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-00000C030000}"/>
-    <hyperlink ref="A404" r:id="rId782" display="https://www.nba.com/stats/player/1626202/" xr:uid="{00000000-0004-0000-0000-00000D030000}"/>
-    <hyperlink ref="B404" r:id="rId783" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-00000E030000}"/>
-    <hyperlink ref="A405" r:id="rId784" display="https://www.nba.com/stats/player/1626150/" xr:uid="{00000000-0004-0000-0000-00000F030000}"/>
-    <hyperlink ref="B405" r:id="rId785" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-000010030000}"/>
-    <hyperlink ref="B406" r:id="rId786" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-000011030000}"/>
-    <hyperlink ref="A407" r:id="rId787" display="https://www.nba.com/stats/player/1626181/" xr:uid="{00000000-0004-0000-0000-000012030000}"/>
-    <hyperlink ref="B407" r:id="rId788" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-000013030000}"/>
-    <hyperlink ref="B408" r:id="rId789" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000014030000}"/>
-    <hyperlink ref="A409" r:id="rId790" display="https://www.nba.com/stats/player/1626177/" xr:uid="{00000000-0004-0000-0000-000015030000}"/>
-    <hyperlink ref="B409" r:id="rId791" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-000016030000}"/>
-    <hyperlink ref="B410" r:id="rId792" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-000017030000}"/>
-    <hyperlink ref="B411" r:id="rId793" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-000018030000}"/>
-    <hyperlink ref="B412" r:id="rId794" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-000019030000}"/>
-    <hyperlink ref="B413" r:id="rId795" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-00001A030000}"/>
-    <hyperlink ref="B414" r:id="rId796" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-00001B030000}"/>
-    <hyperlink ref="B415" r:id="rId797" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-00001C030000}"/>
-    <hyperlink ref="B416" r:id="rId798" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-00001D030000}"/>
-    <hyperlink ref="A417" r:id="rId799" display="https://www.nba.com/stats/player/1626183/" xr:uid="{00000000-0004-0000-0000-00001E030000}"/>
-    <hyperlink ref="B417" r:id="rId800" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-00001F030000}"/>
-    <hyperlink ref="B418" r:id="rId801" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-000020030000}"/>
-    <hyperlink ref="A419" r:id="rId802" display="https://www.nba.com/stats/player/1626160/" xr:uid="{00000000-0004-0000-0000-000021030000}"/>
-    <hyperlink ref="B419" r:id="rId803" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000022030000}"/>
-    <hyperlink ref="B420" r:id="rId804" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-000023030000}"/>
-    <hyperlink ref="B421" r:id="rId805" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000024030000}"/>
-    <hyperlink ref="A422" r:id="rId806" display="https://www.nba.com/stats/player/203952/" xr:uid="{00000000-0004-0000-0000-000025030000}"/>
-    <hyperlink ref="B422" r:id="rId807" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-000026030000}"/>
-    <hyperlink ref="A423" r:id="rId808" display="https://www.nba.com/stats/player/203953/" xr:uid="{00000000-0004-0000-0000-000027030000}"/>
-    <hyperlink ref="B423" r:id="rId809" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-000028030000}"/>
-    <hyperlink ref="A424" r:id="rId810" display="https://www.nba.com/stats/player/203954/" xr:uid="{00000000-0004-0000-0000-000029030000}"/>
-    <hyperlink ref="B424" r:id="rId811" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-00002A030000}"/>
-    <hyperlink ref="A425" r:id="rId812" display="https://www.nba.com/stats/player/203932/" xr:uid="{00000000-0004-0000-0000-00002B030000}"/>
-    <hyperlink ref="B425" r:id="rId813" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-00002C030000}"/>
-    <hyperlink ref="A426" r:id="rId814" display="https://www.nba.com/stats/player/203957/" xr:uid="{00000000-0004-0000-0000-00002D030000}"/>
-    <hyperlink ref="B426" r:id="rId815" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-00002E030000}"/>
-    <hyperlink ref="A427" r:id="rId816" display="https://www.nba.com/stats/player/203935/" xr:uid="{00000000-0004-0000-0000-00002F030000}"/>
-    <hyperlink ref="B427" r:id="rId817" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-000030030000}"/>
-    <hyperlink ref="A428" r:id="rId818" display="https://www.nba.com/stats/player/203944/" xr:uid="{00000000-0004-0000-0000-000031030000}"/>
-    <hyperlink ref="B428" r:id="rId819" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-000032030000}"/>
-    <hyperlink ref="A429" r:id="rId820" display="https://www.nba.com/stats/player/203917/" xr:uid="{00000000-0004-0000-0000-000033030000}"/>
-    <hyperlink ref="B429" r:id="rId821" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-000034030000}"/>
-    <hyperlink ref="A430" r:id="rId822" display="https://www.nba.com/stats/player/203943/" xr:uid="{00000000-0004-0000-0000-000035030000}"/>
-    <hyperlink ref="B430" r:id="rId823" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-000036030000}"/>
-    <hyperlink ref="A431" r:id="rId824" display="https://www.nba.com/stats/player/203901/" xr:uid="{00000000-0004-0000-0000-000037030000}"/>
-    <hyperlink ref="B431" r:id="rId825" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000038030000}"/>
-    <hyperlink ref="A432" r:id="rId826" display="https://www.nba.com/stats/player/203926/" xr:uid="{00000000-0004-0000-0000-000039030000}"/>
-    <hyperlink ref="B432" r:id="rId827" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-00003A030000}"/>
-    <hyperlink ref="A433" r:id="rId828" display="https://www.nba.com/stats/player/203967/" xr:uid="{00000000-0004-0000-0000-00003B030000}"/>
-    <hyperlink ref="B433" r:id="rId829" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-00003C030000}"/>
-    <hyperlink ref="A434" r:id="rId830" display="https://www.nba.com/stats/player/203897/" xr:uid="{00000000-0004-0000-0000-00003D030000}"/>
-    <hyperlink ref="B434" r:id="rId831" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-00003E030000}"/>
-    <hyperlink ref="A435" r:id="rId832" display="https://www.nba.com/stats/player/203933/" xr:uid="{00000000-0004-0000-0000-00003F030000}"/>
-    <hyperlink ref="B435" r:id="rId833" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-000040030000}"/>
-    <hyperlink ref="A436" r:id="rId834" display="https://www.nba.com/stats/player/203940/" xr:uid="{00000000-0004-0000-0000-000041030000}"/>
-    <hyperlink ref="B436" r:id="rId835" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-000042030000}"/>
-    <hyperlink ref="A437" r:id="rId836" display="https://www.nba.com/stats/player/203994/" xr:uid="{00000000-0004-0000-0000-000043030000}"/>
-    <hyperlink ref="B437" r:id="rId837" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-000044030000}"/>
-    <hyperlink ref="A438" r:id="rId838" display="https://www.nba.com/stats/player/203923/" xr:uid="{00000000-0004-0000-0000-000045030000}"/>
-    <hyperlink ref="B438" r:id="rId839" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-000046030000}"/>
-    <hyperlink ref="A439" r:id="rId840" display="https://www.nba.com/stats/player/203898/" xr:uid="{00000000-0004-0000-0000-000047030000}"/>
-    <hyperlink ref="B439" r:id="rId841" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-000048030000}"/>
-    <hyperlink ref="A440" r:id="rId842" display="https://www.nba.com/stats/player/203914/" xr:uid="{00000000-0004-0000-0000-000049030000}"/>
-    <hyperlink ref="B440" r:id="rId843" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-00004A030000}"/>
-    <hyperlink ref="A441" r:id="rId844" display="https://www.nba.com/stats/player/203998/" xr:uid="{00000000-0004-0000-0000-00004B030000}"/>
-    <hyperlink ref="B441" r:id="rId845" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-00004C030000}"/>
-    <hyperlink ref="A442" r:id="rId846" display="https://www.nba.com/stats/player/203956/" xr:uid="{00000000-0004-0000-0000-00004D030000}"/>
-    <hyperlink ref="B442" r:id="rId847" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-00004E030000}"/>
-    <hyperlink ref="A443" r:id="rId848" display="https://www.nba.com/stats/player/203919/" xr:uid="{00000000-0004-0000-0000-00004F030000}"/>
-    <hyperlink ref="B443" r:id="rId849" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-000050030000}"/>
-    <hyperlink ref="A444" r:id="rId850" display="https://www.nba.com/stats/player/203918/" xr:uid="{00000000-0004-0000-0000-000051030000}"/>
-    <hyperlink ref="B444" r:id="rId851" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-000052030000}"/>
-    <hyperlink ref="A445" r:id="rId852" display="https://www.nba.com/stats/player/203894/" xr:uid="{00000000-0004-0000-0000-000053030000}"/>
-    <hyperlink ref="B445" r:id="rId853" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-000054030000}"/>
-    <hyperlink ref="A446" r:id="rId854" display="https://www.nba.com/stats/player/203991/" xr:uid="{00000000-0004-0000-0000-000055030000}"/>
-    <hyperlink ref="B446" r:id="rId855" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-000056030000}"/>
-    <hyperlink ref="A447" r:id="rId856" display="https://www.nba.com/stats/player/203798/" xr:uid="{00000000-0004-0000-0000-000057030000}"/>
-    <hyperlink ref="B447" r:id="rId857" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-000058030000}"/>
-    <hyperlink ref="A448" r:id="rId858" display="https://www.nba.com/stats/player/203992/" xr:uid="{00000000-0004-0000-0000-000059030000}"/>
-    <hyperlink ref="B448" r:id="rId859" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-00005A030000}"/>
-    <hyperlink ref="A449" r:id="rId860" display="https://www.nba.com/stats/player/203912/" xr:uid="{00000000-0004-0000-0000-00005B030000}"/>
-    <hyperlink ref="B449" r:id="rId861" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-00005C030000}"/>
-    <hyperlink ref="A450" r:id="rId862" display="https://www.nba.com/stats/player/203962/" xr:uid="{00000000-0004-0000-0000-00005D030000}"/>
-    <hyperlink ref="B450" r:id="rId863" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-00005E030000}"/>
-    <hyperlink ref="A451" r:id="rId864" display="https://www.nba.com/stats/player/203937/" xr:uid="{00000000-0004-0000-0000-00005F030000}"/>
-    <hyperlink ref="B451" r:id="rId865" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-000060030000}"/>
-    <hyperlink ref="A452" r:id="rId866" display="https://www.nba.com/stats/player/203996/" xr:uid="{00000000-0004-0000-0000-000061030000}"/>
-    <hyperlink ref="B452" r:id="rId867" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-000062030000}"/>
-    <hyperlink ref="A453" r:id="rId868" display="https://www.nba.com/stats/player/203909/" xr:uid="{00000000-0004-0000-0000-000063030000}"/>
-    <hyperlink ref="B453" r:id="rId869" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000064030000}"/>
-    <hyperlink ref="A454" r:id="rId870" display="https://www.nba.com/stats/player/203925/" xr:uid="{00000000-0004-0000-0000-000065030000}"/>
-    <hyperlink ref="B454" r:id="rId871" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-000066030000}"/>
-    <hyperlink ref="A455" r:id="rId872" display="https://www.nba.com/stats/player/203921/" xr:uid="{00000000-0004-0000-0000-000067030000}"/>
-    <hyperlink ref="B455" r:id="rId873" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-000068030000}"/>
-    <hyperlink ref="A456" r:id="rId874" display="https://www.nba.com/stats/player/203950/" xr:uid="{00000000-0004-0000-0000-000069030000}"/>
-    <hyperlink ref="B456" r:id="rId875" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-00006A030000}"/>
-    <hyperlink ref="A457" r:id="rId876" display="https://www.nba.com/stats/player/203948/" xr:uid="{00000000-0004-0000-0000-00006B030000}"/>
-    <hyperlink ref="B457" r:id="rId877" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-00006C030000}"/>
-    <hyperlink ref="B458" r:id="rId878" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-00006D030000}"/>
-    <hyperlink ref="A459" r:id="rId879" display="https://www.nba.com/stats/player/203915/" xr:uid="{00000000-0004-0000-0000-00006E030000}"/>
-    <hyperlink ref="B459" r:id="rId880" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-00006F030000}"/>
-    <hyperlink ref="A460" r:id="rId881" display="https://www.nba.com/stats/player/203924/" xr:uid="{00000000-0004-0000-0000-000070030000}"/>
-    <hyperlink ref="B460" r:id="rId882" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000071030000}"/>
-    <hyperlink ref="A461" r:id="rId883" display="https://www.nba.com/stats/player/203922/" xr:uid="{00000000-0004-0000-0000-000072030000}"/>
-    <hyperlink ref="B461" r:id="rId884" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-000073030000}"/>
-    <hyperlink ref="A462" r:id="rId885" display="https://www.nba.com/stats/player/203999/" xr:uid="{00000000-0004-0000-0000-000074030000}"/>
-    <hyperlink ref="B462" r:id="rId886" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-000075030000}"/>
-    <hyperlink ref="A463" r:id="rId887" display="https://www.nba.com/stats/player/203910/" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
-    <hyperlink ref="B463" r:id="rId888" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
-    <hyperlink ref="A464" r:id="rId889" display="https://www.nba.com/stats/player/204002/" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
-    <hyperlink ref="B464" r:id="rId890" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
-    <hyperlink ref="A465" r:id="rId891" display="https://www.nba.com/stats/player/203900/" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
-    <hyperlink ref="B465" r:id="rId892" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
-    <hyperlink ref="A466" r:id="rId893" display="https://www.nba.com/stats/player/203939/" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
-    <hyperlink ref="B466" r:id="rId894" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
-    <hyperlink ref="A467" r:id="rId895" display="https://www.nba.com/stats/player/203903/" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
-    <hyperlink ref="B467" r:id="rId896" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
-    <hyperlink ref="A468" r:id="rId897" display="https://www.nba.com/stats/player/203893/" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
-    <hyperlink ref="B468" r:id="rId898" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000081030000}"/>
-    <hyperlink ref="A469" r:id="rId899" display="https://www.nba.com/stats/player/203934/" xr:uid="{00000000-0004-0000-0000-000082030000}"/>
-    <hyperlink ref="B469" r:id="rId900" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-000083030000}"/>
-    <hyperlink ref="A470" r:id="rId901" display="https://www.nba.com/stats/player/203946/" xr:uid="{00000000-0004-0000-0000-000084030000}"/>
-    <hyperlink ref="B470" r:id="rId902" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-000085030000}"/>
-    <hyperlink ref="B471" r:id="rId903" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-000086030000}"/>
-    <hyperlink ref="A472" r:id="rId904" display="https://www.nba.com/stats/player/203648/" xr:uid="{00000000-0004-0000-0000-000087030000}"/>
-    <hyperlink ref="B472" r:id="rId905" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-000088030000}"/>
-    <hyperlink ref="B473" r:id="rId906" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000089030000}"/>
-    <hyperlink ref="B474" r:id="rId907" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-00008A030000}"/>
-    <hyperlink ref="B475" r:id="rId908" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-00008B030000}"/>
-    <hyperlink ref="A476" r:id="rId909" display="https://www.nba.com/stats/player/203902/" xr:uid="{00000000-0004-0000-0000-00008C030000}"/>
-    <hyperlink ref="B476" r:id="rId910" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
-    <hyperlink ref="A477" r:id="rId911" display="https://www.nba.com/stats/player/203906/" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
-    <hyperlink ref="B477" r:id="rId912" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
-    <hyperlink ref="B478" r:id="rId913" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
-    <hyperlink ref="A479" r:id="rId914" display="https://www.nba.com/stats/player/203895/" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
-    <hyperlink ref="B479" r:id="rId915" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
-    <hyperlink ref="B480" r:id="rId916" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
-    <hyperlink ref="A481" r:id="rId917" display="https://www.nba.com/stats/player/203928/" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
-    <hyperlink ref="B481" r:id="rId918" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-000095030000}"/>
-    <hyperlink ref="A482" r:id="rId919" display="https://www.nba.com/stats/player/203461/" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
-    <hyperlink ref="B482" r:id="rId920" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
-    <hyperlink ref="A483" r:id="rId921" display="https://www.nba.com/stats/player/203506/" xr:uid="{00000000-0004-0000-0000-000098030000}"/>
-    <hyperlink ref="B483" r:id="rId922" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-000099030000}"/>
-    <hyperlink ref="A484" r:id="rId923" display="https://www.nba.com/stats/player/203490/" xr:uid="{00000000-0004-0000-0000-00009A030000}"/>
-    <hyperlink ref="B484" r:id="rId924" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
-    <hyperlink ref="A485" r:id="rId925" display="https://www.nba.com/stats/player/203469/" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
-    <hyperlink ref="B485" r:id="rId926" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
-    <hyperlink ref="A486" r:id="rId927" display="https://www.nba.com/stats/player/203458/" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
-    <hyperlink ref="B486" r:id="rId928" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
-    <hyperlink ref="A487" r:id="rId929" display="https://www.nba.com/stats/player/203457/" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
-    <hyperlink ref="B487" r:id="rId930" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
-    <hyperlink ref="A488" r:id="rId931" display="https://www.nba.com/stats/player/203463/" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
-    <hyperlink ref="B488" r:id="rId932" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
-    <hyperlink ref="A489" r:id="rId933" display="https://www.nba.com/stats/player/203484/" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
-    <hyperlink ref="B489" r:id="rId934" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
-    <hyperlink ref="A490" r:id="rId935" display="https://www.nba.com/stats/player/203504/" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
-    <hyperlink ref="B490" r:id="rId936" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-0000A7030000}"/>
-    <hyperlink ref="A491" r:id="rId937" display="https://www.nba.com/stats/player/203468/" xr:uid="{00000000-0004-0000-0000-0000A8030000}"/>
-    <hyperlink ref="B491" r:id="rId938" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-0000A9030000}"/>
-    <hyperlink ref="A492" r:id="rId939" display="https://www.nba.com/stats/player/203487/" xr:uid="{00000000-0004-0000-0000-0000AA030000}"/>
-    <hyperlink ref="B492" r:id="rId940" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-0000AB030000}"/>
-    <hyperlink ref="A493" r:id="rId941" display="https://www.nba.com/stats/player/203500/" xr:uid="{00000000-0004-0000-0000-0000AC030000}"/>
-    <hyperlink ref="B493" r:id="rId942" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-0000AD030000}"/>
-    <hyperlink ref="A494" r:id="rId943" display="https://www.nba.com/stats/player/203482/" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
-    <hyperlink ref="B494" r:id="rId944" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
-    <hyperlink ref="A495" r:id="rId945" display="https://www.nba.com/stats/player/203498/" xr:uid="{00000000-0004-0000-0000-0000B0030000}"/>
-    <hyperlink ref="B495" r:id="rId946" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-0000B1030000}"/>
-    <hyperlink ref="A496" r:id="rId947" display="https://www.nba.com/stats/player/203507/" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
-    <hyperlink ref="B496" r:id="rId948" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
-    <hyperlink ref="A497" r:id="rId949" display="https://www.nba.com/stats/player/203512/" xr:uid="{00000000-0004-0000-0000-0000B4030000}"/>
-    <hyperlink ref="B497" r:id="rId950" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-0000B5030000}"/>
-    <hyperlink ref="A498" r:id="rId951" display="https://www.nba.com/stats/player/203471/" xr:uid="{00000000-0004-0000-0000-0000B6030000}"/>
-    <hyperlink ref="B498" r:id="rId952" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-0000B7030000}"/>
-    <hyperlink ref="A499" r:id="rId953" display="https://www.nba.com/stats/player/203499/" xr:uid="{00000000-0004-0000-0000-0000B8030000}"/>
-    <hyperlink ref="B499" r:id="rId954" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-0000B9030000}"/>
-    <hyperlink ref="A500" r:id="rId955" display="https://www.nba.com/stats/player/203508/" xr:uid="{00000000-0004-0000-0000-0000BA030000}"/>
-    <hyperlink ref="B500" r:id="rId956" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-0000BB030000}"/>
-    <hyperlink ref="A501" r:id="rId957" display="https://www.nba.com/stats/player/203503/" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
-    <hyperlink ref="B501" r:id="rId958" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
-    <hyperlink ref="A502" r:id="rId959" display="https://www.nba.com/stats/player/203476/" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
-    <hyperlink ref="B502" r:id="rId960" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
-    <hyperlink ref="A503" r:id="rId961" display="https://www.nba.com/stats/player/203486/" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
-    <hyperlink ref="B503" r:id="rId962" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
-    <hyperlink ref="A504" r:id="rId963" display="https://www.nba.com/stats/player/203524/" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
-    <hyperlink ref="B504" r:id="rId964" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
-    <hyperlink ref="A505" r:id="rId965" display="https://www.nba.com/stats/player/203501/" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
-    <hyperlink ref="B505" r:id="rId966" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
-    <hyperlink ref="A506" r:id="rId967" display="https://www.nba.com/stats/player/203493/" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
-    <hyperlink ref="B506" r:id="rId968" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
-    <hyperlink ref="A507" r:id="rId969" display="https://www.nba.com/stats/player/203460/" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
-    <hyperlink ref="B507" r:id="rId970" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
-    <hyperlink ref="A508" r:id="rId971" display="https://www.nba.com/stats/player/203497/" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
-    <hyperlink ref="B508" r:id="rId972" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
-    <hyperlink ref="A509" r:id="rId973" display="https://www.nba.com/stats/player/203520/" xr:uid="{00000000-0004-0000-0000-0000CC030000}"/>
-    <hyperlink ref="B509" r:id="rId974" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-0000CD030000}"/>
-    <hyperlink ref="A510" r:id="rId975" display="https://www.nba.com/stats/player/203462/" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
-    <hyperlink ref="B510" r:id="rId976" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
-    <hyperlink ref="A511" r:id="rId977" display="https://www.nba.com/stats/player/203517/" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
-    <hyperlink ref="B511" r:id="rId978" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
-    <hyperlink ref="A512" r:id="rId979" display="https://www.nba.com/stats/player/203459/" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
-    <hyperlink ref="B512" r:id="rId980" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
-    <hyperlink ref="A513" r:id="rId981" display="https://www.nba.com/stats/player/203518/" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
-    <hyperlink ref="B513" r:id="rId982" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
-    <hyperlink ref="A514" r:id="rId983" display="https://www.nba.com/stats/player/203467/" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
-    <hyperlink ref="B514" r:id="rId984" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
-    <hyperlink ref="A515" r:id="rId985" display="https://www.nba.com/stats/player/203477/" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
-    <hyperlink ref="B515" r:id="rId986" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
-    <hyperlink ref="A516" r:id="rId987" display="https://www.nba.com/stats/player/203318/" xr:uid="{00000000-0004-0000-0000-0000DA030000}"/>
-    <hyperlink ref="B516" r:id="rId988" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-0000DB030000}"/>
-    <hyperlink ref="A517" r:id="rId989" display="https://www.nba.com/stats/player/203492/" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
-    <hyperlink ref="B517" r:id="rId990" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
-    <hyperlink ref="A518" r:id="rId991" display="https://www.nba.com/stats/player/203502/" xr:uid="{00000000-0004-0000-0000-0000DE030000}"/>
-    <hyperlink ref="B518" r:id="rId992" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-0000DF030000}"/>
-    <hyperlink ref="A519" r:id="rId993" display="https://www.nba.com/stats/player/203489/" xr:uid="{00000000-0004-0000-0000-0000E0030000}"/>
-    <hyperlink ref="B519" r:id="rId994" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-0000E1030000}"/>
-    <hyperlink ref="A520" r:id="rId995" display="https://www.nba.com/stats/player/203481/" xr:uid="{00000000-0004-0000-0000-0000E2030000}"/>
-    <hyperlink ref="B520" r:id="rId996" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-0000E3030000}"/>
-    <hyperlink ref="A521" r:id="rId997" display="https://www.nba.com/stats/player/203511/" xr:uid="{00000000-0004-0000-0000-0000E4030000}"/>
-    <hyperlink ref="B521" r:id="rId998" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-0000E5030000}"/>
-    <hyperlink ref="A522" r:id="rId999" display="https://www.nba.com/stats/player/203479/" xr:uid="{00000000-0004-0000-0000-0000E6030000}"/>
-    <hyperlink ref="B522" r:id="rId1000" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-0000E7030000}"/>
-    <hyperlink ref="A523" r:id="rId1001" display="https://www.nba.com/stats/player/203510/" xr:uid="{00000000-0004-0000-0000-0000E8030000}"/>
-    <hyperlink ref="B523" r:id="rId1002" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-0000E9030000}"/>
-    <hyperlink ref="A524" r:id="rId1003" display="https://www.nba.com/stats/player/203495/" xr:uid="{00000000-0004-0000-0000-0000EA030000}"/>
-    <hyperlink ref="B524" r:id="rId1004" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-0000EB030000}"/>
-    <hyperlink ref="A525" r:id="rId1005" display="https://www.nba.com/stats/player/203488/" xr:uid="{00000000-0004-0000-0000-0000EC030000}"/>
-    <hyperlink ref="B525" r:id="rId1006" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-0000ED030000}"/>
-    <hyperlink ref="B526" r:id="rId1007" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-0000EE030000}"/>
-    <hyperlink ref="A527" r:id="rId1008" display="https://www.nba.com/stats/player/203475/" xr:uid="{00000000-0004-0000-0000-0000EF030000}"/>
-    <hyperlink ref="B527" r:id="rId1009" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-0000F0030000}"/>
-    <hyperlink ref="A528" r:id="rId1010" display="https://www.nba.com/stats/player/203526/" xr:uid="{00000000-0004-0000-0000-0000F1030000}"/>
-    <hyperlink ref="B528" r:id="rId1011" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-0000F2030000}"/>
-    <hyperlink ref="A529" r:id="rId1012" display="https://www.nba.com/stats/player/203527/" xr:uid="{00000000-0004-0000-0000-0000F3030000}"/>
-    <hyperlink ref="B529" r:id="rId1013" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-0000F4030000}"/>
-    <hyperlink ref="A530" r:id="rId1014" display="https://www.nba.com/stats/player/203513/" xr:uid="{00000000-0004-0000-0000-0000F5030000}"/>
-    <hyperlink ref="B530" r:id="rId1015" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-0000F6030000}"/>
-    <hyperlink ref="A531" r:id="rId1016" display="https://www.nba.com/stats/player/203516/" xr:uid="{00000000-0004-0000-0000-0000F7030000}"/>
-    <hyperlink ref="B531" r:id="rId1017" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-0000F8030000}"/>
-    <hyperlink ref="A532" r:id="rId1018" display="https://www.nba.com/stats/player/203528/" xr:uid="{00000000-0004-0000-0000-0000F9030000}"/>
-    <hyperlink ref="B532" r:id="rId1019" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-0000FA030000}"/>
-    <hyperlink ref="A533" r:id="rId1020" display="https://www.nba.com/stats/player/203485/" xr:uid="{00000000-0004-0000-0000-0000FB030000}"/>
-    <hyperlink ref="B533" r:id="rId1021" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-0000FC030000}"/>
-    <hyperlink ref="B534" r:id="rId1022" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-0000FD030000}"/>
-    <hyperlink ref="A535" r:id="rId1023" display="https://www.nba.com/stats/player/203529/" xr:uid="{00000000-0004-0000-0000-0000FE030000}"/>
-    <hyperlink ref="B535" r:id="rId1024" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-0000FF030000}"/>
-    <hyperlink ref="A536" r:id="rId1025" display="https://www.nba.com/stats/player/203530/" xr:uid="{00000000-0004-0000-0000-000000040000}"/>
-    <hyperlink ref="B536" r:id="rId1026" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-000001040000}"/>
-    <hyperlink ref="A537" r:id="rId1027" display="https://www.nba.com/stats/player/203491/" xr:uid="{00000000-0004-0000-0000-000002040000}"/>
-    <hyperlink ref="B537" r:id="rId1028" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-000003040000}"/>
-    <hyperlink ref="B538" r:id="rId1029" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-000004040000}"/>
-    <hyperlink ref="A539" r:id="rId1030" display="https://www.nba.com/stats/player/203472/" xr:uid="{00000000-0004-0000-0000-000005040000}"/>
-    <hyperlink ref="B539" r:id="rId1031" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-000006040000}"/>
-    <hyperlink ref="B540" r:id="rId1032" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-000007040000}"/>
-    <hyperlink ref="B541" r:id="rId1033" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-000008040000}"/>
-    <hyperlink ref="A542" r:id="rId1034" display="https://www.nba.com/stats/player/203076/" xr:uid="{00000000-0004-0000-0000-000009040000}"/>
-    <hyperlink ref="B542" r:id="rId1035" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-00000A040000}"/>
-    <hyperlink ref="A543" r:id="rId1036" display="https://www.nba.com/stats/player/203077/" xr:uid="{00000000-0004-0000-0000-00000B040000}"/>
-    <hyperlink ref="B543" r:id="rId1037" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-00000C040000}"/>
-    <hyperlink ref="A544" r:id="rId1038" display="https://www.nba.com/stats/player/203078/" xr:uid="{00000000-0004-0000-0000-00000D040000}"/>
-    <hyperlink ref="B544" r:id="rId1039" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-00000E040000}"/>
-    <hyperlink ref="A545" r:id="rId1040" display="https://www.nba.com/stats/player/203079/" xr:uid="{00000000-0004-0000-0000-00000F040000}"/>
-    <hyperlink ref="B545" r:id="rId1041" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-000010040000}"/>
-    <hyperlink ref="A546" r:id="rId1042" display="https://www.nba.com/stats/player/203080/" xr:uid="{00000000-0004-0000-0000-000011040000}"/>
-    <hyperlink ref="B546" r:id="rId1043" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-000012040000}"/>
-    <hyperlink ref="A547" r:id="rId1044" display="https://www.nba.com/stats/player/203081/" xr:uid="{00000000-0004-0000-0000-000013040000}"/>
-    <hyperlink ref="B547" r:id="rId1045" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-000014040000}"/>
-    <hyperlink ref="A548" r:id="rId1046" display="https://www.nba.com/stats/player/203084/" xr:uid="{00000000-0004-0000-0000-000015040000}"/>
-    <hyperlink ref="B548" r:id="rId1047" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-000016040000}"/>
-    <hyperlink ref="A549" r:id="rId1048" display="https://www.nba.com/stats/player/203082/" xr:uid="{00000000-0004-0000-0000-000017040000}"/>
-    <hyperlink ref="B549" r:id="rId1049" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-000018040000}"/>
-    <hyperlink ref="A550" r:id="rId1050" display="https://www.nba.com/stats/player/203083/" xr:uid="{00000000-0004-0000-0000-000019040000}"/>
-    <hyperlink ref="B550" r:id="rId1051" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-00001A040000}"/>
-    <hyperlink ref="A551" r:id="rId1052" display="https://www.nba.com/stats/player/203085/" xr:uid="{00000000-0004-0000-0000-00001B040000}"/>
-    <hyperlink ref="B551" r:id="rId1053" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-00001C040000}"/>
-    <hyperlink ref="A552" r:id="rId1054" display="https://www.nba.com/stats/player/203086/" xr:uid="{00000000-0004-0000-0000-00001D040000}"/>
-    <hyperlink ref="B552" r:id="rId1055" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-00001E040000}"/>
-    <hyperlink ref="A553" r:id="rId1056" display="https://www.nba.com/stats/player/203087/" xr:uid="{00000000-0004-0000-0000-00001F040000}"/>
-    <hyperlink ref="B553" r:id="rId1057" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-000020040000}"/>
-    <hyperlink ref="A554" r:id="rId1058" display="https://www.nba.com/stats/player/203088/" xr:uid="{00000000-0004-0000-0000-000021040000}"/>
-    <hyperlink ref="B554" r:id="rId1059" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-000022040000}"/>
-    <hyperlink ref="A555" r:id="rId1060" display="https://www.nba.com/stats/player/203089/" xr:uid="{00000000-0004-0000-0000-000023040000}"/>
-    <hyperlink ref="B555" r:id="rId1061" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-000024040000}"/>
-    <hyperlink ref="A556" r:id="rId1062" display="https://www.nba.com/stats/player/203090/" xr:uid="{00000000-0004-0000-0000-000025040000}"/>
-    <hyperlink ref="B556" r:id="rId1063" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000026040000}"/>
-    <hyperlink ref="A557" r:id="rId1064" display="https://www.nba.com/stats/player/203091/" xr:uid="{00000000-0004-0000-0000-000027040000}"/>
-    <hyperlink ref="B557" r:id="rId1065" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-000028040000}"/>
-    <hyperlink ref="A558" r:id="rId1066" display="https://www.nba.com/stats/player/203092/" xr:uid="{00000000-0004-0000-0000-000029040000}"/>
-    <hyperlink ref="B558" r:id="rId1067" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-00002A040000}"/>
-    <hyperlink ref="A559" r:id="rId1068" display="https://www.nba.com/stats/player/203093/" xr:uid="{00000000-0004-0000-0000-00002B040000}"/>
-    <hyperlink ref="B559" r:id="rId1069" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-00002C040000}"/>
-    <hyperlink ref="A560" r:id="rId1070" display="https://www.nba.com/stats/player/203094/" xr:uid="{00000000-0004-0000-0000-00002D040000}"/>
-    <hyperlink ref="B560" r:id="rId1071" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-00002E040000}"/>
-    <hyperlink ref="A561" r:id="rId1072" display="https://www.nba.com/stats/player/203095/" xr:uid="{00000000-0004-0000-0000-00002F040000}"/>
-    <hyperlink ref="B561" r:id="rId1073" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-000030040000}"/>
-    <hyperlink ref="A562" r:id="rId1074" display="https://www.nba.com/stats/player/203096/" xr:uid="{00000000-0004-0000-0000-000031040000}"/>
-    <hyperlink ref="B562" r:id="rId1075" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-000032040000}"/>
-    <hyperlink ref="A563" r:id="rId1076" display="https://www.nba.com/stats/player/203097/" xr:uid="{00000000-0004-0000-0000-000033040000}"/>
-    <hyperlink ref="B563" r:id="rId1077" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-000034040000}"/>
-    <hyperlink ref="A564" r:id="rId1078" display="https://www.nba.com/stats/player/203098/" xr:uid="{00000000-0004-0000-0000-000035040000}"/>
-    <hyperlink ref="B564" r:id="rId1079" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-000036040000}"/>
-    <hyperlink ref="A565" r:id="rId1080" display="https://www.nba.com/stats/player/203099/" xr:uid="{00000000-0004-0000-0000-000037040000}"/>
-    <hyperlink ref="B565" r:id="rId1081" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-000038040000}"/>
-    <hyperlink ref="A566" r:id="rId1082" display="https://www.nba.com/stats/player/203100/" xr:uid="{00000000-0004-0000-0000-000039040000}"/>
-    <hyperlink ref="B566" r:id="rId1083" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-00003A040000}"/>
-    <hyperlink ref="A567" r:id="rId1084" display="https://www.nba.com/stats/player/203101/" xr:uid="{00000000-0004-0000-0000-00003B040000}"/>
-    <hyperlink ref="B567" r:id="rId1085" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-00003C040000}"/>
-    <hyperlink ref="A568" r:id="rId1086" display="https://www.nba.com/stats/player/203102/" xr:uid="{00000000-0004-0000-0000-00003D040000}"/>
-    <hyperlink ref="B568" r:id="rId1087" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-00003E040000}"/>
-    <hyperlink ref="A569" r:id="rId1088" display="https://www.nba.com/stats/player/203103/" xr:uid="{00000000-0004-0000-0000-00003F040000}"/>
-    <hyperlink ref="B569" r:id="rId1089" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-000040040000}"/>
-    <hyperlink ref="A570" r:id="rId1090" display="https://www.nba.com/stats/player/203104/" xr:uid="{00000000-0004-0000-0000-000041040000}"/>
-    <hyperlink ref="B570" r:id="rId1091" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-000042040000}"/>
-    <hyperlink ref="A571" r:id="rId1092" display="https://www.nba.com/stats/player/203105/" xr:uid="{00000000-0004-0000-0000-000043040000}"/>
-    <hyperlink ref="B571" r:id="rId1093" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-000044040000}"/>
-    <hyperlink ref="A572" r:id="rId1094" display="https://www.nba.com/stats/player/203106/" xr:uid="{00000000-0004-0000-0000-000045040000}"/>
-    <hyperlink ref="B572" r:id="rId1095" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-000046040000}"/>
-    <hyperlink ref="A573" r:id="rId1096" display="https://www.nba.com/stats/player/203107/" xr:uid="{00000000-0004-0000-0000-000047040000}"/>
-    <hyperlink ref="B573" r:id="rId1097" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-000048040000}"/>
-    <hyperlink ref="A574" r:id="rId1098" display="https://www.nba.com/stats/player/203108/" xr:uid="{00000000-0004-0000-0000-000049040000}"/>
-    <hyperlink ref="B574" r:id="rId1099" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-00004A040000}"/>
-    <hyperlink ref="A575" r:id="rId1100" display="https://www.nba.com/stats/player/203109/" xr:uid="{00000000-0004-0000-0000-00004B040000}"/>
-    <hyperlink ref="B575" r:id="rId1101" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-00004C040000}"/>
-    <hyperlink ref="A576" r:id="rId1102" display="https://www.nba.com/stats/player/203110/" xr:uid="{00000000-0004-0000-0000-00004D040000}"/>
-    <hyperlink ref="B576" r:id="rId1103" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-00004E040000}"/>
-    <hyperlink ref="A577" r:id="rId1104" display="https://www.nba.com/stats/player/203111/" xr:uid="{00000000-0004-0000-0000-00004F040000}"/>
-    <hyperlink ref="B577" r:id="rId1105" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-000050040000}"/>
-    <hyperlink ref="A578" r:id="rId1106" display="https://www.nba.com/stats/player/203112/" xr:uid="{00000000-0004-0000-0000-000051040000}"/>
-    <hyperlink ref="B578" r:id="rId1107" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-000052040000}"/>
-    <hyperlink ref="A579" r:id="rId1108" display="https://www.nba.com/stats/player/203113/" xr:uid="{00000000-0004-0000-0000-000053040000}"/>
-    <hyperlink ref="B579" r:id="rId1109" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-000054040000}"/>
-    <hyperlink ref="A580" r:id="rId1110" display="https://www.nba.com/stats/player/203114/" xr:uid="{00000000-0004-0000-0000-000055040000}"/>
-    <hyperlink ref="B580" r:id="rId1111" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-000056040000}"/>
-    <hyperlink ref="A581" r:id="rId1112" display="https://www.nba.com/stats/player/203115/" xr:uid="{00000000-0004-0000-0000-000057040000}"/>
-    <hyperlink ref="B581" r:id="rId1113" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-000058040000}"/>
-    <hyperlink ref="A582" r:id="rId1114" display="https://www.nba.com/stats/player/203116/" xr:uid="{00000000-0004-0000-0000-000059040000}"/>
-    <hyperlink ref="B582" r:id="rId1115" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-00005A040000}"/>
-    <hyperlink ref="A583" r:id="rId1116" display="https://www.nba.com/stats/player/203117/" xr:uid="{00000000-0004-0000-0000-00005B040000}"/>
-    <hyperlink ref="B583" r:id="rId1117" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-00005C040000}"/>
-    <hyperlink ref="A584" r:id="rId1118" display="https://www.nba.com/stats/player/203118/" xr:uid="{00000000-0004-0000-0000-00005D040000}"/>
-    <hyperlink ref="B584" r:id="rId1119" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-00005E040000}"/>
-    <hyperlink ref="A585" r:id="rId1120" display="https://www.nba.com/stats/player/203119/" xr:uid="{00000000-0004-0000-0000-00005F040000}"/>
-    <hyperlink ref="B585" r:id="rId1121" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-000060040000}"/>
-    <hyperlink ref="A586" r:id="rId1122" display="https://www.nba.com/stats/player/203120/" xr:uid="{00000000-0004-0000-0000-000061040000}"/>
-    <hyperlink ref="B586" r:id="rId1123" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000062040000}"/>
-    <hyperlink ref="A587" r:id="rId1124" display="https://www.nba.com/stats/player/203121/" xr:uid="{00000000-0004-0000-0000-000063040000}"/>
-    <hyperlink ref="B587" r:id="rId1125" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-000064040000}"/>
-    <hyperlink ref="A588" r:id="rId1126" display="https://www.nba.com/stats/player/203122/" xr:uid="{00000000-0004-0000-0000-000065040000}"/>
-    <hyperlink ref="B588" r:id="rId1127" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-000066040000}"/>
-    <hyperlink ref="A589" r:id="rId1128" display="https://www.nba.com/stats/player/203123/" xr:uid="{00000000-0004-0000-0000-000067040000}"/>
-    <hyperlink ref="B589" r:id="rId1129" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-000068040000}"/>
-    <hyperlink ref="A590" r:id="rId1130" display="https://www.nba.com/stats/player/203124/" xr:uid="{00000000-0004-0000-0000-000069040000}"/>
-    <hyperlink ref="B590" r:id="rId1131" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-00006A040000}"/>
-    <hyperlink ref="B591" r:id="rId1132" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-00006B040000}"/>
-    <hyperlink ref="A592" r:id="rId1133" display="https://www.nba.com/stats/player/203126/" xr:uid="{00000000-0004-0000-0000-00006C040000}"/>
-    <hyperlink ref="B592" r:id="rId1134" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-00006D040000}"/>
-    <hyperlink ref="A593" r:id="rId1135" display="https://www.nba.com/stats/player/203136/" xr:uid="{00000000-0004-0000-0000-00006E040000}"/>
-    <hyperlink ref="B593" r:id="rId1136" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-00006F040000}"/>
-    <hyperlink ref="A594" r:id="rId1137" display="https://www.nba.com/stats/player/203128/" xr:uid="{00000000-0004-0000-0000-000070040000}"/>
-    <hyperlink ref="B594" r:id="rId1138" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-000071040000}"/>
-    <hyperlink ref="A595" r:id="rId1139" display="https://www.nba.com/stats/player/203129/" xr:uid="{00000000-0004-0000-0000-000072040000}"/>
-    <hyperlink ref="B595" r:id="rId1140" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000073040000}"/>
-    <hyperlink ref="A596" r:id="rId1141" display="https://www.nba.com/stats/player/203130/" xr:uid="{00000000-0004-0000-0000-000074040000}"/>
-    <hyperlink ref="B596" r:id="rId1142" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-000075040000}"/>
-    <hyperlink ref="B597" r:id="rId1143" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-000076040000}"/>
-    <hyperlink ref="B598" r:id="rId1144" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-000077040000}"/>
-    <hyperlink ref="A599" r:id="rId1145" display="https://www.nba.com/stats/player/203133/" xr:uid="{00000000-0004-0000-0000-000078040000}"/>
-    <hyperlink ref="B599" r:id="rId1146" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-000079040000}"/>
-    <hyperlink ref="B600" r:id="rId1147" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-00007A040000}"/>
-    <hyperlink ref="A601" r:id="rId1148" display="https://www.nba.com/stats/player/203135/" xr:uid="{00000000-0004-0000-0000-00007B040000}"/>
-    <hyperlink ref="B601" r:id="rId1149" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-00007C040000}"/>
-    <hyperlink ref="A602" r:id="rId1150" display="https://www.nba.com/stats/player/202681/" xr:uid="{00000000-0004-0000-0000-00007D040000}"/>
-    <hyperlink ref="B602" r:id="rId1151" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-00007E040000}"/>
-    <hyperlink ref="A603" r:id="rId1152" display="https://www.nba.com/stats/player/202682/" xr:uid="{00000000-0004-0000-0000-00007F040000}"/>
-    <hyperlink ref="B603" r:id="rId1153" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-000080040000}"/>
-    <hyperlink ref="A604" r:id="rId1154" display="https://www.nba.com/stats/player/202683/" xr:uid="{00000000-0004-0000-0000-000081040000}"/>
-    <hyperlink ref="B604" r:id="rId1155" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-000082040000}"/>
-    <hyperlink ref="A605" r:id="rId1156" display="https://www.nba.com/stats/player/202684/" xr:uid="{00000000-0004-0000-0000-000083040000}"/>
-    <hyperlink ref="B605" r:id="rId1157" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-000084040000}"/>
-    <hyperlink ref="A606" r:id="rId1158" display="https://www.nba.com/stats/player/202685/" xr:uid="{00000000-0004-0000-0000-000085040000}"/>
-    <hyperlink ref="B606" r:id="rId1159" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-000086040000}"/>
-    <hyperlink ref="A607" r:id="rId1160" display="https://www.nba.com/stats/player/202686/" xr:uid="{00000000-0004-0000-0000-000087040000}"/>
-    <hyperlink ref="B607" r:id="rId1161" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-000088040000}"/>
-    <hyperlink ref="A608" r:id="rId1162" display="https://www.nba.com/stats/player/202687/" xr:uid="{00000000-0004-0000-0000-000089040000}"/>
-    <hyperlink ref="B608" r:id="rId1163" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-00008A040000}"/>
-    <hyperlink ref="A609" r:id="rId1164" display="https://www.nba.com/stats/player/202688/" xr:uid="{00000000-0004-0000-0000-00008B040000}"/>
-    <hyperlink ref="B609" r:id="rId1165" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-00008C040000}"/>
-    <hyperlink ref="A610" r:id="rId1166" display="https://www.nba.com/stats/player/202689/" xr:uid="{00000000-0004-0000-0000-00008D040000}"/>
-    <hyperlink ref="B610" r:id="rId1167" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-00008E040000}"/>
-    <hyperlink ref="A611" r:id="rId1168" display="https://www.nba.com/stats/player/202690/" xr:uid="{00000000-0004-0000-0000-00008F040000}"/>
-    <hyperlink ref="B611" r:id="rId1169" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-000090040000}"/>
-    <hyperlink ref="A612" r:id="rId1170" display="https://www.nba.com/stats/player/202691/" xr:uid="{00000000-0004-0000-0000-000091040000}"/>
-    <hyperlink ref="B612" r:id="rId1171" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-000092040000}"/>
-    <hyperlink ref="A613" r:id="rId1172" display="https://www.nba.com/stats/player/202692/" xr:uid="{00000000-0004-0000-0000-000093040000}"/>
-    <hyperlink ref="B613" r:id="rId1173" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-000094040000}"/>
-    <hyperlink ref="A614" r:id="rId1174" display="https://www.nba.com/stats/player/202693/" xr:uid="{00000000-0004-0000-0000-000095040000}"/>
-    <hyperlink ref="B614" r:id="rId1175" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-000096040000}"/>
-    <hyperlink ref="A615" r:id="rId1176" display="https://www.nba.com/stats/player/202694/" xr:uid="{00000000-0004-0000-0000-000097040000}"/>
-    <hyperlink ref="B615" r:id="rId1177" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-000098040000}"/>
-    <hyperlink ref="A616" r:id="rId1178" display="https://www.nba.com/stats/player/202695/" xr:uid="{00000000-0004-0000-0000-000099040000}"/>
-    <hyperlink ref="B616" r:id="rId1179" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-00009A040000}"/>
-    <hyperlink ref="A617" r:id="rId1180" display="https://www.nba.com/stats/player/202696/" xr:uid="{00000000-0004-0000-0000-00009B040000}"/>
-    <hyperlink ref="B617" r:id="rId1181" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-00009C040000}"/>
-    <hyperlink ref="A618" r:id="rId1182" display="https://www.nba.com/stats/player/202697/" xr:uid="{00000000-0004-0000-0000-00009D040000}"/>
-    <hyperlink ref="B618" r:id="rId1183" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-00009E040000}"/>
-    <hyperlink ref="A619" r:id="rId1184" display="https://www.nba.com/stats/player/202698/" xr:uid="{00000000-0004-0000-0000-00009F040000}"/>
-    <hyperlink ref="B619" r:id="rId1185" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-0000A0040000}"/>
-    <hyperlink ref="A620" r:id="rId1186" display="https://www.nba.com/stats/player/202699/" xr:uid="{00000000-0004-0000-0000-0000A1040000}"/>
-    <hyperlink ref="B620" r:id="rId1187" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-0000A2040000}"/>
-    <hyperlink ref="A621" r:id="rId1188" display="https://www.nba.com/stats/player/202700/" xr:uid="{00000000-0004-0000-0000-0000A3040000}"/>
-    <hyperlink ref="B621" r:id="rId1189" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-0000A4040000}"/>
-    <hyperlink ref="A622" r:id="rId1190" display="https://www.nba.com/stats/player/202701/" xr:uid="{00000000-0004-0000-0000-0000A5040000}"/>
-    <hyperlink ref="B622" r:id="rId1191" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-0000A6040000}"/>
-    <hyperlink ref="A623" r:id="rId1192" display="https://www.nba.com/stats/player/202702/" xr:uid="{00000000-0004-0000-0000-0000A7040000}"/>
-    <hyperlink ref="B623" r:id="rId1193" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-0000A8040000}"/>
-    <hyperlink ref="A624" r:id="rId1194" display="https://www.nba.com/stats/player/202703/" xr:uid="{00000000-0004-0000-0000-0000A9040000}"/>
-    <hyperlink ref="B624" r:id="rId1195" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-0000AA040000}"/>
-    <hyperlink ref="A625" r:id="rId1196" display="https://www.nba.com/stats/player/202704/" xr:uid="{00000000-0004-0000-0000-0000AB040000}"/>
-    <hyperlink ref="B625" r:id="rId1197" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-0000AC040000}"/>
-    <hyperlink ref="A626" r:id="rId1198" display="https://www.nba.com/stats/player/202705/" xr:uid="{00000000-0004-0000-0000-0000AD040000}"/>
-    <hyperlink ref="B626" r:id="rId1199" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-0000AE040000}"/>
-    <hyperlink ref="A627" r:id="rId1200" display="https://www.nba.com/stats/player/202706/" xr:uid="{00000000-0004-0000-0000-0000AF040000}"/>
-    <hyperlink ref="B627" r:id="rId1201" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-0000B0040000}"/>
-    <hyperlink ref="A628" r:id="rId1202" display="https://www.nba.com/stats/player/202707/" xr:uid="{00000000-0004-0000-0000-0000B1040000}"/>
-    <hyperlink ref="B628" r:id="rId1203" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-0000B2040000}"/>
-    <hyperlink ref="A629" r:id="rId1204" display="https://www.nba.com/stats/player/202708/" xr:uid="{00000000-0004-0000-0000-0000B3040000}"/>
-    <hyperlink ref="B629" r:id="rId1205" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-0000B4040000}"/>
-    <hyperlink ref="A630" r:id="rId1206" display="https://www.nba.com/stats/player/202709/" xr:uid="{00000000-0004-0000-0000-0000B5040000}"/>
-    <hyperlink ref="B630" r:id="rId1207" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-0000B6040000}"/>
-    <hyperlink ref="A631" r:id="rId1208" display="https://www.nba.com/stats/player/202710/" xr:uid="{00000000-0004-0000-0000-0000B7040000}"/>
-    <hyperlink ref="B631" r:id="rId1209" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-0000B8040000}"/>
-    <hyperlink ref="A632" r:id="rId1210" display="https://www.nba.com/stats/player/202711/" xr:uid="{00000000-0004-0000-0000-0000B9040000}"/>
-    <hyperlink ref="B632" r:id="rId1211" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-0000BA040000}"/>
-    <hyperlink ref="A633" r:id="rId1212" display="https://www.nba.com/stats/player/202712/" xr:uid="{00000000-0004-0000-0000-0000BB040000}"/>
-    <hyperlink ref="B633" r:id="rId1213" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-0000BC040000}"/>
-    <hyperlink ref="A634" r:id="rId1214" display="https://www.nba.com/stats/player/202713/" xr:uid="{00000000-0004-0000-0000-0000BD040000}"/>
-    <hyperlink ref="B634" r:id="rId1215" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-0000BE040000}"/>
-    <hyperlink ref="A635" r:id="rId1216" display="https://www.nba.com/stats/player/202714/" xr:uid="{00000000-0004-0000-0000-0000BF040000}"/>
-    <hyperlink ref="B635" r:id="rId1217" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-0000C0040000}"/>
-    <hyperlink ref="A636" r:id="rId1218" display="https://www.nba.com/stats/player/202715/" xr:uid="{00000000-0004-0000-0000-0000C1040000}"/>
-    <hyperlink ref="B636" r:id="rId1219" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-0000C2040000}"/>
-    <hyperlink ref="A637" r:id="rId1220" display="https://www.nba.com/stats/player/202716/" xr:uid="{00000000-0004-0000-0000-0000C3040000}"/>
-    <hyperlink ref="B637" r:id="rId1221" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-0000C4040000}"/>
-    <hyperlink ref="A638" r:id="rId1222" display="https://www.nba.com/stats/player/202717/" xr:uid="{00000000-0004-0000-0000-0000C5040000}"/>
-    <hyperlink ref="B638" r:id="rId1223" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-0000C6040000}"/>
-    <hyperlink ref="A639" r:id="rId1224" display="https://www.nba.com/stats/player/202718/" xr:uid="{00000000-0004-0000-0000-0000C7040000}"/>
-    <hyperlink ref="B639" r:id="rId1225" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-0000C8040000}"/>
-    <hyperlink ref="A640" r:id="rId1226" display="https://www.nba.com/stats/player/202719/" xr:uid="{00000000-0004-0000-0000-0000C9040000}"/>
-    <hyperlink ref="B640" r:id="rId1227" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-0000CA040000}"/>
-    <hyperlink ref="A641" r:id="rId1228" display="https://www.nba.com/stats/player/202720/" xr:uid="{00000000-0004-0000-0000-0000CB040000}"/>
-    <hyperlink ref="B641" r:id="rId1229" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-0000CC040000}"/>
-    <hyperlink ref="A642" r:id="rId1230" display="https://www.nba.com/stats/player/202721/" xr:uid="{00000000-0004-0000-0000-0000CD040000}"/>
-    <hyperlink ref="B642" r:id="rId1231" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-0000CE040000}"/>
-    <hyperlink ref="A643" r:id="rId1232" display="https://www.nba.com/stats/player/202722/" xr:uid="{00000000-0004-0000-0000-0000CF040000}"/>
-    <hyperlink ref="B643" r:id="rId1233" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-0000D0040000}"/>
-    <hyperlink ref="A644" r:id="rId1234" display="https://www.nba.com/stats/player/202723/" xr:uid="{00000000-0004-0000-0000-0000D1040000}"/>
-    <hyperlink ref="B644" r:id="rId1235" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-0000D2040000}"/>
-    <hyperlink ref="A645" r:id="rId1236" display="https://www.nba.com/stats/player/202724/" xr:uid="{00000000-0004-0000-0000-0000D3040000}"/>
-    <hyperlink ref="B645" r:id="rId1237" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-0000D4040000}"/>
-    <hyperlink ref="A646" r:id="rId1238" display="https://www.nba.com/stats/player/202725/" xr:uid="{00000000-0004-0000-0000-0000D5040000}"/>
-    <hyperlink ref="B646" r:id="rId1239" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-0000D6040000}"/>
-    <hyperlink ref="A647" r:id="rId1240" display="https://www.nba.com/stats/player/202726/" xr:uid="{00000000-0004-0000-0000-0000D7040000}"/>
-    <hyperlink ref="B647" r:id="rId1241" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-0000D8040000}"/>
-    <hyperlink ref="A648" r:id="rId1242" display="https://www.nba.com/stats/player/202727/" xr:uid="{00000000-0004-0000-0000-0000D9040000}"/>
-    <hyperlink ref="B648" r:id="rId1243" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-0000DA040000}"/>
-    <hyperlink ref="A649" r:id="rId1244" display="https://www.nba.com/stats/player/202728/" xr:uid="{00000000-0004-0000-0000-0000DB040000}"/>
-    <hyperlink ref="B649" r:id="rId1245" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-0000DC040000}"/>
-    <hyperlink ref="A650" r:id="rId1246" display="https://www.nba.com/stats/player/202729/" xr:uid="{00000000-0004-0000-0000-0000DD040000}"/>
-    <hyperlink ref="B650" r:id="rId1247" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-0000DE040000}"/>
-    <hyperlink ref="A651" r:id="rId1248" display="https://www.nba.com/stats/player/202730/" xr:uid="{00000000-0004-0000-0000-0000DF040000}"/>
-    <hyperlink ref="B651" r:id="rId1249" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-0000E0040000}"/>
-    <hyperlink ref="B652" r:id="rId1250" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-0000E1040000}"/>
-    <hyperlink ref="A653" r:id="rId1251" display="https://www.nba.com/stats/player/202731/" xr:uid="{00000000-0004-0000-0000-0000E2040000}"/>
-    <hyperlink ref="B653" r:id="rId1252" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-0000E3040000}"/>
-    <hyperlink ref="A654" r:id="rId1253" display="https://www.nba.com/stats/player/202732/" xr:uid="{00000000-0004-0000-0000-0000E4040000}"/>
-    <hyperlink ref="B654" r:id="rId1254" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-0000E5040000}"/>
-    <hyperlink ref="B655" r:id="rId1255" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-0000E6040000}"/>
-    <hyperlink ref="A656" r:id="rId1256" display="https://www.nba.com/stats/player/202734/" xr:uid="{00000000-0004-0000-0000-0000E7040000}"/>
-    <hyperlink ref="B656" r:id="rId1257" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-0000E8040000}"/>
-    <hyperlink ref="B657" r:id="rId1258" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-0000E9040000}"/>
-    <hyperlink ref="B658" r:id="rId1259" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-0000EA040000}"/>
-    <hyperlink ref="B659" r:id="rId1260" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-0000EB040000}"/>
-    <hyperlink ref="B660" r:id="rId1261" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-0000EC040000}"/>
-    <hyperlink ref="A661" r:id="rId1262" display="https://www.nba.com/stats/player/202738/" xr:uid="{00000000-0004-0000-0000-0000ED040000}"/>
-    <hyperlink ref="B661" r:id="rId1263" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-0000EE040000}"/>
-    <hyperlink ref="A662" r:id="rId1264" display="https://www.nba.com/stats/player/202322/" xr:uid="{00000000-0004-0000-0000-0000EF040000}"/>
-    <hyperlink ref="B662" r:id="rId1265" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-0000F0040000}"/>
-    <hyperlink ref="A663" r:id="rId1266" display="https://www.nba.com/stats/player/202323/" xr:uid="{00000000-0004-0000-0000-0000F1040000}"/>
-    <hyperlink ref="B663" r:id="rId1267" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-0000F2040000}"/>
-    <hyperlink ref="A664" r:id="rId1268" display="https://www.nba.com/stats/player/202324/" xr:uid="{00000000-0004-0000-0000-0000F3040000}"/>
-    <hyperlink ref="B664" r:id="rId1269" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-0000F4040000}"/>
-    <hyperlink ref="A665" r:id="rId1270" display="https://www.nba.com/stats/player/202325/" xr:uid="{00000000-0004-0000-0000-0000F5040000}"/>
-    <hyperlink ref="B665" r:id="rId1271" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-0000F6040000}"/>
-    <hyperlink ref="A666" r:id="rId1272" display="https://www.nba.com/stats/player/202326/" xr:uid="{00000000-0004-0000-0000-0000F7040000}"/>
-    <hyperlink ref="B666" r:id="rId1273" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-0000F8040000}"/>
-    <hyperlink ref="A667" r:id="rId1274" display="https://www.nba.com/stats/player/202327/" xr:uid="{00000000-0004-0000-0000-0000F9040000}"/>
-    <hyperlink ref="B667" r:id="rId1275" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-0000FA040000}"/>
-    <hyperlink ref="A668" r:id="rId1276" display="https://www.nba.com/stats/player/202328/" xr:uid="{00000000-0004-0000-0000-0000FB040000}"/>
-    <hyperlink ref="B668" r:id="rId1277" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-0000FC040000}"/>
-    <hyperlink ref="A669" r:id="rId1278" display="https://www.nba.com/stats/player/202329/" xr:uid="{00000000-0004-0000-0000-0000FD040000}"/>
-    <hyperlink ref="B669" r:id="rId1279" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-0000FE040000}"/>
-    <hyperlink ref="A670" r:id="rId1280" display="https://www.nba.com/stats/player/202330/" xr:uid="{00000000-0004-0000-0000-0000FF040000}"/>
-    <hyperlink ref="B670" r:id="rId1281" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-000000050000}"/>
-    <hyperlink ref="A671" r:id="rId1282" display="https://www.nba.com/stats/player/202331/" xr:uid="{00000000-0004-0000-0000-000001050000}"/>
-    <hyperlink ref="B671" r:id="rId1283" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-000002050000}"/>
-    <hyperlink ref="A672" r:id="rId1284" display="https://www.nba.com/stats/player/202332/" xr:uid="{00000000-0004-0000-0000-000003050000}"/>
-    <hyperlink ref="B672" r:id="rId1285" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-000004050000}"/>
-    <hyperlink ref="A673" r:id="rId1286" display="https://www.nba.com/stats/player/202333/" xr:uid="{00000000-0004-0000-0000-000005050000}"/>
-    <hyperlink ref="B673" r:id="rId1287" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-000006050000}"/>
-    <hyperlink ref="A674" r:id="rId1288" display="https://www.nba.com/stats/player/202334/" xr:uid="{00000000-0004-0000-0000-000007050000}"/>
-    <hyperlink ref="B674" r:id="rId1289" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-000008050000}"/>
-    <hyperlink ref="A675" r:id="rId1290" display="https://www.nba.com/stats/player/202335/" xr:uid="{00000000-0004-0000-0000-000009050000}"/>
-    <hyperlink ref="B675" r:id="rId1291" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{00000000-0004-0000-0000-00000A050000}"/>
-    <hyperlink ref="A676" r:id="rId1292" display="https://www.nba.com/stats/player/202336/" xr:uid="{00000000-0004-0000-0000-00000B050000}"/>
-    <hyperlink ref="B676" r:id="rId1293" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-00000C050000}"/>
-    <hyperlink ref="A677" r:id="rId1294" display="https://www.nba.com/stats/player/202337/" xr:uid="{00000000-0004-0000-0000-00000D050000}"/>
-    <hyperlink ref="B677" r:id="rId1295" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-00000E050000}"/>
-    <hyperlink ref="A678" r:id="rId1296" display="https://www.nba.com/stats/player/202338/" xr:uid="{00000000-0004-0000-0000-00000F050000}"/>
-    <hyperlink ref="B678" r:id="rId1297" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-000010050000}"/>
-    <hyperlink ref="A679" r:id="rId1298" display="https://www.nba.com/stats/player/202339/" xr:uid="{00000000-0004-0000-0000-000011050000}"/>
-    <hyperlink ref="B679" r:id="rId1299" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-000012050000}"/>
-    <hyperlink ref="A680" r:id="rId1300" display="https://www.nba.com/stats/player/202340/" xr:uid="{00000000-0004-0000-0000-000013050000}"/>
-    <hyperlink ref="B680" r:id="rId1301" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-000014050000}"/>
-    <hyperlink ref="A681" r:id="rId1302" display="https://www.nba.com/stats/player/202341/" xr:uid="{00000000-0004-0000-0000-000015050000}"/>
-    <hyperlink ref="B681" r:id="rId1303" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-000016050000}"/>
-    <hyperlink ref="A682" r:id="rId1304" display="https://www.nba.com/stats/player/202342/" xr:uid="{00000000-0004-0000-0000-000017050000}"/>
-    <hyperlink ref="B682" r:id="rId1305" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-000018050000}"/>
-    <hyperlink ref="A683" r:id="rId1306" display="https://www.nba.com/stats/player/202343/" xr:uid="{00000000-0004-0000-0000-000019050000}"/>
-    <hyperlink ref="B683" r:id="rId1307" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-00001A050000}"/>
-    <hyperlink ref="A684" r:id="rId1308" display="https://www.nba.com/stats/player/202344/" xr:uid="{00000000-0004-0000-0000-00001B050000}"/>
-    <hyperlink ref="B684" r:id="rId1309" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-00001C050000}"/>
-    <hyperlink ref="A685" r:id="rId1310" display="https://www.nba.com/stats/player/202345/" xr:uid="{00000000-0004-0000-0000-00001D050000}"/>
-    <hyperlink ref="B685" r:id="rId1311" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-00001E050000}"/>
-    <hyperlink ref="A686" r:id="rId1312" display="https://www.nba.com/stats/player/202346/" xr:uid="{00000000-0004-0000-0000-00001F050000}"/>
-    <hyperlink ref="B686" r:id="rId1313" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-000020050000}"/>
-    <hyperlink ref="A687" r:id="rId1314" display="https://www.nba.com/stats/player/202347/" xr:uid="{00000000-0004-0000-0000-000021050000}"/>
-    <hyperlink ref="B687" r:id="rId1315" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-000022050000}"/>
-    <hyperlink ref="A688" r:id="rId1316" display="https://www.nba.com/stats/player/202348/" xr:uid="{00000000-0004-0000-0000-000023050000}"/>
-    <hyperlink ref="B688" r:id="rId1317" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-000024050000}"/>
-    <hyperlink ref="A689" r:id="rId1318" display="https://www.nba.com/stats/player/202349/" xr:uid="{00000000-0004-0000-0000-000025050000}"/>
-    <hyperlink ref="B689" r:id="rId1319" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-000026050000}"/>
-    <hyperlink ref="A690" r:id="rId1320" display="https://www.nba.com/stats/player/202350/" xr:uid="{00000000-0004-0000-0000-000027050000}"/>
-    <hyperlink ref="B690" r:id="rId1321" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-000028050000}"/>
-    <hyperlink ref="A691" r:id="rId1322" display="https://www.nba.com/stats/player/202351/" xr:uid="{00000000-0004-0000-0000-000029050000}"/>
-    <hyperlink ref="B691" r:id="rId1323" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-00002A050000}"/>
-    <hyperlink ref="A692" r:id="rId1324" display="https://www.nba.com/stats/player/202353/" xr:uid="{00000000-0004-0000-0000-00002B050000}"/>
-    <hyperlink ref="B692" r:id="rId1325" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-00002C050000}"/>
-    <hyperlink ref="A693" r:id="rId1326" display="https://www.nba.com/stats/player/202354/" xr:uid="{00000000-0004-0000-0000-00002D050000}"/>
-    <hyperlink ref="B693" r:id="rId1327" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-00002E050000}"/>
-    <hyperlink ref="A694" r:id="rId1328" display="https://www.nba.com/stats/player/202355/" xr:uid="{00000000-0004-0000-0000-00002F050000}"/>
-    <hyperlink ref="B694" r:id="rId1329" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-000030050000}"/>
-    <hyperlink ref="A695" r:id="rId1330" display="https://www.nba.com/stats/player/202356/" xr:uid="{00000000-0004-0000-0000-000031050000}"/>
-    <hyperlink ref="B695" r:id="rId1331" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-000032050000}"/>
-    <hyperlink ref="A696" r:id="rId1332" display="https://www.nba.com/stats/player/202357/" xr:uid="{00000000-0004-0000-0000-000033050000}"/>
-    <hyperlink ref="B696" r:id="rId1333" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-000034050000}"/>
-    <hyperlink ref="A697" r:id="rId1334" display="https://www.nba.com/stats/player/202358/" xr:uid="{00000000-0004-0000-0000-000035050000}"/>
-    <hyperlink ref="B697" r:id="rId1335" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-000036050000}"/>
-    <hyperlink ref="A698" r:id="rId1336" display="https://www.nba.com/stats/player/202359/" xr:uid="{00000000-0004-0000-0000-000037050000}"/>
-    <hyperlink ref="B698" r:id="rId1337" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-000038050000}"/>
-    <hyperlink ref="A699" r:id="rId1338" display="https://www.nba.com/stats/player/202360/" xr:uid="{00000000-0004-0000-0000-000039050000}"/>
-    <hyperlink ref="B699" r:id="rId1339" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-00003A050000}"/>
-    <hyperlink ref="A700" r:id="rId1340" display="https://www.nba.com/stats/player/202361/" xr:uid="{00000000-0004-0000-0000-00003B050000}"/>
-    <hyperlink ref="B700" r:id="rId1341" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-00003C050000}"/>
-    <hyperlink ref="A701" r:id="rId1342" display="https://www.nba.com/stats/player/202362/" xr:uid="{00000000-0004-0000-0000-00003D050000}"/>
-    <hyperlink ref="B701" r:id="rId1343" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-00003E050000}"/>
-    <hyperlink ref="A702" r:id="rId1344" display="https://www.nba.com/stats/player/202363/" xr:uid="{00000000-0004-0000-0000-00003F050000}"/>
-    <hyperlink ref="B702" r:id="rId1345" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-000040050000}"/>
-    <hyperlink ref="B703" r:id="rId1346" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-000041050000}"/>
-    <hyperlink ref="A704" r:id="rId1347" display="https://www.nba.com/stats/player/202365/" xr:uid="{00000000-0004-0000-0000-000042050000}"/>
-    <hyperlink ref="B704" r:id="rId1348" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-000043050000}"/>
-    <hyperlink ref="A705" r:id="rId1349" display="https://www.nba.com/stats/player/202366/" xr:uid="{00000000-0004-0000-0000-000044050000}"/>
-    <hyperlink ref="B705" r:id="rId1350" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-000045050000}"/>
-    <hyperlink ref="B706" r:id="rId1351" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-000046050000}"/>
-    <hyperlink ref="A707" r:id="rId1352" display="https://www.nba.com/stats/player/202371/" xr:uid="{00000000-0004-0000-0000-000047050000}"/>
-    <hyperlink ref="B707" r:id="rId1353" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-000048050000}"/>
-    <hyperlink ref="B708" r:id="rId1354" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-000049050000}"/>
-    <hyperlink ref="B709" r:id="rId1355" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-00004A050000}"/>
-    <hyperlink ref="B710" r:id="rId1356" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-00004B050000}"/>
-    <hyperlink ref="A711" r:id="rId1357" display="https://www.nba.com/stats/player/202374/" xr:uid="{00000000-0004-0000-0000-00004C050000}"/>
-    <hyperlink ref="B711" r:id="rId1358" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-00004D050000}"/>
-    <hyperlink ref="A712" r:id="rId1359" display="https://www.nba.com/stats/player/202375/" xr:uid="{00000000-0004-0000-0000-00004E050000}"/>
-    <hyperlink ref="B712" r:id="rId1360" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-00004F050000}"/>
-    <hyperlink ref="A713" r:id="rId1361" display="https://www.nba.com/stats/player/202376/" xr:uid="{00000000-0004-0000-0000-000050050000}"/>
-    <hyperlink ref="B713" r:id="rId1362" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-000051050000}"/>
-    <hyperlink ref="A714" r:id="rId1363" display="https://www.nba.com/stats/player/202377/" xr:uid="{00000000-0004-0000-0000-000052050000}"/>
-    <hyperlink ref="B714" r:id="rId1364" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-000053050000}"/>
-    <hyperlink ref="A715" r:id="rId1365" display="https://www.nba.com/stats/player/202378/" xr:uid="{00000000-0004-0000-0000-000054050000}"/>
-    <hyperlink ref="B715" r:id="rId1366" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-000055050000}"/>
-    <hyperlink ref="A716" r:id="rId1367" display="https://www.nba.com/stats/player/202379/" xr:uid="{00000000-0004-0000-0000-000056050000}"/>
-    <hyperlink ref="B716" r:id="rId1368" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-000057050000}"/>
-    <hyperlink ref="A717" r:id="rId1369" display="https://www.nba.com/stats/player/202380/" xr:uid="{00000000-0004-0000-0000-000058050000}"/>
-    <hyperlink ref="B717" r:id="rId1370" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-000059050000}"/>
-    <hyperlink ref="A718" r:id="rId1371" display="https://www.nba.com/stats/player/202385/" xr:uid="{00000000-0004-0000-0000-00005A050000}"/>
-    <hyperlink ref="B718" r:id="rId1372" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-00005B050000}"/>
-    <hyperlink ref="A719" r:id="rId1373" display="https://www.nba.com/stats/player/202382/" xr:uid="{00000000-0004-0000-0000-00005C050000}"/>
-    <hyperlink ref="B719" r:id="rId1374" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-00005D050000}"/>
-    <hyperlink ref="A720" r:id="rId1375" display="https://www.nba.com/stats/player/202383/" xr:uid="{00000000-0004-0000-0000-00005E050000}"/>
-    <hyperlink ref="B720" r:id="rId1376" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{00000000-0004-0000-0000-00005F050000}"/>
-    <hyperlink ref="B721" r:id="rId1377" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-000060050000}"/>
-    <hyperlink ref="A722" r:id="rId1378" display="https://www.nba.com/stats/player/201933/" xr:uid="{00000000-0004-0000-0000-000061050000}"/>
-    <hyperlink ref="B722" r:id="rId1379" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{00000000-0004-0000-0000-000062050000}"/>
-    <hyperlink ref="A723" r:id="rId1380" display="https://www.nba.com/stats/player/201934/" xr:uid="{00000000-0004-0000-0000-000063050000}"/>
-    <hyperlink ref="B723" r:id="rId1381" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-000064050000}"/>
-    <hyperlink ref="A724" r:id="rId1382" display="https://www.nba.com/stats/player/201935/" xr:uid="{00000000-0004-0000-0000-000065050000}"/>
-    <hyperlink ref="B724" r:id="rId1383" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-000066050000}"/>
-    <hyperlink ref="A725" r:id="rId1384" display="https://www.nba.com/stats/player/201936/" xr:uid="{00000000-0004-0000-0000-000067050000}"/>
-    <hyperlink ref="B725" r:id="rId1385" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-000068050000}"/>
-    <hyperlink ref="A726" r:id="rId1386" display="https://www.nba.com/stats/player/201937/" xr:uid="{00000000-0004-0000-0000-000069050000}"/>
-    <hyperlink ref="B726" r:id="rId1387" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-00006A050000}"/>
-    <hyperlink ref="A727" r:id="rId1388" display="https://www.nba.com/stats/player/201938/" xr:uid="{00000000-0004-0000-0000-00006B050000}"/>
-    <hyperlink ref="B727" r:id="rId1389" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-00006C050000}"/>
-    <hyperlink ref="A728" r:id="rId1390" display="https://www.nba.com/stats/player/201939/" xr:uid="{00000000-0004-0000-0000-00006D050000}"/>
-    <hyperlink ref="B728" r:id="rId1391" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{00000000-0004-0000-0000-00006E050000}"/>
-    <hyperlink ref="A729" r:id="rId1392" display="https://www.nba.com/stats/player/201941/" xr:uid="{00000000-0004-0000-0000-00006F050000}"/>
-    <hyperlink ref="B729" r:id="rId1393" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{00000000-0004-0000-0000-000070050000}"/>
-    <hyperlink ref="A730" r:id="rId1394" display="https://www.nba.com/stats/player/201942/" xr:uid="{00000000-0004-0000-0000-000071050000}"/>
-    <hyperlink ref="B730" r:id="rId1395" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{00000000-0004-0000-0000-000072050000}"/>
-    <hyperlink ref="A731" r:id="rId1396" display="https://www.nba.com/stats/player/201943/" xr:uid="{00000000-0004-0000-0000-000073050000}"/>
-    <hyperlink ref="B731" r:id="rId1397" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-000074050000}"/>
-    <hyperlink ref="A732" r:id="rId1398" display="https://www.nba.com/stats/player/201944/" xr:uid="{00000000-0004-0000-0000-000075050000}"/>
-    <hyperlink ref="B732" r:id="rId1399" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{00000000-0004-0000-0000-000076050000}"/>
-    <hyperlink ref="A733" r:id="rId1400" display="https://www.nba.com/stats/player/201945/" xr:uid="{00000000-0004-0000-0000-000077050000}"/>
-    <hyperlink ref="B733" r:id="rId1401" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-000078050000}"/>
-    <hyperlink ref="A734" r:id="rId1402" display="https://www.nba.com/stats/player/201946/" xr:uid="{00000000-0004-0000-0000-000079050000}"/>
-    <hyperlink ref="B734" r:id="rId1403" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-00007A050000}"/>
-    <hyperlink ref="A735" r:id="rId1404" display="https://www.nba.com/stats/player/201947/" xr:uid="{00000000-0004-0000-0000-00007B050000}"/>
-    <hyperlink ref="B735" r:id="rId1405" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-00007C050000}"/>
-    <hyperlink ref="A736" r:id="rId1406" display="https://www.nba.com/stats/player/201948/" xr:uid="{00000000-0004-0000-0000-00007D050000}"/>
-    <hyperlink ref="B736" r:id="rId1407" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-00007E050000}"/>
-    <hyperlink ref="A737" r:id="rId1408" display="https://www.nba.com/stats/player/201949/" xr:uid="{00000000-0004-0000-0000-00007F050000}"/>
-    <hyperlink ref="B737" r:id="rId1409" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-000080050000}"/>
-    <hyperlink ref="A738" r:id="rId1410" display="https://www.nba.com/stats/player/201950/" xr:uid="{00000000-0004-0000-0000-000081050000}"/>
-    <hyperlink ref="B738" r:id="rId1411" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{00000000-0004-0000-0000-000082050000}"/>
-    <hyperlink ref="A739" r:id="rId1412" display="https://www.nba.com/stats/player/201951/" xr:uid="{00000000-0004-0000-0000-000083050000}"/>
-    <hyperlink ref="B739" r:id="rId1413" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-000084050000}"/>
-    <hyperlink ref="A740" r:id="rId1414" display="https://www.nba.com/stats/player/201952/" xr:uid="{00000000-0004-0000-0000-000085050000}"/>
-    <hyperlink ref="B740" r:id="rId1415" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-000086050000}"/>
-    <hyperlink ref="A741" r:id="rId1416" display="https://www.nba.com/stats/player/201953/" xr:uid="{00000000-0004-0000-0000-000087050000}"/>
-    <hyperlink ref="B741" r:id="rId1417" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-000088050000}"/>
-    <hyperlink ref="A742" r:id="rId1418" display="https://www.nba.com/stats/player/201954/" xr:uid="{00000000-0004-0000-0000-000089050000}"/>
-    <hyperlink ref="B742" r:id="rId1419" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{00000000-0004-0000-0000-00008A050000}"/>
-    <hyperlink ref="A743" r:id="rId1420" display="https://www.nba.com/stats/player/201964/" xr:uid="{00000000-0004-0000-0000-00008B050000}"/>
-    <hyperlink ref="B743" r:id="rId1421" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-00008C050000}"/>
-    <hyperlink ref="A744" r:id="rId1422" display="https://www.nba.com/stats/player/201956/" xr:uid="{00000000-0004-0000-0000-00008D050000}"/>
-    <hyperlink ref="B744" r:id="rId1423" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-00008E050000}"/>
-    <hyperlink ref="A745" r:id="rId1424" display="https://www.nba.com/stats/player/201957/" xr:uid="{00000000-0004-0000-0000-00008F050000}"/>
-    <hyperlink ref="B745" r:id="rId1425" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-000090050000}"/>
-    <hyperlink ref="A746" r:id="rId1426" display="https://www.nba.com/stats/player/201958/" xr:uid="{00000000-0004-0000-0000-000091050000}"/>
-    <hyperlink ref="B746" r:id="rId1427" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{00000000-0004-0000-0000-000092050000}"/>
-    <hyperlink ref="A747" r:id="rId1428" display="https://www.nba.com/stats/player/201959/" xr:uid="{00000000-0004-0000-0000-000093050000}"/>
-    <hyperlink ref="B747" r:id="rId1429" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{00000000-0004-0000-0000-000094050000}"/>
-    <hyperlink ref="A748" r:id="rId1430" display="https://www.nba.com/stats/player/201960/" xr:uid="{00000000-0004-0000-0000-000095050000}"/>
-    <hyperlink ref="B748" r:id="rId1431" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-000096050000}"/>
-    <hyperlink ref="A749" r:id="rId1432" display="https://www.nba.com/stats/player/201961/" xr:uid="{00000000-0004-0000-0000-000097050000}"/>
-    <hyperlink ref="B749" r:id="rId1433" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-000098050000}"/>
-    <hyperlink ref="A750" r:id="rId1434" display="https://www.nba.com/stats/player/201962/" xr:uid="{00000000-0004-0000-0000-000099050000}"/>
-    <hyperlink ref="B750" r:id="rId1435" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-00009A050000}"/>
-    <hyperlink ref="A751" r:id="rId1436" display="https://www.nba.com/stats/player/201963/" xr:uid="{00000000-0004-0000-0000-00009B050000}"/>
-    <hyperlink ref="B751" r:id="rId1437" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-00009C050000}"/>
-    <hyperlink ref="A752" r:id="rId1438" display="https://www.nba.com/stats/player/201965/" xr:uid="{00000000-0004-0000-0000-00009D050000}"/>
-    <hyperlink ref="B752" r:id="rId1439" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{00000000-0004-0000-0000-00009E050000}"/>
-    <hyperlink ref="A753" r:id="rId1440" display="https://www.nba.com/stats/player/201966/" xr:uid="{00000000-0004-0000-0000-00009F050000}"/>
-    <hyperlink ref="B753" r:id="rId1441" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{00000000-0004-0000-0000-0000A0050000}"/>
-    <hyperlink ref="A754" r:id="rId1442" display="https://www.nba.com/stats/player/201967/" xr:uid="{00000000-0004-0000-0000-0000A1050000}"/>
-    <hyperlink ref="B754" r:id="rId1443" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-0000A2050000}"/>
-    <hyperlink ref="B755" r:id="rId1444" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{00000000-0004-0000-0000-0000A3050000}"/>
-    <hyperlink ref="A756" r:id="rId1445" display="https://www.nba.com/stats/player/201969/" xr:uid="{00000000-0004-0000-0000-0000A4050000}"/>
-    <hyperlink ref="B756" r:id="rId1446" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-0000A5050000}"/>
-    <hyperlink ref="A757" r:id="rId1447" display="https://www.nba.com/stats/player/201970/" xr:uid="{00000000-0004-0000-0000-0000A6050000}"/>
-    <hyperlink ref="B757" r:id="rId1448" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{00000000-0004-0000-0000-0000A7050000}"/>
-    <hyperlink ref="A758" r:id="rId1449" display="https://www.nba.com/stats/player/201971/" xr:uid="{00000000-0004-0000-0000-0000A8050000}"/>
-    <hyperlink ref="B758" r:id="rId1450" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-0000A9050000}"/>
-    <hyperlink ref="A759" r:id="rId1451" display="https://www.nba.com/stats/player/201972/" xr:uid="{00000000-0004-0000-0000-0000AA050000}"/>
-    <hyperlink ref="B759" r:id="rId1452" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-0000AB050000}"/>
-    <hyperlink ref="A760" r:id="rId1453" display="https://www.nba.com/stats/player/201973/" xr:uid="{00000000-0004-0000-0000-0000AC050000}"/>
-    <hyperlink ref="B760" r:id="rId1454" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-0000AD050000}"/>
-    <hyperlink ref="A761" r:id="rId1455" display="https://www.nba.com/stats/player/201974/" xr:uid="{00000000-0004-0000-0000-0000AE050000}"/>
-    <hyperlink ref="B761" r:id="rId1456" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-0000AF050000}"/>
-    <hyperlink ref="A762" r:id="rId1457" display="https://www.nba.com/stats/player/201975/" xr:uid="{00000000-0004-0000-0000-0000B0050000}"/>
-    <hyperlink ref="B762" r:id="rId1458" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{00000000-0004-0000-0000-0000B1050000}"/>
-    <hyperlink ref="A763" r:id="rId1459" display="https://www.nba.com/stats/player/201976/" xr:uid="{00000000-0004-0000-0000-0000B2050000}"/>
-    <hyperlink ref="B763" r:id="rId1460" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-0000B3050000}"/>
-    <hyperlink ref="A764" r:id="rId1461" display="https://www.nba.com/stats/player/201977/" xr:uid="{00000000-0004-0000-0000-0000B4050000}"/>
-    <hyperlink ref="B764" r:id="rId1462" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-0000B5050000}"/>
-    <hyperlink ref="A765" r:id="rId1463" display="https://www.nba.com/stats/player/201978/" xr:uid="{00000000-0004-0000-0000-0000B6050000}"/>
-    <hyperlink ref="B765" r:id="rId1464" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{00000000-0004-0000-0000-0000B7050000}"/>
-    <hyperlink ref="A766" r:id="rId1465" display="https://www.nba.com/stats/player/201979/" xr:uid="{00000000-0004-0000-0000-0000B8050000}"/>
-    <hyperlink ref="B766" r:id="rId1466" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-0000B9050000}"/>
-    <hyperlink ref="A767" r:id="rId1467" display="https://www.nba.com/stats/player/201980/" xr:uid="{00000000-0004-0000-0000-0000BA050000}"/>
-    <hyperlink ref="B767" r:id="rId1468" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{00000000-0004-0000-0000-0000BB050000}"/>
-    <hyperlink ref="B768" r:id="rId1469" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{00000000-0004-0000-0000-0000BC050000}"/>
-    <hyperlink ref="A769" r:id="rId1470" display="https://www.nba.com/stats/player/201981/" xr:uid="{00000000-0004-0000-0000-0000BD050000}"/>
-    <hyperlink ref="B769" r:id="rId1471" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-0000BE050000}"/>
-    <hyperlink ref="B770" r:id="rId1472" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{00000000-0004-0000-0000-0000BF050000}"/>
-    <hyperlink ref="A771" r:id="rId1473" display="https://www.nba.com/stats/player/201983/" xr:uid="{00000000-0004-0000-0000-0000C0050000}"/>
-    <hyperlink ref="B771" r:id="rId1474" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{00000000-0004-0000-0000-0000C1050000}"/>
-    <hyperlink ref="B772" r:id="rId1475" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-0000C2050000}"/>
-    <hyperlink ref="A773" r:id="rId1476" display="https://www.nba.com/stats/player/201985/" xr:uid="{00000000-0004-0000-0000-0000C3050000}"/>
-    <hyperlink ref="B773" r:id="rId1477" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{00000000-0004-0000-0000-0000C4050000}"/>
-    <hyperlink ref="A774" r:id="rId1478" display="https://www.nba.com/stats/player/201986/" xr:uid="{00000000-0004-0000-0000-0000C5050000}"/>
-    <hyperlink ref="B774" r:id="rId1479" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{00000000-0004-0000-0000-0000C6050000}"/>
-    <hyperlink ref="B775" r:id="rId1480" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{00000000-0004-0000-0000-0000C7050000}"/>
-    <hyperlink ref="A776" r:id="rId1481" display="https://www.nba.com/stats/player/201988/" xr:uid="{00000000-0004-0000-0000-0000C8050000}"/>
-    <hyperlink ref="B776" r:id="rId1482" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{00000000-0004-0000-0000-0000C9050000}"/>
-    <hyperlink ref="B777" r:id="rId1483" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{00000000-0004-0000-0000-0000CA050000}"/>
-    <hyperlink ref="B778" r:id="rId1484" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{00000000-0004-0000-0000-0000CB050000}"/>
-    <hyperlink ref="A779" r:id="rId1485" display="https://www.nba.com/stats/player/201991/" xr:uid="{00000000-0004-0000-0000-0000CC050000}"/>
-    <hyperlink ref="B779" r:id="rId1486" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{00000000-0004-0000-0000-0000CD050000}"/>
-    <hyperlink ref="B780" r:id="rId1487" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00000000-0004-0000-0000-0000CE050000}"/>
-    <hyperlink ref="A781" r:id="rId1488" display="https://www.nba.com/stats/player/201993/" xr:uid="{00000000-0004-0000-0000-0000CF050000}"/>
-    <hyperlink ref="B781" r:id="rId1489" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{00000000-0004-0000-0000-0000D0050000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.nba.com/stats/player/1630595/"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://www.nba.com/stats/player/1630224/"/>
+    <hyperlink ref="B3" r:id="rId4" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.nba.com/stats/player/1630596/"/>
+    <hyperlink ref="B4" r:id="rId6" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A5" r:id="rId7" display="https://www.nba.com/stats/player/1630567/"/>
+    <hyperlink ref="B5" r:id="rId8" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A6" r:id="rId9" display="https://www.nba.com/stats/player/1630591/"/>
+    <hyperlink ref="B6" r:id="rId10" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A7" r:id="rId11" display="https://www.nba.com/stats/player/1630581/"/>
+    <hyperlink ref="B7" r:id="rId12" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A8" r:id="rId13" display="https://www.nba.com/stats/player/1630228/"/>
+    <hyperlink ref="B8" r:id="rId14" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A9" r:id="rId15" display="https://www.nba.com/stats/player/1630532/"/>
+    <hyperlink ref="B9" r:id="rId16" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A10" r:id="rId17" display="https://www.nba.com/stats/player/1630558/"/>
+    <hyperlink ref="B10" r:id="rId18" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A11" r:id="rId19" display="https://www.nba.com/stats/player/1630533/"/>
+    <hyperlink ref="B11" r:id="rId20" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A12" r:id="rId21" display="https://www.nba.com/stats/player/1630547/"/>
+    <hyperlink ref="B12" r:id="rId22" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A13" r:id="rId23" display="https://www.nba.com/stats/player/1630563/"/>
+    <hyperlink ref="B13" r:id="rId24" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A14" r:id="rId25" display="https://www.nba.com/stats/player/1630537/"/>
+    <hyperlink ref="B14" r:id="rId26" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A15" r:id="rId27" display="https://www.nba.com/stats/player/1630541/"/>
+    <hyperlink ref="B15" r:id="rId28" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A16" r:id="rId29" display="https://www.nba.com/stats/player/1630557/"/>
+    <hyperlink ref="B16" r:id="rId30" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A17" r:id="rId31" display="https://www.nba.com/stats/player/1630578/"/>
+    <hyperlink ref="B17" r:id="rId32" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A18" r:id="rId33" display="https://www.nba.com/stats/player/1630530/"/>
+    <hyperlink ref="B18" r:id="rId34" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A19" r:id="rId35" display="https://www.nba.com/stats/player/1630544/"/>
+    <hyperlink ref="B19" r:id="rId36" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A20" r:id="rId37" display="https://www.nba.com/stats/player/1630539/"/>
+    <hyperlink ref="B20" r:id="rId38" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A21" r:id="rId39" display="https://www.nba.com/stats/player/1630552/"/>
+    <hyperlink ref="B21" r:id="rId40" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A22" r:id="rId41" display="https://www.nba.com/stats/player/1630553/"/>
+    <hyperlink ref="B22" r:id="rId42" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A23" r:id="rId43" display="https://www.nba.com/stats/player/1630543/"/>
+    <hyperlink ref="B23" r:id="rId44" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A24" r:id="rId45" display="https://www.nba.com/stats/player/1630586/"/>
+    <hyperlink ref="B24" r:id="rId46" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A25" r:id="rId47" display="https://www.nba.com/stats/player/1630528/"/>
+    <hyperlink ref="B25" r:id="rId48" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A26" r:id="rId49" display="https://www.nba.com/stats/player/1629656/"/>
+    <hyperlink ref="B26" r:id="rId50" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A27" r:id="rId51" display="https://www.nba.com/stats/player/1630538/"/>
+    <hyperlink ref="B27" r:id="rId52" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A28" r:id="rId53" display="https://www.nba.com/stats/player/1630560/"/>
+    <hyperlink ref="B28" r:id="rId54" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A29" r:id="rId55" display="https://www.nba.com/stats/player/1630531/"/>
+    <hyperlink ref="B29" r:id="rId56" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A30" r:id="rId57" display="https://www.nba.com/stats/player/1630549/"/>
+    <hyperlink ref="B30" r:id="rId58" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A31" r:id="rId59" display="https://www.nba.com/stats/player/1630583/"/>
+    <hyperlink ref="B31" r:id="rId60" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A32" r:id="rId61" display="https://www.nba.com/stats/player/1630225/"/>
+    <hyperlink ref="B32" r:id="rId62" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A33" r:id="rId63" display="https://www.nba.com/stats/player/1630526/"/>
+    <hyperlink ref="B33" r:id="rId64" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A34" r:id="rId65" display="https://www.nba.com/stats/player/1630554/"/>
+    <hyperlink ref="B34" r:id="rId66" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B35" r:id="rId67" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A36" r:id="rId68" display="https://www.nba.com/stats/player/1630529/"/>
+    <hyperlink ref="B36" r:id="rId69" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A37" r:id="rId70" display="https://www.nba.com/stats/player/1630540/"/>
+    <hyperlink ref="B37" r:id="rId71" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A38" r:id="rId72" display="https://www.nba.com/stats/player/1630550/"/>
+    <hyperlink ref="B38" r:id="rId73" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A39" r:id="rId74" display="https://www.nba.com/stats/player/1630245/"/>
+    <hyperlink ref="B39" r:id="rId75" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A40" r:id="rId76" display="https://www.nba.com/stats/player/1629674/"/>
+    <hyperlink ref="B40" r:id="rId77" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A41" r:id="rId78" display="https://www.nba.com/stats/player/1630215/"/>
+    <hyperlink ref="B41" r:id="rId79" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A42" r:id="rId80" display="https://www.nba.com/stats/player/1630580/"/>
+    <hyperlink ref="B42" r:id="rId81" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A43" r:id="rId82" display="https://www.nba.com/stats/player/1630587/"/>
+    <hyperlink ref="B43" r:id="rId83" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A44" r:id="rId84" display="https://www.nba.com/stats/player/1630535/"/>
+    <hyperlink ref="B44" r:id="rId85" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A45" r:id="rId86" display="https://www.nba.com/stats/player/1630556/"/>
+    <hyperlink ref="B45" r:id="rId87" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B46" r:id="rId88" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A47" r:id="rId89" display="https://www.nba.com/stats/player/1630625/"/>
+    <hyperlink ref="B47" r:id="rId90" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A48" r:id="rId91" display="https://www.nba.com/stats/player/1630525/"/>
+    <hyperlink ref="B48" r:id="rId92" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A49" r:id="rId93" display="https://www.nba.com/stats/player/1630536/"/>
+    <hyperlink ref="B49" r:id="rId94" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B50" r:id="rId95" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B51" r:id="rId96" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A52" r:id="rId97" display="https://www.nba.com/stats/player/1630527/"/>
+    <hyperlink ref="B52" r:id="rId98" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A53" r:id="rId99" display="https://www.nba.com/stats/player/1630568/"/>
+    <hyperlink ref="B53" r:id="rId100" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A54" r:id="rId101" display="https://www.nba.com/stats/player/1629646/"/>
+    <hyperlink ref="B54" r:id="rId102" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A55" r:id="rId103" display="https://www.nba.com/stats/player/1630572/"/>
+    <hyperlink ref="B55" r:id="rId104" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A56" r:id="rId105" display="https://www.nba.com/stats/player/1630598/"/>
+    <hyperlink ref="B56" r:id="rId106" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A57" r:id="rId107" display="https://www.nba.com/stats/player/1630575/"/>
+    <hyperlink ref="B57" r:id="rId108" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B58" r:id="rId109" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A59" r:id="rId110" display="https://www.nba.com/stats/player/1630579/"/>
+    <hyperlink ref="B59" r:id="rId111" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B60" r:id="rId112" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A61" r:id="rId113" display="https://www.nba.com/stats/player/1630686/"/>
+    <hyperlink ref="B61" r:id="rId114" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A62" r:id="rId115" display="https://www.nba.com/stats/player/1630162/"/>
+    <hyperlink ref="B62" r:id="rId116" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A63" r:id="rId117" display="https://www.nba.com/stats/player/1630164/"/>
+    <hyperlink ref="B63" r:id="rId118" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A64" r:id="rId119" display="https://www.nba.com/stats/player/1630163/"/>
+    <hyperlink ref="B64" r:id="rId120" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A65" r:id="rId121" display="https://www.nba.com/stats/player/1630172/"/>
+    <hyperlink ref="B65" r:id="rId122" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A66" r:id="rId123" display="https://www.nba.com/stats/player/1630171/"/>
+    <hyperlink ref="B66" r:id="rId124" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A67" r:id="rId125" display="https://www.nba.com/stats/player/1630168/"/>
+    <hyperlink ref="B67" r:id="rId126" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A68" r:id="rId127" display="https://www.nba.com/stats/player/1630165/"/>
+    <hyperlink ref="B68" r:id="rId128" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A69" r:id="rId129" display="https://www.nba.com/stats/player/1630167/"/>
+    <hyperlink ref="B69" r:id="rId130" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A70" r:id="rId131" display="https://www.nba.com/stats/player/1630166/"/>
+    <hyperlink ref="B70" r:id="rId132" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A71" r:id="rId133" display="https://www.nba.com/stats/player/1630188/"/>
+    <hyperlink ref="B71" r:id="rId134" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A72" r:id="rId135" display="https://www.nba.com/stats/player/1630170/"/>
+    <hyperlink ref="B72" r:id="rId136" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A73" r:id="rId137" display="https://www.nba.com/stats/player/1630169/"/>
+    <hyperlink ref="B73" r:id="rId138" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A74" r:id="rId139" display="https://www.nba.com/stats/player/1630184/"/>
+    <hyperlink ref="B74" r:id="rId140" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A75" r:id="rId141" display="https://www.nba.com/stats/player/1630174/"/>
+    <hyperlink ref="B75" r:id="rId142" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A76" r:id="rId143" display="https://www.nba.com/stats/player/1630175/"/>
+    <hyperlink ref="B76" r:id="rId144" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A77" r:id="rId145" display="https://www.nba.com/stats/player/1630191/"/>
+    <hyperlink ref="B77" r:id="rId146" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A78" r:id="rId147" display="https://www.nba.com/stats/player/1630197/"/>
+    <hyperlink ref="B78" r:id="rId148" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A79" r:id="rId149" display="https://www.nba.com/stats/player/1630182/"/>
+    <hyperlink ref="B79" r:id="rId150" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="A80" r:id="rId151" display="https://www.nba.com/stats/player/1630180/"/>
+    <hyperlink ref="B80" r:id="rId152" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A81" r:id="rId153" display="https://www.nba.com/stats/player/1630173/"/>
+    <hyperlink ref="B81" r:id="rId154" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="A82" r:id="rId155" display="https://www.nba.com/stats/player/1630178/"/>
+    <hyperlink ref="B82" r:id="rId156" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A83" r:id="rId157" display="https://www.nba.com/stats/player/1630192/"/>
+    <hyperlink ref="B83" r:id="rId158" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A84" r:id="rId159" display="https://www.nba.com/stats/player/1630195/"/>
+    <hyperlink ref="B84" r:id="rId160" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A85" r:id="rId161" display="https://www.nba.com/stats/player/1630181/"/>
+    <hyperlink ref="B85" r:id="rId162" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A86" r:id="rId163" display="https://www.nba.com/stats/player/1630193/"/>
+    <hyperlink ref="B86" r:id="rId164" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A87" r:id="rId165" display="https://www.nba.com/stats/player/1630202/"/>
+    <hyperlink ref="B87" r:id="rId166" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A88" r:id="rId167" display="https://www.nba.com/stats/player/1628962/"/>
+    <hyperlink ref="B88" r:id="rId168" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A89" r:id="rId169" display="https://www.nba.com/stats/player/1630183/"/>
+    <hyperlink ref="B89" r:id="rId170" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A90" r:id="rId171" display="https://www.nba.com/stats/player/1630201/"/>
+    <hyperlink ref="B90" r:id="rId172" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A91" r:id="rId173" display="https://www.nba.com/stats/player/1630217/"/>
+    <hyperlink ref="B91" r:id="rId174" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A92" r:id="rId175" display="https://www.nba.com/stats/player/1630179/"/>
+    <hyperlink ref="B92" r:id="rId176" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="A93" r:id="rId177" display="https://www.nba.com/stats/player/1630176/"/>
+    <hyperlink ref="B93" r:id="rId178" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A94" r:id="rId179" display="https://www.nba.com/stats/player/1630187/"/>
+    <hyperlink ref="B94" r:id="rId180" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A95" r:id="rId181" display="https://www.nba.com/stats/player/1630177/"/>
+    <hyperlink ref="B95" r:id="rId182" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A96" r:id="rId183" display="https://www.nba.com/stats/player/1630214/"/>
+    <hyperlink ref="B96" r:id="rId184" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A97" r:id="rId185" display="https://www.nba.com/stats/player/1630189/"/>
+    <hyperlink ref="B97" r:id="rId186" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A98" r:id="rId187" display="https://www.nba.com/stats/player/1630249/"/>
+    <hyperlink ref="B98" r:id="rId188" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A99" r:id="rId189" display="https://www.nba.com/stats/player/1630240/"/>
+    <hyperlink ref="B99" r:id="rId190" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A100" r:id="rId191" display="https://www.nba.com/stats/player/1630190/"/>
+    <hyperlink ref="B100" r:id="rId192" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A101" r:id="rId193" display="https://www.nba.com/stats/player/1630218/"/>
+    <hyperlink ref="B101" r:id="rId194" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A102" r:id="rId195" display="https://www.nba.com/stats/player/1630200/"/>
+    <hyperlink ref="B102" r:id="rId196" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A103" r:id="rId197" display="https://www.nba.com/stats/player/1630208/"/>
+    <hyperlink ref="B103" r:id="rId198" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A104" r:id="rId199" display="https://www.nba.com/stats/player/1630186/"/>
+    <hyperlink ref="B104" r:id="rId200" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A105" r:id="rId201" display="https://www.nba.com/stats/player/1630250/"/>
+    <hyperlink ref="B105" r:id="rId202" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A106" r:id="rId203" display="https://www.nba.com/stats/player/1629670/"/>
+    <hyperlink ref="B106" r:id="rId204" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A107" r:id="rId205" display="https://www.nba.com/stats/player/1629604/"/>
+    <hyperlink ref="B107" r:id="rId206" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B108" r:id="rId207" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A109" r:id="rId208" display="https://www.nba.com/stats/player/1630185/"/>
+    <hyperlink ref="B109" r:id="rId209" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A110" r:id="rId210" display="https://www.nba.com/stats/player/1630198/"/>
+    <hyperlink ref="B110" r:id="rId211" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A111" r:id="rId212" display="https://www.nba.com/stats/player/1630219/"/>
+    <hyperlink ref="B111" r:id="rId213" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B112" r:id="rId214" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A113" r:id="rId215" display="https://www.nba.com/stats/player/1630231/"/>
+    <hyperlink ref="B113" r:id="rId216" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A114" r:id="rId217" display="https://www.nba.com/stats/player/1630216/"/>
+    <hyperlink ref="B114" r:id="rId218" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A115" r:id="rId219" display="https://www.nba.com/stats/player/1630199/"/>
+    <hyperlink ref="B115" r:id="rId220" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A116" r:id="rId221" display="https://www.nba.com/stats/player/1630206/"/>
+    <hyperlink ref="B116" r:id="rId222" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A117" r:id="rId223" display="https://www.nba.com/stats/player/1630203/"/>
+    <hyperlink ref="B117" r:id="rId224" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A118" r:id="rId225" display="https://www.nba.com/stats/player/1629617/"/>
+    <hyperlink ref="B118" r:id="rId226" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A119" r:id="rId227" display="https://www.nba.com/stats/player/1630194/"/>
+    <hyperlink ref="B119" r:id="rId228" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A120" r:id="rId229" display="https://www.nba.com/stats/player/1630223/"/>
+    <hyperlink ref="B120" r:id="rId230" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A121" r:id="rId231" display="https://www.nba.com/stats/player/1630241/"/>
+    <hyperlink ref="B121" r:id="rId232" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A122" r:id="rId233" display="https://www.nba.com/stats/player/1629627/"/>
+    <hyperlink ref="B122" r:id="rId234" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A123" r:id="rId235" display="https://www.nba.com/stats/player/1629630/"/>
+    <hyperlink ref="B123" r:id="rId236" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A124" r:id="rId237" display="https://www.nba.com/stats/player/1629628/"/>
+    <hyperlink ref="B124" r:id="rId238" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A125" r:id="rId239" display="https://www.nba.com/stats/player/1629631/"/>
+    <hyperlink ref="B125" r:id="rId240" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A126" r:id="rId241" display="https://www.nba.com/stats/player/1629636/"/>
+    <hyperlink ref="B126" r:id="rId242" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A127" r:id="rId243" display="https://www.nba.com/stats/player/1629633/"/>
+    <hyperlink ref="B127" r:id="rId244" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A128" r:id="rId245" display="https://www.nba.com/stats/player/1629632/"/>
+    <hyperlink ref="B128" r:id="rId246" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A129" r:id="rId247" display="https://www.nba.com/stats/player/1629637/"/>
+    <hyperlink ref="B129" r:id="rId248" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A130" r:id="rId249" display="https://www.nba.com/stats/player/1629060/"/>
+    <hyperlink ref="B130" r:id="rId250" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A131" r:id="rId251" display="https://www.nba.com/stats/player/1629629/"/>
+    <hyperlink ref="B131" r:id="rId252" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A132" r:id="rId253" display="https://www.nba.com/stats/player/1629661/"/>
+    <hyperlink ref="B132" r:id="rId254" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A133" r:id="rId255" display="https://www.nba.com/stats/player/1629023/"/>
+    <hyperlink ref="B133" r:id="rId256" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A134" r:id="rId257" display="https://www.nba.com/stats/player/1629639/"/>
+    <hyperlink ref="B134" r:id="rId258" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="A135" r:id="rId259" display="https://www.nba.com/stats/player/1629641/"/>
+    <hyperlink ref="B135" r:id="rId260" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A136" r:id="rId261" display="https://www.nba.com/stats/player/1629635/"/>
+    <hyperlink ref="B136" r:id="rId262" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A137" r:id="rId263" display="https://www.nba.com/stats/player/1629643/"/>
+    <hyperlink ref="B137" r:id="rId264" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A138" r:id="rId265" display="https://www.nba.com/stats/player/1629638/"/>
+    <hyperlink ref="B138" r:id="rId266" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A139" r:id="rId267" display="https://www.nba.com/stats/player/1629048/"/>
+    <hyperlink ref="B139" r:id="rId268" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A140" r:id="rId269" display="https://www.nba.com/stats/player/1629677/"/>
+    <hyperlink ref="B140" r:id="rId270" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A141" r:id="rId271" display="https://www.nba.com/stats/player/1629680/"/>
+    <hyperlink ref="B141" r:id="rId272" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A142" r:id="rId273" display="https://www.nba.com/stats/player/1629634/"/>
+    <hyperlink ref="B142" r:id="rId274" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A143" r:id="rId275" display="https://www.nba.com/stats/player/1629684/"/>
+    <hyperlink ref="B143" r:id="rId276" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A144" r:id="rId277" display="https://www.nba.com/stats/player/1629647/"/>
+    <hyperlink ref="B144" r:id="rId278" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A145" r:id="rId279" display="https://www.nba.com/stats/player/1629660/"/>
+    <hyperlink ref="B145" r:id="rId280" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A146" r:id="rId281" display="https://www.nba.com/stats/player/1629642/"/>
+    <hyperlink ref="B146" r:id="rId282" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A147" r:id="rId283" display="https://www.nba.com/stats/player/1629685/"/>
+    <hyperlink ref="B147" r:id="rId284" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A148" r:id="rId285" display="https://www.nba.com/stats/player/1629662/"/>
+    <hyperlink ref="B148" r:id="rId286" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A149" r:id="rId287" display="https://www.nba.com/stats/player/1629673/"/>
+    <hyperlink ref="B149" r:id="rId288" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A150" r:id="rId289" display="https://www.nba.com/stats/player/1629640/"/>
+    <hyperlink ref="B150" r:id="rId290" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A151" r:id="rId291" display="https://www.nba.com/stats/player/1629645/"/>
+    <hyperlink ref="B151" r:id="rId292" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A152" r:id="rId293" display="https://www.nba.com/stats/player/1629651/"/>
+    <hyperlink ref="B152" r:id="rId294" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A153" r:id="rId295" display="https://www.nba.com/stats/player/1629644/"/>
+    <hyperlink ref="B153" r:id="rId296" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A154" r:id="rId297" display="https://www.nba.com/stats/player/1629035/"/>
+    <hyperlink ref="B154" r:id="rId298" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A155" r:id="rId299" display="https://www.nba.com/stats/player/1628981/"/>
+    <hyperlink ref="B155" r:id="rId300" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A156" r:id="rId301" display="https://www.nba.com/stats/player/1629712/"/>
+    <hyperlink ref="B156" r:id="rId302" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A157" r:id="rId303" display="https://www.nba.com/stats/player/1628998/"/>
+    <hyperlink ref="B157" r:id="rId304" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A158" r:id="rId305" display="https://www.nba.com/stats/player/1629686/"/>
+    <hyperlink ref="B158" r:id="rId306" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="A159" r:id="rId307" display="https://www.nba.com/stats/player/1629655/"/>
+    <hyperlink ref="B159" r:id="rId308" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A160" r:id="rId309" display="https://www.nba.com/stats/player/1629346/"/>
+    <hyperlink ref="B160" r:id="rId310" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A161" r:id="rId311" display="https://www.nba.com/stats/player/1629713/"/>
+    <hyperlink ref="B161" r:id="rId312" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A162" r:id="rId313" display="https://www.nba.com/stats/player/1629672/"/>
+    <hyperlink ref="B162" r:id="rId314" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A163" r:id="rId315" display="https://www.nba.com/stats/player/1629678/"/>
+    <hyperlink ref="B163" r:id="rId316" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A164" r:id="rId317" display="https://www.nba.com/stats/player/1629669/"/>
+    <hyperlink ref="B164" r:id="rId318" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A165" r:id="rId319" display="https://www.nba.com/stats/player/1629626/"/>
+    <hyperlink ref="B165" r:id="rId320" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="A166" r:id="rId321" display="https://www.nba.com/stats/player/1629676/"/>
+    <hyperlink ref="B166" r:id="rId322" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A167" r:id="rId323" display="https://www.nba.com/stats/player/1629659/"/>
+    <hyperlink ref="B167" r:id="rId324" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A168" r:id="rId325" display="https://www.nba.com/stats/player/1629649/"/>
+    <hyperlink ref="B168" r:id="rId326" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A169" r:id="rId327" display="https://www.nba.com/stats/player/1629611/"/>
+    <hyperlink ref="B169" r:id="rId328" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A170" r:id="rId329" display="https://www.nba.com/stats/player/1629683/"/>
+    <hyperlink ref="B170" r:id="rId330" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A171" r:id="rId331" display="https://www.nba.com/stats/player/1629714/"/>
+    <hyperlink ref="B171" r:id="rId332" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A172" r:id="rId333" display="https://www.nba.com/stats/player/1629682/"/>
+    <hyperlink ref="B172" r:id="rId334" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A173" r:id="rId335" display="https://www.nba.com/stats/player/1629667/"/>
+    <hyperlink ref="B173" r:id="rId336" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A174" r:id="rId337" display="https://www.nba.com/stats/player/1629625/"/>
+    <hyperlink ref="B174" r:id="rId338" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A175" r:id="rId339" display="https://www.nba.com/stats/player/1629621/"/>
+    <hyperlink ref="B175" r:id="rId340" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A176" r:id="rId341" display="https://www.nba.com/stats/player/1629657/"/>
+    <hyperlink ref="B176" r:id="rId342" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B177" r:id="rId343" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A178" r:id="rId344" display="https://www.nba.com/stats/player/1629648/"/>
+    <hyperlink ref="B178" r:id="rId345" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A179" r:id="rId346" display="https://www.nba.com/stats/player/1629671/"/>
+    <hyperlink ref="B179" r:id="rId347" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A180" r:id="rId348" display="https://www.nba.com/stats/player/1629608/"/>
+    <hyperlink ref="B180" r:id="rId349" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B181" r:id="rId350" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A182" r:id="rId351" display="https://www.nba.com/stats/player/1629028/"/>
+    <hyperlink ref="B182" r:id="rId352" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A183" r:id="rId353" display="https://www.nba.com/stats/player/1628963/"/>
+    <hyperlink ref="B183" r:id="rId354" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A184" r:id="rId355" display="https://www.nba.com/stats/player/1629029/"/>
+    <hyperlink ref="B184" r:id="rId356" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A185" r:id="rId357" display="https://www.nba.com/stats/player/1628991/"/>
+    <hyperlink ref="B185" r:id="rId358" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A186" r:id="rId359" display="https://www.nba.com/stats/player/1629027/"/>
+    <hyperlink ref="B186" r:id="rId360" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="A187" r:id="rId361" display="https://www.nba.com/stats/player/1628964/"/>
+    <hyperlink ref="B187" r:id="rId362" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A188" r:id="rId363" display="https://www.nba.com/stats/player/1628976/"/>
+    <hyperlink ref="B188" r:id="rId364" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A189" r:id="rId365" display="https://www.nba.com/stats/player/1629012/"/>
+    <hyperlink ref="B189" r:id="rId366" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A190" r:id="rId367" display="https://www.nba.com/stats/player/1628995/"/>
+    <hyperlink ref="B190" r:id="rId368" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A191" r:id="rId369" display="https://www.nba.com/stats/player/1628969/"/>
+    <hyperlink ref="B191" r:id="rId370" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A192" r:id="rId371" display="https://www.nba.com/stats/player/1628983/"/>
+    <hyperlink ref="B192" r:id="rId372" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A193" r:id="rId373" display="https://www.nba.com/stats/player/1628970/"/>
+    <hyperlink ref="B193" r:id="rId374" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A194" r:id="rId375" display="https://www.nba.com/stats/player/1629010/"/>
+    <hyperlink ref="B194" r:id="rId376" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A195" r:id="rId377" display="https://www.nba.com/stats/player/1629008/"/>
+    <hyperlink ref="B195" r:id="rId378" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A196" r:id="rId379" display="https://www.nba.com/stats/player/1628972/"/>
+    <hyperlink ref="B196" r:id="rId380" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A197" r:id="rId381" display="https://www.nba.com/stats/player/1629015/"/>
+    <hyperlink ref="B197" r:id="rId382" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A198" r:id="rId383" display="https://www.nba.com/stats/player/1628978/"/>
+    <hyperlink ref="B198" r:id="rId384" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A199" r:id="rId385" display="https://www.nba.com/stats/player/1629022/"/>
+    <hyperlink ref="B199" r:id="rId386" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A200" r:id="rId387" display="https://www.nba.com/stats/player/1628989/"/>
+    <hyperlink ref="B200" r:id="rId388" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A201" r:id="rId389" display="https://www.nba.com/stats/player/1629006/"/>
+    <hyperlink ref="B201" r:id="rId390" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A202" r:id="rId391" display="https://www.nba.com/stats/player/1628960/"/>
+    <hyperlink ref="B202" r:id="rId392" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A203" r:id="rId393" display="https://www.nba.com/stats/player/1628990/"/>
+    <hyperlink ref="B203" r:id="rId394" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A204" r:id="rId395" display="https://www.nba.com/stats/player/1628988/"/>
+    <hyperlink ref="B204" r:id="rId396" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A205" r:id="rId397" display="https://www.nba.com/stats/player/1629014/"/>
+    <hyperlink ref="B205" r:id="rId398" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A206" r:id="rId399" display="https://www.nba.com/stats/player/1629021/"/>
+    <hyperlink ref="B206" r:id="rId400" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A207" r:id="rId401" display="https://www.nba.com/stats/player/1629013/"/>
+    <hyperlink ref="B207" r:id="rId402" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A208" r:id="rId403" display="https://www.nba.com/stats/player/1629057/"/>
+    <hyperlink ref="B208" r:id="rId404" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A209" r:id="rId405" display="https://www.nba.com/stats/player/1628980/"/>
+    <hyperlink ref="B209" r:id="rId406" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A210" r:id="rId407" display="https://www.nba.com/stats/player/1629058/"/>
+    <hyperlink ref="B210" r:id="rId408" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A211" r:id="rId409" display="https://www.nba.com/stats/player/1629016/"/>
+    <hyperlink ref="B211" r:id="rId410" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A212" r:id="rId411" display="https://www.nba.com/stats/player/1629059/"/>
+    <hyperlink ref="B212" r:id="rId412" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A213" r:id="rId413" display="https://www.nba.com/stats/player/1628975/"/>
+    <hyperlink ref="B213" r:id="rId414" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A214" r:id="rId415" display="https://www.nba.com/stats/player/1628973/"/>
+    <hyperlink ref="B214" r:id="rId416" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="A215" r:id="rId417" display="https://www.nba.com/stats/player/1628984/"/>
+    <hyperlink ref="B215" r:id="rId418" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A216" r:id="rId419" display="https://www.nba.com/stats/player/1628982/"/>
+    <hyperlink ref="B216" r:id="rId420" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A217" r:id="rId421" display="https://www.nba.com/stats/player/1629011/"/>
+    <hyperlink ref="B217" r:id="rId422" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A218" r:id="rId423" display="https://www.nba.com/stats/player/1629018/"/>
+    <hyperlink ref="B218" r:id="rId424" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A219" r:id="rId425" display="https://www.nba.com/stats/player/1629017/"/>
+    <hyperlink ref="B219" r:id="rId426" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A220" r:id="rId427" display="https://www.nba.com/stats/player/1629067/"/>
+    <hyperlink ref="B220" r:id="rId428" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A221" r:id="rId429" display="https://www.nba.com/stats/player/1629066/"/>
+    <hyperlink ref="B221" r:id="rId430" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A222" r:id="rId431" display="https://www.nba.com/stats/player/1629020/"/>
+    <hyperlink ref="B222" r:id="rId432" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A223" r:id="rId433" display="https://www.nba.com/stats/player/1628971/"/>
+    <hyperlink ref="B223" r:id="rId434" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B224" r:id="rId435" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B225" r:id="rId436" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A226" r:id="rId437" display="https://www.nba.com/stats/player/1628977/"/>
+    <hyperlink ref="B226" r:id="rId438" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A227" r:id="rId439" display="https://www.nba.com/stats/player/1629001/"/>
+    <hyperlink ref="B227" r:id="rId440" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A228" r:id="rId441" display="https://www.nba.com/stats/player/1629004/"/>
+    <hyperlink ref="B228" r:id="rId442" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A229" r:id="rId443" display="https://www.nba.com/stats/player/1628966/"/>
+    <hyperlink ref="B229" r:id="rId444" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A230" r:id="rId445" display="https://www.nba.com/stats/player/1629002/"/>
+    <hyperlink ref="B230" r:id="rId446" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A231" r:id="rId447" display="https://www.nba.com/stats/player/1628993/"/>
+    <hyperlink ref="B231" r:id="rId448" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B232" r:id="rId449" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A233" r:id="rId450" display="https://www.nba.com/stats/player/1629053/"/>
+    <hyperlink ref="B233" r:id="rId451" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A234" r:id="rId452" display="https://www.nba.com/stats/player/1628985/"/>
+    <hyperlink ref="B234" r:id="rId453" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A235" r:id="rId454" display="https://www.nba.com/stats/player/1629003/"/>
+    <hyperlink ref="B235" r:id="rId455" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="A236" r:id="rId456" display="https://www.nba.com/stats/player/1629083/"/>
+    <hyperlink ref="B236" r:id="rId457" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A237" r:id="rId458" display="https://www.nba.com/stats/player/1629034/"/>
+    <hyperlink ref="B237" r:id="rId459" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A238" r:id="rId460" display="https://www.nba.com/stats/player/1628987/"/>
+    <hyperlink ref="B238" r:id="rId461" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A239" r:id="rId462" display="https://www.nba.com/stats/player/1629118/"/>
+    <hyperlink ref="B239" r:id="rId463" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A240" r:id="rId464" display="https://www.nba.com/stats/player/1628994/"/>
+    <hyperlink ref="B240" r:id="rId465" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A241" r:id="rId466" display="https://www.nba.com/stats/player/1628961/"/>
+    <hyperlink ref="B241" r:id="rId467" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A242" r:id="rId468" display="https://www.nba.com/stats/player/1628365/"/>
+    <hyperlink ref="B242" r:id="rId469" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A243" r:id="rId470" display="https://www.nba.com/stats/player/1628366/"/>
+    <hyperlink ref="B243" r:id="rId471" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A244" r:id="rId472" display="https://www.nba.com/stats/player/1628369/"/>
+    <hyperlink ref="B244" r:id="rId473" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A245" r:id="rId474" display="https://www.nba.com/stats/player/1628367/"/>
+    <hyperlink ref="B245" r:id="rId475" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A246" r:id="rId476" display="https://www.nba.com/stats/player/1628368/"/>
+    <hyperlink ref="B246" r:id="rId477" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A247" r:id="rId478" display="https://www.nba.com/stats/player/1628371/"/>
+    <hyperlink ref="B247" r:id="rId479" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A248" r:id="rId480" display="https://www.nba.com/stats/player/1628374/"/>
+    <hyperlink ref="B248" r:id="rId481" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A249" r:id="rId482" display="https://www.nba.com/stats/player/1628373/"/>
+    <hyperlink ref="B249" r:id="rId483" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A250" r:id="rId484" display="https://www.nba.com/stats/player/1628372/"/>
+    <hyperlink ref="B250" r:id="rId485" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="A251" r:id="rId486" display="https://www.nba.com/stats/player/1628380/"/>
+    <hyperlink ref="B251" r:id="rId487" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A252" r:id="rId488" display="https://www.nba.com/stats/player/1628370/"/>
+    <hyperlink ref="B252" r:id="rId489" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A253" r:id="rId490" display="https://www.nba.com/stats/player/1628379/"/>
+    <hyperlink ref="B253" r:id="rId491" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A254" r:id="rId492" display="https://www.nba.com/stats/player/1628378/"/>
+    <hyperlink ref="B254" r:id="rId493" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A255" r:id="rId494" display="https://www.nba.com/stats/player/1628389/"/>
+    <hyperlink ref="B255" r:id="rId495" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="A256" r:id="rId496" display="https://www.nba.com/stats/player/1628382/"/>
+    <hyperlink ref="B256" r:id="rId497" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A257" r:id="rId498" display="https://www.nba.com/stats/player/1628383/"/>
+    <hyperlink ref="B257" r:id="rId499" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A258" r:id="rId500" display="https://www.nba.com/stats/player/1628391/"/>
+    <hyperlink ref="B258" r:id="rId501" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A259" r:id="rId502" display="https://www.nba.com/stats/player/1628388/"/>
+    <hyperlink ref="B259" r:id="rId503" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A260" r:id="rId504" display="https://www.nba.com/stats/player/1628381/"/>
+    <hyperlink ref="B260" r:id="rId505" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A261" r:id="rId506" display="https://www.nba.com/stats/player/1628385/"/>
+    <hyperlink ref="B261" r:id="rId507" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A262" r:id="rId508" display="https://www.nba.com/stats/player/1628390/"/>
+    <hyperlink ref="B262" r:id="rId509" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A263" r:id="rId510" display="https://www.nba.com/stats/player/1628386/"/>
+    <hyperlink ref="B263" r:id="rId511" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A264" r:id="rId512" display="https://www.nba.com/stats/player/1628384/"/>
+    <hyperlink ref="B264" r:id="rId513" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A265" r:id="rId514" display="https://www.nba.com/stats/player/1628399/"/>
+    <hyperlink ref="B265" r:id="rId515" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A266" r:id="rId516" display="https://www.nba.com/stats/player/1628394/"/>
+    <hyperlink ref="B266" r:id="rId517" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A267" r:id="rId518" display="https://www.nba.com/stats/player/1628403/"/>
+    <hyperlink ref="B267" r:id="rId519" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A268" r:id="rId520" display="https://www.nba.com/stats/player/1628398/"/>
+    <hyperlink ref="B268" r:id="rId521" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A269" r:id="rId522" display="https://www.nba.com/stats/player/1628396/"/>
+    <hyperlink ref="B269" r:id="rId523" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A270" r:id="rId524" display="https://www.nba.com/stats/player/1628401/"/>
+    <hyperlink ref="B270" r:id="rId525" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A271" r:id="rId526" display="https://www.nba.com/stats/player/1628404/"/>
+    <hyperlink ref="B271" r:id="rId527" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A272" r:id="rId528" display="https://www.nba.com/stats/player/1628402/"/>
+    <hyperlink ref="B272" r:id="rId529" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A273" r:id="rId530" display="https://www.nba.com/stats/player/1628432/"/>
+    <hyperlink ref="B273" r:id="rId531" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A274" r:id="rId532" display="https://www.nba.com/stats/player/1628411/"/>
+    <hyperlink ref="B274" r:id="rId533" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A275" r:id="rId534" display="https://www.nba.com/stats/player/1628412/"/>
+    <hyperlink ref="B275" r:id="rId535" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A276" r:id="rId536" display="https://www.nba.com/stats/player/1628397/"/>
+    <hyperlink ref="B276" r:id="rId537" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A277" r:id="rId538" display="https://www.nba.com/stats/player/1628413/"/>
+    <hyperlink ref="B277" r:id="rId539" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A278" r:id="rId540" display="https://www.nba.com/stats/player/1628400/"/>
+    <hyperlink ref="B278" r:id="rId541" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A279" r:id="rId542" display="https://www.nba.com/stats/player/1628395/"/>
+    <hyperlink ref="B279" r:id="rId543" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A280" r:id="rId544" display="https://www.nba.com/stats/player/1628393/"/>
+    <hyperlink ref="B280" r:id="rId545" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A281" r:id="rId546" display="https://www.nba.com/stats/player/1628407/"/>
+    <hyperlink ref="B281" r:id="rId547" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A282" r:id="rId548" display="https://www.nba.com/stats/player/1628416/"/>
+    <hyperlink ref="B282" r:id="rId549" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A283" r:id="rId550" display="https://www.nba.com/stats/player/1628418/"/>
+    <hyperlink ref="B283" r:id="rId551" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A284" r:id="rId552" display="https://www.nba.com/stats/player/1628392/"/>
+    <hyperlink ref="B284" r:id="rId553" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A285" r:id="rId554" display="https://www.nba.com/stats/player/1628422/"/>
+    <hyperlink ref="B285" r:id="rId555" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A286" r:id="rId556" display="https://www.nba.com/stats/player/1628415/"/>
+    <hyperlink ref="B286" r:id="rId557" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A287" r:id="rId558" display="https://www.nba.com/stats/player/1628425/"/>
+    <hyperlink ref="B287" r:id="rId559" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A288" r:id="rId560" display="https://www.nba.com/stats/player/1628387/"/>
+    <hyperlink ref="B288" r:id="rId561" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A289" r:id="rId562" display="https://www.nba.com/stats/player/1628414/"/>
+    <hyperlink ref="B289" r:id="rId563" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A290" r:id="rId564" display="https://www.nba.com/stats/player/1628427/"/>
+    <hyperlink ref="B290" r:id="rId565" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B291" r:id="rId566" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A292" r:id="rId567" display="https://www.nba.com/stats/player/1628420/"/>
+    <hyperlink ref="B292" r:id="rId568" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A293" r:id="rId569" display="https://www.nba.com/stats/player/1628410/"/>
+    <hyperlink ref="B293" r:id="rId570" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A294" r:id="rId571" display="https://www.nba.com/stats/player/1628443/"/>
+    <hyperlink ref="B294" r:id="rId572" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A295" r:id="rId573" display="https://www.nba.com/stats/player/1628409/"/>
+    <hyperlink ref="B295" r:id="rId574" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A296" r:id="rId575" display="https://www.nba.com/stats/player/1628430/"/>
+    <hyperlink ref="B296" r:id="rId576" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A297" r:id="rId577" display="https://www.nba.com/stats/player/1628444/"/>
+    <hyperlink ref="B297" r:id="rId578" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B298" r:id="rId579" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B299" r:id="rId580" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A300" r:id="rId581" display="https://www.nba.com/stats/player/1628417/"/>
+    <hyperlink ref="B300" r:id="rId582" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B301" r:id="rId583" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A302" r:id="rId584" display="https://www.nba.com/stats/player/1627732/"/>
+    <hyperlink ref="B302" r:id="rId585" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A303" r:id="rId586" display="https://www.nba.com/stats/player/1627742/"/>
+    <hyperlink ref="B303" r:id="rId587" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A304" r:id="rId588" display="https://www.nba.com/stats/player/1627759/"/>
+    <hyperlink ref="B304" r:id="rId589" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A305" r:id="rId590" display="https://www.nba.com/stats/player/1627733/"/>
+    <hyperlink ref="B305" r:id="rId591" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A306" r:id="rId592" display="https://www.nba.com/stats/player/1627739/"/>
+    <hyperlink ref="B306" r:id="rId593" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A307" r:id="rId594" display="https://www.nba.com/stats/player/1627741/"/>
+    <hyperlink ref="B307" r:id="rId595" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A308" r:id="rId596" display="https://www.nba.com/stats/player/1627750/"/>
+    <hyperlink ref="B308" r:id="rId597" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A309" r:id="rId598" display="https://www.nba.com/stats/player/1627737/"/>
+    <hyperlink ref="B309" r:id="rId599" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A310" r:id="rId600" display="https://www.nba.com/stats/player/1627751/"/>
+    <hyperlink ref="B310" r:id="rId601" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A311" r:id="rId602" display="https://www.nba.com/stats/player/1627748/"/>
+    <hyperlink ref="B311" r:id="rId603" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A312" r:id="rId604" display="https://www.nba.com/stats/player/1627734/"/>
+    <hyperlink ref="B312" r:id="rId605" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A313" r:id="rId606" display="https://www.nba.com/stats/player/1627752/"/>
+    <hyperlink ref="B313" r:id="rId607" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A314" r:id="rId608" display="https://www.nba.com/stats/player/1627834/"/>
+    <hyperlink ref="B314" r:id="rId609" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A315" r:id="rId610" display="https://www.nba.com/stats/player/1627756/"/>
+    <hyperlink ref="B315" r:id="rId611" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A316" r:id="rId612" display="https://www.nba.com/stats/player/1627823/"/>
+    <hyperlink ref="B316" r:id="rId613" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A317" r:id="rId614" display="https://www.nba.com/stats/player/1627824/"/>
+    <hyperlink ref="B317" r:id="rId615" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A318" r:id="rId616" display="https://www.nba.com/stats/player/1627735/"/>
+    <hyperlink ref="B318" r:id="rId617" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A319" r:id="rId618" display="https://www.nba.com/stats/player/1627740/"/>
+    <hyperlink ref="B319" r:id="rId619" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A320" r:id="rId620" display="https://www.nba.com/stats/player/1627736/"/>
+    <hyperlink ref="B320" r:id="rId621" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A321" r:id="rId622" display="https://www.nba.com/stats/player/1627747/"/>
+    <hyperlink ref="B321" r:id="rId623" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A322" r:id="rId624" display="https://www.nba.com/stats/player/1627761/"/>
+    <hyperlink ref="B322" r:id="rId625" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A323" r:id="rId626" display="https://www.nba.com/stats/player/1627781/"/>
+    <hyperlink ref="B323" r:id="rId627" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A324" r:id="rId628" display="https://www.nba.com/stats/player/1627790/"/>
+    <hyperlink ref="B324" r:id="rId629" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A325" r:id="rId630" display="https://www.nba.com/stats/player/1627789/"/>
+    <hyperlink ref="B325" r:id="rId631" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A326" r:id="rId632" display="https://www.nba.com/stats/player/1627744/"/>
+    <hyperlink ref="B326" r:id="rId633" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A327" r:id="rId634" display="https://www.nba.com/stats/player/1627788/"/>
+    <hyperlink ref="B327" r:id="rId635" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A328" r:id="rId636" display="https://www.nba.com/stats/player/1627783/"/>
+    <hyperlink ref="B328" r:id="rId637" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A329" r:id="rId638" display="https://www.nba.com/stats/player/1627746/"/>
+    <hyperlink ref="B329" r:id="rId639" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A330" r:id="rId640" display="https://www.nba.com/stats/player/1627749/"/>
+    <hyperlink ref="B330" r:id="rId641" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A331" r:id="rId642" display="https://www.nba.com/stats/player/1627745/"/>
+    <hyperlink ref="B331" r:id="rId643" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A332" r:id="rId644" display="https://www.nba.com/stats/player/1627738/"/>
+    <hyperlink ref="B332" r:id="rId645" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A333" r:id="rId646" display="https://www.nba.com/stats/player/1627826/"/>
+    <hyperlink ref="B333" r:id="rId647" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A334" r:id="rId648" display="https://www.nba.com/stats/player/1627767/"/>
+    <hyperlink ref="B334" r:id="rId649" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A335" r:id="rId650" display="https://www.nba.com/stats/player/1627755/"/>
+    <hyperlink ref="B335" r:id="rId651" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A336" r:id="rId652" display="https://www.nba.com/stats/player/1627825/"/>
+    <hyperlink ref="B336" r:id="rId653" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A337" r:id="rId654" display="https://www.nba.com/stats/player/1627763/"/>
+    <hyperlink ref="B337" r:id="rId655" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A338" r:id="rId656" display="https://www.nba.com/stats/player/1627778/"/>
+    <hyperlink ref="B338" r:id="rId657" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A339" r:id="rId658" display="https://www.nba.com/stats/player/1627775/"/>
+    <hyperlink ref="B339" r:id="rId659" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B340" r:id="rId660" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A341" r:id="rId661" display="https://www.nba.com/stats/player/1627754/"/>
+    <hyperlink ref="B341" r:id="rId662" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A342" r:id="rId663" display="https://www.nba.com/stats/player/1627757/"/>
+    <hyperlink ref="B342" r:id="rId664" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A343" r:id="rId665" display="https://www.nba.com/stats/player/1627785/"/>
+    <hyperlink ref="B343" r:id="rId666" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A344" r:id="rId667" display="https://www.nba.com/stats/player/1627753/"/>
+    <hyperlink ref="B344" r:id="rId668" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B345" r:id="rId669" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A346" r:id="rId670" display="https://www.nba.com/stats/player/1627743/"/>
+    <hyperlink ref="B346" r:id="rId671" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A347" r:id="rId672" display="https://www.nba.com/stats/player/1627773/"/>
+    <hyperlink ref="B347" r:id="rId673" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="A348" r:id="rId674" display="https://www.nba.com/stats/player/1627774/"/>
+    <hyperlink ref="B348" r:id="rId675" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A349" r:id="rId676" display="https://www.nba.com/stats/player/1627835/"/>
+    <hyperlink ref="B349" r:id="rId677" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A350" r:id="rId678" display="https://www.nba.com/stats/player/1627771/"/>
+    <hyperlink ref="B350" r:id="rId679" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A351" r:id="rId680" display="https://www.nba.com/stats/player/1627777/"/>
+    <hyperlink ref="B351" r:id="rId681" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A352" r:id="rId682" display="https://www.nba.com/stats/player/1627791/"/>
+    <hyperlink ref="B352" r:id="rId683" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A353" r:id="rId684" display="https://www.nba.com/stats/player/1627762/"/>
+    <hyperlink ref="B353" r:id="rId685" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A354" r:id="rId686" display="https://www.nba.com/stats/player/1627822/"/>
+    <hyperlink ref="B354" r:id="rId687" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A355" r:id="rId688" display="https://www.nba.com/stats/player/1627770/"/>
+    <hyperlink ref="B355" r:id="rId689" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A356" r:id="rId690" display="https://www.nba.com/stats/player/1627779/"/>
+    <hyperlink ref="B356" r:id="rId691" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A357" r:id="rId692" display="https://www.nba.com/stats/player/1627772/"/>
+    <hyperlink ref="B357" r:id="rId693" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B358" r:id="rId694" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A359" r:id="rId695" display="https://www.nba.com/stats/player/1627846/"/>
+    <hyperlink ref="B359" r:id="rId696" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A360" r:id="rId697" display="https://www.nba.com/stats/player/1627766/"/>
+    <hyperlink ref="B360" r:id="rId698" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A361" r:id="rId699" display="https://www.nba.com/stats/player/1627820/"/>
+    <hyperlink ref="B361" r:id="rId700" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A362" r:id="rId701" display="https://www.nba.com/stats/player/1626157/"/>
+    <hyperlink ref="B362" r:id="rId702" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A363" r:id="rId703" display="https://www.nba.com/stats/player/1626156/"/>
+    <hyperlink ref="B363" r:id="rId704" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A364" r:id="rId705" display="https://www.nba.com/stats/player/1626143/"/>
+    <hyperlink ref="B364" r:id="rId706" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A365" r:id="rId707" display="https://www.nba.com/stats/player/204001/"/>
+    <hyperlink ref="B365" r:id="rId708" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A366" r:id="rId709" display="https://www.nba.com/stats/player/1626209/"/>
+    <hyperlink ref="B366" r:id="rId710" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A367" r:id="rId711" display="https://www.nba.com/stats/player/1626161/"/>
+    <hyperlink ref="B367" r:id="rId712" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A368" r:id="rId713" display="https://www.nba.com/stats/player/1626144/"/>
+    <hyperlink ref="B368" r:id="rId714" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A369" r:id="rId715" display="https://www.nba.com/stats/player/1626169/"/>
+    <hyperlink ref="B369" r:id="rId716" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A370" r:id="rId717" display="https://www.nba.com/stats/player/1626163/"/>
+    <hyperlink ref="B370" r:id="rId718" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A371" r:id="rId719" display="https://www.nba.com/stats/player/1626159/"/>
+    <hyperlink ref="B371" r:id="rId720" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="A372" r:id="rId721" display="https://www.nba.com/stats/player/1626167/"/>
+    <hyperlink ref="B372" r:id="rId722" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A373" r:id="rId723" display="https://www.nba.com/stats/player/1626168/"/>
+    <hyperlink ref="B373" r:id="rId724" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A374" r:id="rId725" display="https://www.nba.com/stats/player/1626164/"/>
+    <hyperlink ref="B374" r:id="rId726" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A375" r:id="rId727" display="https://www.nba.com/stats/player/1626166/"/>
+    <hyperlink ref="B375" r:id="rId728" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A376" r:id="rId729" display="https://www.nba.com/stats/player/1626162/"/>
+    <hyperlink ref="B376" r:id="rId730" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A377" r:id="rId731" display="https://www.nba.com/stats/player/1626179/"/>
+    <hyperlink ref="B377" r:id="rId732" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A378" r:id="rId733" display="https://www.nba.com/stats/player/1626173/"/>
+    <hyperlink ref="B378" r:id="rId734" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A379" r:id="rId735" display="https://www.nba.com/stats/player/1626155/"/>
+    <hyperlink ref="B379" r:id="rId736" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A380" r:id="rId737" display="https://www.nba.com/stats/player/1626170/"/>
+    <hyperlink ref="B380" r:id="rId738" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A381" r:id="rId739" display="https://www.nba.com/stats/player/1626153/"/>
+    <hyperlink ref="B381" r:id="rId740" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A382" r:id="rId741" display="https://www.nba.com/stats/player/1626147/"/>
+    <hyperlink ref="B382" r:id="rId742" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="A383" r:id="rId743" display="https://www.nba.com/stats/player/1626171/"/>
+    <hyperlink ref="B383" r:id="rId744" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A384" r:id="rId745" display="https://www.nba.com/stats/player/1626178/"/>
+    <hyperlink ref="B384" r:id="rId746" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A385" r:id="rId747" display="https://www.nba.com/stats/player/1626145/"/>
+    <hyperlink ref="B385" r:id="rId748" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A386" r:id="rId749" display="https://www.nba.com/stats/player/1626185/"/>
+    <hyperlink ref="B386" r:id="rId750" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B387" r:id="rId751" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A388" r:id="rId752" display="https://www.nba.com/stats/player/1626204/"/>
+    <hyperlink ref="B388" r:id="rId753" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A389" r:id="rId754" display="https://www.nba.com/stats/player/1626154/"/>
+    <hyperlink ref="B389" r:id="rId755" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A390" r:id="rId756" display="https://www.nba.com/stats/player/1626191/"/>
+    <hyperlink ref="B390" r:id="rId757" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A391" r:id="rId758" display="https://www.nba.com/stats/player/1626172/"/>
+    <hyperlink ref="B391" r:id="rId759" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A392" r:id="rId760" display="https://www.nba.com/stats/player/1626224/"/>
+    <hyperlink ref="B392" r:id="rId761" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A393" r:id="rId762" display="https://www.nba.com/stats/player/1626149/"/>
+    <hyperlink ref="B393" r:id="rId763" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A394" r:id="rId764" display="https://www.nba.com/stats/player/1626175/"/>
+    <hyperlink ref="B394" r:id="rId765" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A395" r:id="rId766" display="https://www.nba.com/stats/player/1626148/"/>
+    <hyperlink ref="B395" r:id="rId767" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A396" r:id="rId768" display="https://www.nba.com/stats/player/1626195/"/>
+    <hyperlink ref="B396" r:id="rId769" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A397" r:id="rId770" display="https://www.nba.com/stats/player/1626176/"/>
+    <hyperlink ref="B397" r:id="rId771" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A398" r:id="rId772" display="https://www.nba.com/stats/player/1626158/"/>
+    <hyperlink ref="B398" r:id="rId773" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A399" r:id="rId774" display="https://www.nba.com/stats/player/1626199/"/>
+    <hyperlink ref="B399" r:id="rId775" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B400" r:id="rId776" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A401" r:id="rId777" display="https://www.nba.com/stats/player/1626196/"/>
+    <hyperlink ref="B401" r:id="rId778" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="A402" r:id="rId779" display="https://www.nba.com/stats/player/1626192/"/>
+    <hyperlink ref="B402" r:id="rId780" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B403" r:id="rId781" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A404" r:id="rId782" display="https://www.nba.com/stats/player/1626202/"/>
+    <hyperlink ref="B404" r:id="rId783" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A405" r:id="rId784" display="https://www.nba.com/stats/player/1626150/"/>
+    <hyperlink ref="B405" r:id="rId785" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B406" r:id="rId786" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A407" r:id="rId787" display="https://www.nba.com/stats/player/1626181/"/>
+    <hyperlink ref="B407" r:id="rId788" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B408" r:id="rId789" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A409" r:id="rId790" display="https://www.nba.com/stats/player/1626177/"/>
+    <hyperlink ref="B409" r:id="rId791" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B410" r:id="rId792" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B411" r:id="rId793" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B412" r:id="rId794" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B413" r:id="rId795" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B414" r:id="rId796" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B415" r:id="rId797" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B416" r:id="rId798" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A417" r:id="rId799" display="https://www.nba.com/stats/player/1626183/"/>
+    <hyperlink ref="B417" r:id="rId800" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B418" r:id="rId801" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A419" r:id="rId802" display="https://www.nba.com/stats/player/1626160/"/>
+    <hyperlink ref="B419" r:id="rId803" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B420" r:id="rId804" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B421" r:id="rId805" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A422" r:id="rId806" display="https://www.nba.com/stats/player/203952/"/>
+    <hyperlink ref="B422" r:id="rId807" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A423" r:id="rId808" display="https://www.nba.com/stats/player/203953/"/>
+    <hyperlink ref="B423" r:id="rId809" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A424" r:id="rId810" display="https://www.nba.com/stats/player/203954/"/>
+    <hyperlink ref="B424" r:id="rId811" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A425" r:id="rId812" display="https://www.nba.com/stats/player/203932/"/>
+    <hyperlink ref="B425" r:id="rId813" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A426" r:id="rId814" display="https://www.nba.com/stats/player/203957/"/>
+    <hyperlink ref="B426" r:id="rId815" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A427" r:id="rId816" display="https://www.nba.com/stats/player/203935/"/>
+    <hyperlink ref="B427" r:id="rId817" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A428" r:id="rId818" display="https://www.nba.com/stats/player/203944/"/>
+    <hyperlink ref="B428" r:id="rId819" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A429" r:id="rId820" display="https://www.nba.com/stats/player/203917/"/>
+    <hyperlink ref="B429" r:id="rId821" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A430" r:id="rId822" display="https://www.nba.com/stats/player/203943/"/>
+    <hyperlink ref="B430" r:id="rId823" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A431" r:id="rId824" display="https://www.nba.com/stats/player/203901/"/>
+    <hyperlink ref="B431" r:id="rId825" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A432" r:id="rId826" display="https://www.nba.com/stats/player/203926/"/>
+    <hyperlink ref="B432" r:id="rId827" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A433" r:id="rId828" display="https://www.nba.com/stats/player/203967/"/>
+    <hyperlink ref="B433" r:id="rId829" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A434" r:id="rId830" display="https://www.nba.com/stats/player/203897/"/>
+    <hyperlink ref="B434" r:id="rId831" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A435" r:id="rId832" display="https://www.nba.com/stats/player/203933/"/>
+    <hyperlink ref="B435" r:id="rId833" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A436" r:id="rId834" display="https://www.nba.com/stats/player/203940/"/>
+    <hyperlink ref="B436" r:id="rId835" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A437" r:id="rId836" display="https://www.nba.com/stats/player/203994/"/>
+    <hyperlink ref="B437" r:id="rId837" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A438" r:id="rId838" display="https://www.nba.com/stats/player/203923/"/>
+    <hyperlink ref="B438" r:id="rId839" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A439" r:id="rId840" display="https://www.nba.com/stats/player/203898/"/>
+    <hyperlink ref="B439" r:id="rId841" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A440" r:id="rId842" display="https://www.nba.com/stats/player/203914/"/>
+    <hyperlink ref="B440" r:id="rId843" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A441" r:id="rId844" display="https://www.nba.com/stats/player/203998/"/>
+    <hyperlink ref="B441" r:id="rId845" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A442" r:id="rId846" display="https://www.nba.com/stats/player/203956/"/>
+    <hyperlink ref="B442" r:id="rId847" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A443" r:id="rId848" display="https://www.nba.com/stats/player/203919/"/>
+    <hyperlink ref="B443" r:id="rId849" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A444" r:id="rId850" display="https://www.nba.com/stats/player/203918/"/>
+    <hyperlink ref="B444" r:id="rId851" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A445" r:id="rId852" display="https://www.nba.com/stats/player/203894/"/>
+    <hyperlink ref="B445" r:id="rId853" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A446" r:id="rId854" display="https://www.nba.com/stats/player/203991/"/>
+    <hyperlink ref="B446" r:id="rId855" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A447" r:id="rId856" display="https://www.nba.com/stats/player/203798/"/>
+    <hyperlink ref="B447" r:id="rId857" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="A448" r:id="rId858" display="https://www.nba.com/stats/player/203992/"/>
+    <hyperlink ref="B448" r:id="rId859" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A449" r:id="rId860" display="https://www.nba.com/stats/player/203912/"/>
+    <hyperlink ref="B449" r:id="rId861" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A450" r:id="rId862" display="https://www.nba.com/stats/player/203962/"/>
+    <hyperlink ref="B450" r:id="rId863" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A451" r:id="rId864" display="https://www.nba.com/stats/player/203937/"/>
+    <hyperlink ref="B451" r:id="rId865" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A452" r:id="rId866" display="https://www.nba.com/stats/player/203996/"/>
+    <hyperlink ref="B452" r:id="rId867" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A453" r:id="rId868" display="https://www.nba.com/stats/player/203909/"/>
+    <hyperlink ref="B453" r:id="rId869" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A454" r:id="rId870" display="https://www.nba.com/stats/player/203925/"/>
+    <hyperlink ref="B454" r:id="rId871" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A455" r:id="rId872" display="https://www.nba.com/stats/player/203921/"/>
+    <hyperlink ref="B455" r:id="rId873" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A456" r:id="rId874" display="https://www.nba.com/stats/player/203950/"/>
+    <hyperlink ref="B456" r:id="rId875" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A457" r:id="rId876" display="https://www.nba.com/stats/player/203948/"/>
+    <hyperlink ref="B457" r:id="rId877" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B458" r:id="rId878" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A459" r:id="rId879" display="https://www.nba.com/stats/player/203915/"/>
+    <hyperlink ref="B459" r:id="rId880" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A460" r:id="rId881" display="https://www.nba.com/stats/player/203924/"/>
+    <hyperlink ref="B460" r:id="rId882" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A461" r:id="rId883" display="https://www.nba.com/stats/player/203922/"/>
+    <hyperlink ref="B461" r:id="rId884" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A462" r:id="rId885" display="https://www.nba.com/stats/player/203999/"/>
+    <hyperlink ref="B462" r:id="rId886" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A463" r:id="rId887" display="https://www.nba.com/stats/player/203910/"/>
+    <hyperlink ref="B463" r:id="rId888" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A464" r:id="rId889" display="https://www.nba.com/stats/player/204002/"/>
+    <hyperlink ref="B464" r:id="rId890" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A465" r:id="rId891" display="https://www.nba.com/stats/player/203900/"/>
+    <hyperlink ref="B465" r:id="rId892" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A466" r:id="rId893" display="https://www.nba.com/stats/player/203939/"/>
+    <hyperlink ref="B466" r:id="rId894" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A467" r:id="rId895" display="https://www.nba.com/stats/player/203903/"/>
+    <hyperlink ref="B467" r:id="rId896" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A468" r:id="rId897" display="https://www.nba.com/stats/player/203893/"/>
+    <hyperlink ref="B468" r:id="rId898" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A469" r:id="rId899" display="https://www.nba.com/stats/player/203934/"/>
+    <hyperlink ref="B469" r:id="rId900" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A470" r:id="rId901" display="https://www.nba.com/stats/player/203946/"/>
+    <hyperlink ref="B470" r:id="rId902" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B471" r:id="rId903" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A472" r:id="rId904" display="https://www.nba.com/stats/player/203648/"/>
+    <hyperlink ref="B472" r:id="rId905" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B473" r:id="rId906" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B474" r:id="rId907" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B475" r:id="rId908" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A476" r:id="rId909" display="https://www.nba.com/stats/player/203902/"/>
+    <hyperlink ref="B476" r:id="rId910" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="A477" r:id="rId911" display="https://www.nba.com/stats/player/203906/"/>
+    <hyperlink ref="B477" r:id="rId912" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B478" r:id="rId913" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A479" r:id="rId914" display="https://www.nba.com/stats/player/203895/"/>
+    <hyperlink ref="B479" r:id="rId915" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B480" r:id="rId916" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A481" r:id="rId917" display="https://www.nba.com/stats/player/203928/"/>
+    <hyperlink ref="B481" r:id="rId918" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A482" r:id="rId919" display="https://www.nba.com/stats/player/203461/"/>
+    <hyperlink ref="B482" r:id="rId920" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A483" r:id="rId921" display="https://www.nba.com/stats/player/203506/"/>
+    <hyperlink ref="B483" r:id="rId922" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A484" r:id="rId923" display="https://www.nba.com/stats/player/203490/"/>
+    <hyperlink ref="B484" r:id="rId924" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A485" r:id="rId925" display="https://www.nba.com/stats/player/203469/"/>
+    <hyperlink ref="B485" r:id="rId926" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A486" r:id="rId927" display="https://www.nba.com/stats/player/203458/"/>
+    <hyperlink ref="B486" r:id="rId928" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A487" r:id="rId929" display="https://www.nba.com/stats/player/203457/"/>
+    <hyperlink ref="B487" r:id="rId930" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A488" r:id="rId931" display="https://www.nba.com/stats/player/203463/"/>
+    <hyperlink ref="B488" r:id="rId932" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A489" r:id="rId933" display="https://www.nba.com/stats/player/203484/"/>
+    <hyperlink ref="B489" r:id="rId934" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A490" r:id="rId935" display="https://www.nba.com/stats/player/203504/"/>
+    <hyperlink ref="B490" r:id="rId936" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A491" r:id="rId937" display="https://www.nba.com/stats/player/203468/"/>
+    <hyperlink ref="B491" r:id="rId938" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A492" r:id="rId939" display="https://www.nba.com/stats/player/203487/"/>
+    <hyperlink ref="B492" r:id="rId940" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A493" r:id="rId941" display="https://www.nba.com/stats/player/203500/"/>
+    <hyperlink ref="B493" r:id="rId942" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A494" r:id="rId943" display="https://www.nba.com/stats/player/203482/"/>
+    <hyperlink ref="B494" r:id="rId944" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="A495" r:id="rId945" display="https://www.nba.com/stats/player/203498/"/>
+    <hyperlink ref="B495" r:id="rId946" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A496" r:id="rId947" display="https://www.nba.com/stats/player/203507/"/>
+    <hyperlink ref="B496" r:id="rId948" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A497" r:id="rId949" display="https://www.nba.com/stats/player/203512/"/>
+    <hyperlink ref="B497" r:id="rId950" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A498" r:id="rId951" display="https://www.nba.com/stats/player/203471/"/>
+    <hyperlink ref="B498" r:id="rId952" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A499" r:id="rId953" display="https://www.nba.com/stats/player/203499/"/>
+    <hyperlink ref="B499" r:id="rId954" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A500" r:id="rId955" display="https://www.nba.com/stats/player/203508/"/>
+    <hyperlink ref="B500" r:id="rId956" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A501" r:id="rId957" display="https://www.nba.com/stats/player/203503/"/>
+    <hyperlink ref="B501" r:id="rId958" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A502" r:id="rId959" display="https://www.nba.com/stats/player/203476/"/>
+    <hyperlink ref="B502" r:id="rId960" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A503" r:id="rId961" display="https://www.nba.com/stats/player/203486/"/>
+    <hyperlink ref="B503" r:id="rId962" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A504" r:id="rId963" display="https://www.nba.com/stats/player/203524/"/>
+    <hyperlink ref="B504" r:id="rId964" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A505" r:id="rId965" display="https://www.nba.com/stats/player/203501/"/>
+    <hyperlink ref="B505" r:id="rId966" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A506" r:id="rId967" display="https://www.nba.com/stats/player/203493/"/>
+    <hyperlink ref="B506" r:id="rId968" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A507" r:id="rId969" display="https://www.nba.com/stats/player/203460/"/>
+    <hyperlink ref="B507" r:id="rId970" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A508" r:id="rId971" display="https://www.nba.com/stats/player/203497/"/>
+    <hyperlink ref="B508" r:id="rId972" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A509" r:id="rId973" display="https://www.nba.com/stats/player/203520/"/>
+    <hyperlink ref="B509" r:id="rId974" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A510" r:id="rId975" display="https://www.nba.com/stats/player/203462/"/>
+    <hyperlink ref="B510" r:id="rId976" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A511" r:id="rId977" display="https://www.nba.com/stats/player/203517/"/>
+    <hyperlink ref="B511" r:id="rId978" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A512" r:id="rId979" display="https://www.nba.com/stats/player/203459/"/>
+    <hyperlink ref="B512" r:id="rId980" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A513" r:id="rId981" display="https://www.nba.com/stats/player/203518/"/>
+    <hyperlink ref="B513" r:id="rId982" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A514" r:id="rId983" display="https://www.nba.com/stats/player/203467/"/>
+    <hyperlink ref="B514" r:id="rId984" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A515" r:id="rId985" display="https://www.nba.com/stats/player/203477/"/>
+    <hyperlink ref="B515" r:id="rId986" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A516" r:id="rId987" display="https://www.nba.com/stats/player/203318/"/>
+    <hyperlink ref="B516" r:id="rId988" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A517" r:id="rId989" display="https://www.nba.com/stats/player/203492/"/>
+    <hyperlink ref="B517" r:id="rId990" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A518" r:id="rId991" display="https://www.nba.com/stats/player/203502/"/>
+    <hyperlink ref="B518" r:id="rId992" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A519" r:id="rId993" display="https://www.nba.com/stats/player/203489/"/>
+    <hyperlink ref="B519" r:id="rId994" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A520" r:id="rId995" display="https://www.nba.com/stats/player/203481/"/>
+    <hyperlink ref="B520" r:id="rId996" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A521" r:id="rId997" display="https://www.nba.com/stats/player/203511/"/>
+    <hyperlink ref="B521" r:id="rId998" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A522" r:id="rId999" display="https://www.nba.com/stats/player/203479/"/>
+    <hyperlink ref="B522" r:id="rId1000" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A523" r:id="rId1001" display="https://www.nba.com/stats/player/203510/"/>
+    <hyperlink ref="B523" r:id="rId1002" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A524" r:id="rId1003" display="https://www.nba.com/stats/player/203495/"/>
+    <hyperlink ref="B524" r:id="rId1004" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A525" r:id="rId1005" display="https://www.nba.com/stats/player/203488/"/>
+    <hyperlink ref="B525" r:id="rId1006" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B526" r:id="rId1007" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A527" r:id="rId1008" display="https://www.nba.com/stats/player/203475/"/>
+    <hyperlink ref="B527" r:id="rId1009" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A528" r:id="rId1010" display="https://www.nba.com/stats/player/203526/"/>
+    <hyperlink ref="B528" r:id="rId1011" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A529" r:id="rId1012" display="https://www.nba.com/stats/player/203527/"/>
+    <hyperlink ref="B529" r:id="rId1013" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A530" r:id="rId1014" display="https://www.nba.com/stats/player/203513/"/>
+    <hyperlink ref="B530" r:id="rId1015" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A531" r:id="rId1016" display="https://www.nba.com/stats/player/203516/"/>
+    <hyperlink ref="B531" r:id="rId1017" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A532" r:id="rId1018" display="https://www.nba.com/stats/player/203528/"/>
+    <hyperlink ref="B532" r:id="rId1019" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A533" r:id="rId1020" display="https://www.nba.com/stats/player/203485/"/>
+    <hyperlink ref="B533" r:id="rId1021" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B534" r:id="rId1022" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A535" r:id="rId1023" display="https://www.nba.com/stats/player/203529/"/>
+    <hyperlink ref="B535" r:id="rId1024" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A536" r:id="rId1025" display="https://www.nba.com/stats/player/203530/"/>
+    <hyperlink ref="B536" r:id="rId1026" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A537" r:id="rId1027" display="https://www.nba.com/stats/player/203491/"/>
+    <hyperlink ref="B537" r:id="rId1028" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B538" r:id="rId1029" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A539" r:id="rId1030" display="https://www.nba.com/stats/player/203472/"/>
+    <hyperlink ref="B539" r:id="rId1031" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B540" r:id="rId1032" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B541" r:id="rId1033" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A542" r:id="rId1034" display="https://www.nba.com/stats/player/203076/"/>
+    <hyperlink ref="B542" r:id="rId1035" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A543" r:id="rId1036" display="https://www.nba.com/stats/player/203077/"/>
+    <hyperlink ref="B543" r:id="rId1037" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A544" r:id="rId1038" display="https://www.nba.com/stats/player/203078/"/>
+    <hyperlink ref="B544" r:id="rId1039" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A545" r:id="rId1040" display="https://www.nba.com/stats/player/203079/"/>
+    <hyperlink ref="B545" r:id="rId1041" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A546" r:id="rId1042" display="https://www.nba.com/stats/player/203080/"/>
+    <hyperlink ref="B546" r:id="rId1043" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A547" r:id="rId1044" display="https://www.nba.com/stats/player/203081/"/>
+    <hyperlink ref="B547" r:id="rId1045" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A548" r:id="rId1046" display="https://www.nba.com/stats/player/203084/"/>
+    <hyperlink ref="B548" r:id="rId1047" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A549" r:id="rId1048" display="https://www.nba.com/stats/player/203082/"/>
+    <hyperlink ref="B549" r:id="rId1049" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A550" r:id="rId1050" display="https://www.nba.com/stats/player/203083/"/>
+    <hyperlink ref="B550" r:id="rId1051" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A551" r:id="rId1052" display="https://www.nba.com/stats/player/203085/"/>
+    <hyperlink ref="B551" r:id="rId1053" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A552" r:id="rId1054" display="https://www.nba.com/stats/player/203086/"/>
+    <hyperlink ref="B552" r:id="rId1055" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A553" r:id="rId1056" display="https://www.nba.com/stats/player/203087/"/>
+    <hyperlink ref="B553" r:id="rId1057" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A554" r:id="rId1058" display="https://www.nba.com/stats/player/203088/"/>
+    <hyperlink ref="B554" r:id="rId1059" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A555" r:id="rId1060" display="https://www.nba.com/stats/player/203089/"/>
+    <hyperlink ref="B555" r:id="rId1061" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A556" r:id="rId1062" display="https://www.nba.com/stats/player/203090/"/>
+    <hyperlink ref="B556" r:id="rId1063" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A557" r:id="rId1064" display="https://www.nba.com/stats/player/203091/"/>
+    <hyperlink ref="B557" r:id="rId1065" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A558" r:id="rId1066" display="https://www.nba.com/stats/player/203092/"/>
+    <hyperlink ref="B558" r:id="rId1067" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="A559" r:id="rId1068" display="https://www.nba.com/stats/player/203093/"/>
+    <hyperlink ref="B559" r:id="rId1069" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A560" r:id="rId1070" display="https://www.nba.com/stats/player/203094/"/>
+    <hyperlink ref="B560" r:id="rId1071" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A561" r:id="rId1072" display="https://www.nba.com/stats/player/203095/"/>
+    <hyperlink ref="B561" r:id="rId1073" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A562" r:id="rId1074" display="https://www.nba.com/stats/player/203096/"/>
+    <hyperlink ref="B562" r:id="rId1075" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A563" r:id="rId1076" display="https://www.nba.com/stats/player/203097/"/>
+    <hyperlink ref="B563" r:id="rId1077" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A564" r:id="rId1078" display="https://www.nba.com/stats/player/203098/"/>
+    <hyperlink ref="B564" r:id="rId1079" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A565" r:id="rId1080" display="https://www.nba.com/stats/player/203099/"/>
+    <hyperlink ref="B565" r:id="rId1081" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A566" r:id="rId1082" display="https://www.nba.com/stats/player/203100/"/>
+    <hyperlink ref="B566" r:id="rId1083" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A567" r:id="rId1084" display="https://www.nba.com/stats/player/203101/"/>
+    <hyperlink ref="B567" r:id="rId1085" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A568" r:id="rId1086" display="https://www.nba.com/stats/player/203102/"/>
+    <hyperlink ref="B568" r:id="rId1087" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="A569" r:id="rId1088" display="https://www.nba.com/stats/player/203103/"/>
+    <hyperlink ref="B569" r:id="rId1089" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A570" r:id="rId1090" display="https://www.nba.com/stats/player/203104/"/>
+    <hyperlink ref="B570" r:id="rId1091" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A571" r:id="rId1092" display="https://www.nba.com/stats/player/203105/"/>
+    <hyperlink ref="B571" r:id="rId1093" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A572" r:id="rId1094" display="https://www.nba.com/stats/player/203106/"/>
+    <hyperlink ref="B572" r:id="rId1095" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A573" r:id="rId1096" display="https://www.nba.com/stats/player/203107/"/>
+    <hyperlink ref="B573" r:id="rId1097" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A574" r:id="rId1098" display="https://www.nba.com/stats/player/203108/"/>
+    <hyperlink ref="B574" r:id="rId1099" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A575" r:id="rId1100" display="https://www.nba.com/stats/player/203109/"/>
+    <hyperlink ref="B575" r:id="rId1101" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A576" r:id="rId1102" display="https://www.nba.com/stats/player/203110/"/>
+    <hyperlink ref="B576" r:id="rId1103" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A577" r:id="rId1104" display="https://www.nba.com/stats/player/203111/"/>
+    <hyperlink ref="B577" r:id="rId1105" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A578" r:id="rId1106" display="https://www.nba.com/stats/player/203112/"/>
+    <hyperlink ref="B578" r:id="rId1107" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A579" r:id="rId1108" display="https://www.nba.com/stats/player/203113/"/>
+    <hyperlink ref="B579" r:id="rId1109" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A580" r:id="rId1110" display="https://www.nba.com/stats/player/203114/"/>
+    <hyperlink ref="B580" r:id="rId1111" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A581" r:id="rId1112" display="https://www.nba.com/stats/player/203115/"/>
+    <hyperlink ref="B581" r:id="rId1113" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A582" r:id="rId1114" display="https://www.nba.com/stats/player/203116/"/>
+    <hyperlink ref="B582" r:id="rId1115" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A583" r:id="rId1116" display="https://www.nba.com/stats/player/203117/"/>
+    <hyperlink ref="B583" r:id="rId1117" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A584" r:id="rId1118" display="https://www.nba.com/stats/player/203118/"/>
+    <hyperlink ref="B584" r:id="rId1119" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A585" r:id="rId1120" display="https://www.nba.com/stats/player/203119/"/>
+    <hyperlink ref="B585" r:id="rId1121" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A586" r:id="rId1122" display="https://www.nba.com/stats/player/203120/"/>
+    <hyperlink ref="B586" r:id="rId1123" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A587" r:id="rId1124" display="https://www.nba.com/stats/player/203121/"/>
+    <hyperlink ref="B587" r:id="rId1125" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A588" r:id="rId1126" display="https://www.nba.com/stats/player/203122/"/>
+    <hyperlink ref="B588" r:id="rId1127" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A589" r:id="rId1128" display="https://www.nba.com/stats/player/203123/"/>
+    <hyperlink ref="B589" r:id="rId1129" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A590" r:id="rId1130" display="https://www.nba.com/stats/player/203124/"/>
+    <hyperlink ref="B590" r:id="rId1131" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B591" r:id="rId1132" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A592" r:id="rId1133" display="https://www.nba.com/stats/player/203126/"/>
+    <hyperlink ref="B592" r:id="rId1134" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A593" r:id="rId1135" display="https://www.nba.com/stats/player/203136/"/>
+    <hyperlink ref="B593" r:id="rId1136" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A594" r:id="rId1137" display="https://www.nba.com/stats/player/203128/"/>
+    <hyperlink ref="B594" r:id="rId1138" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A595" r:id="rId1139" display="https://www.nba.com/stats/player/203129/"/>
+    <hyperlink ref="B595" r:id="rId1140" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A596" r:id="rId1141" display="https://www.nba.com/stats/player/203130/"/>
+    <hyperlink ref="B596" r:id="rId1142" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B597" r:id="rId1143" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B598" r:id="rId1144" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A599" r:id="rId1145" display="https://www.nba.com/stats/player/203133/"/>
+    <hyperlink ref="B599" r:id="rId1146" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B600" r:id="rId1147" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A601" r:id="rId1148" display="https://www.nba.com/stats/player/203135/"/>
+    <hyperlink ref="B601" r:id="rId1149" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A602" r:id="rId1150" display="https://www.nba.com/stats/player/202681/"/>
+    <hyperlink ref="B602" r:id="rId1151" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A603" r:id="rId1152" display="https://www.nba.com/stats/player/202682/"/>
+    <hyperlink ref="B603" r:id="rId1153" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A604" r:id="rId1154" display="https://www.nba.com/stats/player/202683/"/>
+    <hyperlink ref="B604" r:id="rId1155" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A605" r:id="rId1156" display="https://www.nba.com/stats/player/202684/"/>
+    <hyperlink ref="B605" r:id="rId1157" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A606" r:id="rId1158" display="https://www.nba.com/stats/player/202685/"/>
+    <hyperlink ref="B606" r:id="rId1159" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A607" r:id="rId1160" display="https://www.nba.com/stats/player/202686/"/>
+    <hyperlink ref="B607" r:id="rId1161" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A608" r:id="rId1162" display="https://www.nba.com/stats/player/202687/"/>
+    <hyperlink ref="B608" r:id="rId1163" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A609" r:id="rId1164" display="https://www.nba.com/stats/player/202688/"/>
+    <hyperlink ref="B609" r:id="rId1165" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A610" r:id="rId1166" display="https://www.nba.com/stats/player/202689/"/>
+    <hyperlink ref="B610" r:id="rId1167" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A611" r:id="rId1168" display="https://www.nba.com/stats/player/202690/"/>
+    <hyperlink ref="B611" r:id="rId1169" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A612" r:id="rId1170" display="https://www.nba.com/stats/player/202691/"/>
+    <hyperlink ref="B612" r:id="rId1171" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A613" r:id="rId1172" display="https://www.nba.com/stats/player/202692/"/>
+    <hyperlink ref="B613" r:id="rId1173" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A614" r:id="rId1174" display="https://www.nba.com/stats/player/202693/"/>
+    <hyperlink ref="B614" r:id="rId1175" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A615" r:id="rId1176" display="https://www.nba.com/stats/player/202694/"/>
+    <hyperlink ref="B615" r:id="rId1177" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A616" r:id="rId1178" display="https://www.nba.com/stats/player/202695/"/>
+    <hyperlink ref="B616" r:id="rId1179" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A617" r:id="rId1180" display="https://www.nba.com/stats/player/202696/"/>
+    <hyperlink ref="B617" r:id="rId1181" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A618" r:id="rId1182" display="https://www.nba.com/stats/player/202697/"/>
+    <hyperlink ref="B618" r:id="rId1183" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A619" r:id="rId1184" display="https://www.nba.com/stats/player/202698/"/>
+    <hyperlink ref="B619" r:id="rId1185" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A620" r:id="rId1186" display="https://www.nba.com/stats/player/202699/"/>
+    <hyperlink ref="B620" r:id="rId1187" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A621" r:id="rId1188" display="https://www.nba.com/stats/player/202700/"/>
+    <hyperlink ref="B621" r:id="rId1189" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A622" r:id="rId1190" display="https://www.nba.com/stats/player/202701/"/>
+    <hyperlink ref="B622" r:id="rId1191" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A623" r:id="rId1192" display="https://www.nba.com/stats/player/202702/"/>
+    <hyperlink ref="B623" r:id="rId1193" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A624" r:id="rId1194" display="https://www.nba.com/stats/player/202703/"/>
+    <hyperlink ref="B624" r:id="rId1195" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A625" r:id="rId1196" display="https://www.nba.com/stats/player/202704/"/>
+    <hyperlink ref="B625" r:id="rId1197" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A626" r:id="rId1198" display="https://www.nba.com/stats/player/202705/"/>
+    <hyperlink ref="B626" r:id="rId1199" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A627" r:id="rId1200" display="https://www.nba.com/stats/player/202706/"/>
+    <hyperlink ref="B627" r:id="rId1201" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="A628" r:id="rId1202" display="https://www.nba.com/stats/player/202707/"/>
+    <hyperlink ref="B628" r:id="rId1203" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A629" r:id="rId1204" display="https://www.nba.com/stats/player/202708/"/>
+    <hyperlink ref="B629" r:id="rId1205" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A630" r:id="rId1206" display="https://www.nba.com/stats/player/202709/"/>
+    <hyperlink ref="B630" r:id="rId1207" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A631" r:id="rId1208" display="https://www.nba.com/stats/player/202710/"/>
+    <hyperlink ref="B631" r:id="rId1209" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A632" r:id="rId1210" display="https://www.nba.com/stats/player/202711/"/>
+    <hyperlink ref="B632" r:id="rId1211" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="A633" r:id="rId1212" display="https://www.nba.com/stats/player/202712/"/>
+    <hyperlink ref="B633" r:id="rId1213" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A634" r:id="rId1214" display="https://www.nba.com/stats/player/202713/"/>
+    <hyperlink ref="B634" r:id="rId1215" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A635" r:id="rId1216" display="https://www.nba.com/stats/player/202714/"/>
+    <hyperlink ref="B635" r:id="rId1217" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A636" r:id="rId1218" display="https://www.nba.com/stats/player/202715/"/>
+    <hyperlink ref="B636" r:id="rId1219" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A637" r:id="rId1220" display="https://www.nba.com/stats/player/202716/"/>
+    <hyperlink ref="B637" r:id="rId1221" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A638" r:id="rId1222" display="https://www.nba.com/stats/player/202717/"/>
+    <hyperlink ref="B638" r:id="rId1223" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A639" r:id="rId1224" display="https://www.nba.com/stats/player/202718/"/>
+    <hyperlink ref="B639" r:id="rId1225" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A640" r:id="rId1226" display="https://www.nba.com/stats/player/202719/"/>
+    <hyperlink ref="B640" r:id="rId1227" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A641" r:id="rId1228" display="https://www.nba.com/stats/player/202720/"/>
+    <hyperlink ref="B641" r:id="rId1229" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A642" r:id="rId1230" display="https://www.nba.com/stats/player/202721/"/>
+    <hyperlink ref="B642" r:id="rId1231" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A643" r:id="rId1232" display="https://www.nba.com/stats/player/202722/"/>
+    <hyperlink ref="B643" r:id="rId1233" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A644" r:id="rId1234" display="https://www.nba.com/stats/player/202723/"/>
+    <hyperlink ref="B644" r:id="rId1235" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A645" r:id="rId1236" display="https://www.nba.com/stats/player/202724/"/>
+    <hyperlink ref="B645" r:id="rId1237" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A646" r:id="rId1238" display="https://www.nba.com/stats/player/202725/"/>
+    <hyperlink ref="B646" r:id="rId1239" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A647" r:id="rId1240" display="https://www.nba.com/stats/player/202726/"/>
+    <hyperlink ref="B647" r:id="rId1241" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A648" r:id="rId1242" display="https://www.nba.com/stats/player/202727/"/>
+    <hyperlink ref="B648" r:id="rId1243" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A649" r:id="rId1244" display="https://www.nba.com/stats/player/202728/"/>
+    <hyperlink ref="B649" r:id="rId1245" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A650" r:id="rId1246" display="https://www.nba.com/stats/player/202729/"/>
+    <hyperlink ref="B650" r:id="rId1247" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A651" r:id="rId1248" display="https://www.nba.com/stats/player/202730/"/>
+    <hyperlink ref="B651" r:id="rId1249" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B652" r:id="rId1250" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A653" r:id="rId1251" display="https://www.nba.com/stats/player/202731/"/>
+    <hyperlink ref="B653" r:id="rId1252" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A654" r:id="rId1253" display="https://www.nba.com/stats/player/202732/"/>
+    <hyperlink ref="B654" r:id="rId1254" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B655" r:id="rId1255" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A656" r:id="rId1256" display="https://www.nba.com/stats/player/202734/"/>
+    <hyperlink ref="B656" r:id="rId1257" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B657" r:id="rId1258" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B658" r:id="rId1259" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B659" r:id="rId1260" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B660" r:id="rId1261" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A661" r:id="rId1262" display="https://www.nba.com/stats/player/202738/"/>
+    <hyperlink ref="B661" r:id="rId1263" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A662" r:id="rId1264" display="https://www.nba.com/stats/player/202322/"/>
+    <hyperlink ref="B662" r:id="rId1265" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A663" r:id="rId1266" display="https://www.nba.com/stats/player/202323/"/>
+    <hyperlink ref="B663" r:id="rId1267" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A664" r:id="rId1268" display="https://www.nba.com/stats/player/202324/"/>
+    <hyperlink ref="B664" r:id="rId1269" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A665" r:id="rId1270" display="https://www.nba.com/stats/player/202325/"/>
+    <hyperlink ref="B665" r:id="rId1271" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A666" r:id="rId1272" display="https://www.nba.com/stats/player/202326/"/>
+    <hyperlink ref="B666" r:id="rId1273" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A667" r:id="rId1274" display="https://www.nba.com/stats/player/202327/"/>
+    <hyperlink ref="B667" r:id="rId1275" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A668" r:id="rId1276" display="https://www.nba.com/stats/player/202328/"/>
+    <hyperlink ref="B668" r:id="rId1277" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A669" r:id="rId1278" display="https://www.nba.com/stats/player/202329/"/>
+    <hyperlink ref="B669" r:id="rId1279" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A670" r:id="rId1280" display="https://www.nba.com/stats/player/202330/"/>
+    <hyperlink ref="B670" r:id="rId1281" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A671" r:id="rId1282" display="https://www.nba.com/stats/player/202331/"/>
+    <hyperlink ref="B671" r:id="rId1283" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A672" r:id="rId1284" display="https://www.nba.com/stats/player/202332/"/>
+    <hyperlink ref="B672" r:id="rId1285" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A673" r:id="rId1286" display="https://www.nba.com/stats/player/202333/"/>
+    <hyperlink ref="B673" r:id="rId1287" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A674" r:id="rId1288" display="https://www.nba.com/stats/player/202334/"/>
+    <hyperlink ref="B674" r:id="rId1289" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A675" r:id="rId1290" display="https://www.nba.com/stats/player/202335/"/>
+    <hyperlink ref="B675" r:id="rId1291" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="A676" r:id="rId1292" display="https://www.nba.com/stats/player/202336/"/>
+    <hyperlink ref="B676" r:id="rId1293" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A677" r:id="rId1294" display="https://www.nba.com/stats/player/202337/"/>
+    <hyperlink ref="B677" r:id="rId1295" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A678" r:id="rId1296" display="https://www.nba.com/stats/player/202338/"/>
+    <hyperlink ref="B678" r:id="rId1297" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A679" r:id="rId1298" display="https://www.nba.com/stats/player/202339/"/>
+    <hyperlink ref="B679" r:id="rId1299" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A680" r:id="rId1300" display="https://www.nba.com/stats/player/202340/"/>
+    <hyperlink ref="B680" r:id="rId1301" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A681" r:id="rId1302" display="https://www.nba.com/stats/player/202341/"/>
+    <hyperlink ref="B681" r:id="rId1303" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A682" r:id="rId1304" display="https://www.nba.com/stats/player/202342/"/>
+    <hyperlink ref="B682" r:id="rId1305" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A683" r:id="rId1306" display="https://www.nba.com/stats/player/202343/"/>
+    <hyperlink ref="B683" r:id="rId1307" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A684" r:id="rId1308" display="https://www.nba.com/stats/player/202344/"/>
+    <hyperlink ref="B684" r:id="rId1309" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A685" r:id="rId1310" display="https://www.nba.com/stats/player/202345/"/>
+    <hyperlink ref="B685" r:id="rId1311" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A686" r:id="rId1312" display="https://www.nba.com/stats/player/202346/"/>
+    <hyperlink ref="B686" r:id="rId1313" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A687" r:id="rId1314" display="https://www.nba.com/stats/player/202347/"/>
+    <hyperlink ref="B687" r:id="rId1315" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A688" r:id="rId1316" display="https://www.nba.com/stats/player/202348/"/>
+    <hyperlink ref="B688" r:id="rId1317" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A689" r:id="rId1318" display="https://www.nba.com/stats/player/202349/"/>
+    <hyperlink ref="B689" r:id="rId1319" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A690" r:id="rId1320" display="https://www.nba.com/stats/player/202350/"/>
+    <hyperlink ref="B690" r:id="rId1321" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="A691" r:id="rId1322" display="https://www.nba.com/stats/player/202351/"/>
+    <hyperlink ref="B691" r:id="rId1323" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A692" r:id="rId1324" display="https://www.nba.com/stats/player/202353/"/>
+    <hyperlink ref="B692" r:id="rId1325" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A693" r:id="rId1326" display="https://www.nba.com/stats/player/202354/"/>
+    <hyperlink ref="B693" r:id="rId1327" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="A694" r:id="rId1328" display="https://www.nba.com/stats/player/202355/"/>
+    <hyperlink ref="B694" r:id="rId1329" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A695" r:id="rId1330" display="https://www.nba.com/stats/player/202356/"/>
+    <hyperlink ref="B695" r:id="rId1331" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A696" r:id="rId1332" display="https://www.nba.com/stats/player/202357/"/>
+    <hyperlink ref="B696" r:id="rId1333" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A697" r:id="rId1334" display="https://www.nba.com/stats/player/202358/"/>
+    <hyperlink ref="B697" r:id="rId1335" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A698" r:id="rId1336" display="https://www.nba.com/stats/player/202359/"/>
+    <hyperlink ref="B698" r:id="rId1337" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A699" r:id="rId1338" display="https://www.nba.com/stats/player/202360/"/>
+    <hyperlink ref="B699" r:id="rId1339" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A700" r:id="rId1340" display="https://www.nba.com/stats/player/202361/"/>
+    <hyperlink ref="B700" r:id="rId1341" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A701" r:id="rId1342" display="https://www.nba.com/stats/player/202362/"/>
+    <hyperlink ref="B701" r:id="rId1343" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A702" r:id="rId1344" display="https://www.nba.com/stats/player/202363/"/>
+    <hyperlink ref="B702" r:id="rId1345" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B703" r:id="rId1346" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="A704" r:id="rId1347" display="https://www.nba.com/stats/player/202365/"/>
+    <hyperlink ref="B704" r:id="rId1348" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A705" r:id="rId1349" display="https://www.nba.com/stats/player/202366/"/>
+    <hyperlink ref="B705" r:id="rId1350" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B706" r:id="rId1351" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A707" r:id="rId1352" display="https://www.nba.com/stats/player/202371/"/>
+    <hyperlink ref="B707" r:id="rId1353" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B708" r:id="rId1354" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B709" r:id="rId1355" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B710" r:id="rId1356" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A711" r:id="rId1357" display="https://www.nba.com/stats/player/202374/"/>
+    <hyperlink ref="B711" r:id="rId1358" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="A712" r:id="rId1359" display="https://www.nba.com/stats/player/202375/"/>
+    <hyperlink ref="B712" r:id="rId1360" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A713" r:id="rId1361" display="https://www.nba.com/stats/player/202376/"/>
+    <hyperlink ref="B713" r:id="rId1362" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="A714" r:id="rId1363" display="https://www.nba.com/stats/player/202377/"/>
+    <hyperlink ref="B714" r:id="rId1364" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A715" r:id="rId1365" display="https://www.nba.com/stats/player/202378/"/>
+    <hyperlink ref="B715" r:id="rId1366" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A716" r:id="rId1367" display="https://www.nba.com/stats/player/202379/"/>
+    <hyperlink ref="B716" r:id="rId1368" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A717" r:id="rId1369" display="https://www.nba.com/stats/player/202380/"/>
+    <hyperlink ref="B717" r:id="rId1370" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A718" r:id="rId1371" display="https://www.nba.com/stats/player/202385/"/>
+    <hyperlink ref="B718" r:id="rId1372" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A719" r:id="rId1373" display="https://www.nba.com/stats/player/202382/"/>
+    <hyperlink ref="B719" r:id="rId1374" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A720" r:id="rId1375" display="https://www.nba.com/stats/player/202383/"/>
+    <hyperlink ref="B720" r:id="rId1376" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B721" r:id="rId1377" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A722" r:id="rId1378" display="https://www.nba.com/stats/player/201933/"/>
+    <hyperlink ref="B722" r:id="rId1379" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="A723" r:id="rId1380" display="https://www.nba.com/stats/player/201934/"/>
+    <hyperlink ref="B723" r:id="rId1381" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A724" r:id="rId1382" display="https://www.nba.com/stats/player/201935/"/>
+    <hyperlink ref="B724" r:id="rId1383" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A725" r:id="rId1384" display="https://www.nba.com/stats/player/201936/"/>
+    <hyperlink ref="B725" r:id="rId1385" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A726" r:id="rId1386" display="https://www.nba.com/stats/player/201937/"/>
+    <hyperlink ref="B726" r:id="rId1387" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A727" r:id="rId1388" display="https://www.nba.com/stats/player/201938/"/>
+    <hyperlink ref="B727" r:id="rId1389" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A728" r:id="rId1390" display="https://www.nba.com/stats/player/201939/"/>
+    <hyperlink ref="B728" r:id="rId1391" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="A729" r:id="rId1392" display="https://www.nba.com/stats/player/201941/"/>
+    <hyperlink ref="B729" r:id="rId1393" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="A730" r:id="rId1394" display="https://www.nba.com/stats/player/201942/"/>
+    <hyperlink ref="B730" r:id="rId1395" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="A731" r:id="rId1396" display="https://www.nba.com/stats/player/201943/"/>
+    <hyperlink ref="B731" r:id="rId1397" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A732" r:id="rId1398" display="https://www.nba.com/stats/player/201944/"/>
+    <hyperlink ref="B732" r:id="rId1399" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="A733" r:id="rId1400" display="https://www.nba.com/stats/player/201945/"/>
+    <hyperlink ref="B733" r:id="rId1401" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A734" r:id="rId1402" display="https://www.nba.com/stats/player/201946/"/>
+    <hyperlink ref="B734" r:id="rId1403" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A735" r:id="rId1404" display="https://www.nba.com/stats/player/201947/"/>
+    <hyperlink ref="B735" r:id="rId1405" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A736" r:id="rId1406" display="https://www.nba.com/stats/player/201948/"/>
+    <hyperlink ref="B736" r:id="rId1407" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A737" r:id="rId1408" display="https://www.nba.com/stats/player/201949/"/>
+    <hyperlink ref="B737" r:id="rId1409" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A738" r:id="rId1410" display="https://www.nba.com/stats/player/201950/"/>
+    <hyperlink ref="B738" r:id="rId1411" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="A739" r:id="rId1412" display="https://www.nba.com/stats/player/201951/"/>
+    <hyperlink ref="B739" r:id="rId1413" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A740" r:id="rId1414" display="https://www.nba.com/stats/player/201952/"/>
+    <hyperlink ref="B740" r:id="rId1415" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A741" r:id="rId1416" display="https://www.nba.com/stats/player/201953/"/>
+    <hyperlink ref="B741" r:id="rId1417" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="A742" r:id="rId1418" display="https://www.nba.com/stats/player/201954/"/>
+    <hyperlink ref="B742" r:id="rId1419" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="A743" r:id="rId1420" display="https://www.nba.com/stats/player/201964/"/>
+    <hyperlink ref="B743" r:id="rId1421" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A744" r:id="rId1422" display="https://www.nba.com/stats/player/201956/"/>
+    <hyperlink ref="B744" r:id="rId1423" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A745" r:id="rId1424" display="https://www.nba.com/stats/player/201957/"/>
+    <hyperlink ref="B745" r:id="rId1425" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="A746" r:id="rId1426" display="https://www.nba.com/stats/player/201958/"/>
+    <hyperlink ref="B746" r:id="rId1427" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="A747" r:id="rId1428" display="https://www.nba.com/stats/player/201959/"/>
+    <hyperlink ref="B747" r:id="rId1429" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="A748" r:id="rId1430" display="https://www.nba.com/stats/player/201960/"/>
+    <hyperlink ref="B748" r:id="rId1431" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A749" r:id="rId1432" display="https://www.nba.com/stats/player/201961/"/>
+    <hyperlink ref="B749" r:id="rId1433" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A750" r:id="rId1434" display="https://www.nba.com/stats/player/201962/"/>
+    <hyperlink ref="B750" r:id="rId1435" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A751" r:id="rId1436" display="https://www.nba.com/stats/player/201963/"/>
+    <hyperlink ref="B751" r:id="rId1437" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="A752" r:id="rId1438" display="https://www.nba.com/stats/player/201965/"/>
+    <hyperlink ref="B752" r:id="rId1439" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="A753" r:id="rId1440" display="https://www.nba.com/stats/player/201966/"/>
+    <hyperlink ref="B753" r:id="rId1441" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="A754" r:id="rId1442" display="https://www.nba.com/stats/player/201967/"/>
+    <hyperlink ref="B754" r:id="rId1443" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B755" r:id="rId1444" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="A756" r:id="rId1445" display="https://www.nba.com/stats/player/201969/"/>
+    <hyperlink ref="B756" r:id="rId1446" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A757" r:id="rId1447" display="https://www.nba.com/stats/player/201970/"/>
+    <hyperlink ref="B757" r:id="rId1448" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="A758" r:id="rId1449" display="https://www.nba.com/stats/player/201971/"/>
+    <hyperlink ref="B758" r:id="rId1450" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A759" r:id="rId1451" display="https://www.nba.com/stats/player/201972/"/>
+    <hyperlink ref="B759" r:id="rId1452" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="A760" r:id="rId1453" display="https://www.nba.com/stats/player/201973/"/>
+    <hyperlink ref="B760" r:id="rId1454" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A761" r:id="rId1455" display="https://www.nba.com/stats/player/201974/"/>
+    <hyperlink ref="B761" r:id="rId1456" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A762" r:id="rId1457" display="https://www.nba.com/stats/player/201975/"/>
+    <hyperlink ref="B762" r:id="rId1458" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="A763" r:id="rId1459" display="https://www.nba.com/stats/player/201976/"/>
+    <hyperlink ref="B763" r:id="rId1460" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A764" r:id="rId1461" display="https://www.nba.com/stats/player/201977/"/>
+    <hyperlink ref="B764" r:id="rId1462" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="A765" r:id="rId1463" display="https://www.nba.com/stats/player/201978/"/>
+    <hyperlink ref="B765" r:id="rId1464" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="A766" r:id="rId1465" display="https://www.nba.com/stats/player/201979/"/>
+    <hyperlink ref="B766" r:id="rId1466" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A767" r:id="rId1467" display="https://www.nba.com/stats/player/201980/"/>
+    <hyperlink ref="B767" r:id="rId1468" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B768" r:id="rId1469" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="A769" r:id="rId1470" display="https://www.nba.com/stats/player/201981/"/>
+    <hyperlink ref="B769" r:id="rId1471" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B770" r:id="rId1472" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="A771" r:id="rId1473" display="https://www.nba.com/stats/player/201983/"/>
+    <hyperlink ref="B771" r:id="rId1474" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B772" r:id="rId1475" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="A773" r:id="rId1476" display="https://www.nba.com/stats/player/201985/"/>
+    <hyperlink ref="B773" r:id="rId1477" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="A774" r:id="rId1478" display="https://www.nba.com/stats/player/201986/"/>
+    <hyperlink ref="B774" r:id="rId1479" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B775" r:id="rId1480" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="A776" r:id="rId1481" display="https://www.nba.com/stats/player/201988/"/>
+    <hyperlink ref="B776" r:id="rId1482" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B777" r:id="rId1483" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B778" r:id="rId1484" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="A779" r:id="rId1485" display="https://www.nba.com/stats/player/201991/"/>
+    <hyperlink ref="B779" r:id="rId1486" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B780" r:id="rId1487" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="A781" r:id="rId1488" display="https://www.nba.com/stats/player/201993/"/>
+    <hyperlink ref="B781" r:id="rId1489" display="https://www.nba.com/stats/team/1610612748/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1490"/>

--- a/DraftedPlayers.xlsx
+++ b/DraftedPlayers.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frederico.pontes\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EAFDD52-8276-417D-AAC3-261C01CA9EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2563,7 +2562,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2615,7 +2614,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{45D509AC-3C01-4DB9-9C4F-BC2A3CB0D8AD}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2926,7 +2925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57E9045-C99B-47B1-9085-C14D3C362E34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -25590,788 +25589,788 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{E57E9045-C99B-47B1-9085-C14D3C362E34}"/>
+  <autoFilter ref="A1:I1"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{317B1D58-AEA9-4BDC-A4E8-8C89AFCFBD82}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{37B54E1A-B77E-4F0E-B5F6-7C10EF4BAB58}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{5F6F039A-E200-4690-A7C1-C78556BB8F8C}"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{4713BC1D-6212-4828-BD5F-2771B37D1792}"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{A595F0BA-9F3E-4650-972C-BCD1D2314B3C}"/>
-    <hyperlink ref="B7" r:id="rId6" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{F2730D00-563A-4078-B2B2-7EF028B4947B}"/>
-    <hyperlink ref="B8" r:id="rId7" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{56BD756D-E3D2-4C9F-93EA-9968ECC56ACC}"/>
-    <hyperlink ref="B9" r:id="rId8" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{8814B5AE-0E5B-4AE1-BB76-58849A78A812}"/>
-    <hyperlink ref="B10" r:id="rId9" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{2F3233E4-7D2D-4530-9CE4-90D237AF6133}"/>
-    <hyperlink ref="B11" r:id="rId10" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{BB22F1AC-CA8A-4528-82E4-B3A90847F9CE}"/>
-    <hyperlink ref="B12" r:id="rId11" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{F85C5DDC-C012-4021-86F0-7D4E48F9D0E4}"/>
-    <hyperlink ref="B13" r:id="rId12" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{89718113-2018-47F9-98FB-3930CB535C9C}"/>
-    <hyperlink ref="B14" r:id="rId13" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{DDFDAB64-5C56-4921-B111-427B55E09920}"/>
-    <hyperlink ref="B15" r:id="rId14" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{366AB5A5-497B-43D6-A51A-12468D4CFDBC}"/>
-    <hyperlink ref="B16" r:id="rId15" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{66B10E31-842D-4ADF-AA91-D8DB9E6A6B14}"/>
-    <hyperlink ref="B17" r:id="rId16" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{1E67EC1F-CF69-4907-B33A-1EB0B405F0ED}"/>
-    <hyperlink ref="B18" r:id="rId17" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{27BFCF7F-4C5D-42BE-B208-6B6776896A00}"/>
-    <hyperlink ref="B19" r:id="rId18" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{2F340063-DC1B-42D4-AA60-59C2F8C19877}"/>
-    <hyperlink ref="B20" r:id="rId19" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{13B766FD-4A6A-4D5D-8530-AEF98AE46110}"/>
-    <hyperlink ref="B21" r:id="rId20" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{815FE02D-9AA6-4148-BA8D-8C960AAEC6C3}"/>
-    <hyperlink ref="B22" r:id="rId21" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{3AD8D473-903D-400E-9AD5-343F622F6C00}"/>
-    <hyperlink ref="B23" r:id="rId22" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{3BDBE2E4-B5C8-46B3-812A-1939622245F5}"/>
-    <hyperlink ref="B24" r:id="rId23" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{74EE6477-F065-4FEC-8E14-75804F968240}"/>
-    <hyperlink ref="B25" r:id="rId24" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{BE367F68-AFE9-4669-A2A5-3A5891AB2CF3}"/>
-    <hyperlink ref="B26" r:id="rId25" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{C0161684-727D-4CAC-BFCB-BE084D9A80BE}"/>
-    <hyperlink ref="B27" r:id="rId26" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{565D43B3-62F1-43B9-A5F5-305E972A049E}"/>
-    <hyperlink ref="B28" r:id="rId27" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{15B67A78-CE62-415E-8879-53313DD21069}"/>
-    <hyperlink ref="B29" r:id="rId28" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{981DA3CD-5CB1-4548-AEBD-589A885F11B6}"/>
-    <hyperlink ref="B30" r:id="rId29" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{CB5B692C-676B-42D1-8990-F09C7FFCC682}"/>
-    <hyperlink ref="B31" r:id="rId30" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{698E3DA2-02E5-454B-89F3-52DBBB9ABA0E}"/>
-    <hyperlink ref="B32" r:id="rId31" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{F56FEE81-96FA-41F2-BD05-6C8CDE30560F}"/>
-    <hyperlink ref="B33" r:id="rId32" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{CB8DC65E-D151-4CC5-B28A-D4A083C8544F}"/>
-    <hyperlink ref="B34" r:id="rId33" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{6BE0513A-98CA-4D59-81E8-BEA08E93862D}"/>
-    <hyperlink ref="B35" r:id="rId34" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{ECEA81C4-3BA4-4B3C-8F8F-643A2F63A201}"/>
-    <hyperlink ref="B36" r:id="rId35" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{3771A79F-D0F3-452E-B44F-D0C0B70B2511}"/>
-    <hyperlink ref="B37" r:id="rId36" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{482880C9-5115-4861-A815-67240670FC52}"/>
-    <hyperlink ref="B38" r:id="rId37" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{1B0D164A-46C5-4EDD-9BDC-59389FEE0859}"/>
-    <hyperlink ref="B39" r:id="rId38" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{AF9412A5-50C5-464B-AAE5-2AA64A6C811C}"/>
-    <hyperlink ref="B40" r:id="rId39" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{1F217801-208C-47CD-AF3A-3A920C0ECB9D}"/>
-    <hyperlink ref="B41" r:id="rId40" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{8C20171F-59C9-456D-972A-6183447A7DA6}"/>
-    <hyperlink ref="B42" r:id="rId41" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{FA184DBF-1B70-41C1-BD83-21E560ECBD09}"/>
-    <hyperlink ref="B43" r:id="rId42" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{42237DB7-1737-4819-B6A3-5626F2246974}"/>
-    <hyperlink ref="B44" r:id="rId43" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{6368147F-271E-4020-95FC-7FE1DFF16ACF}"/>
-    <hyperlink ref="B45" r:id="rId44" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{B58779B5-6713-42DE-A87B-32582444E689}"/>
-    <hyperlink ref="B46" r:id="rId45" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{1FC381E1-29FC-4BE8-BF49-225FB9C242B7}"/>
-    <hyperlink ref="B47" r:id="rId46" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{4BE4A280-F337-40A9-B6E5-71BF0F74541D}"/>
-    <hyperlink ref="B48" r:id="rId47" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{4B0B76BF-C2C4-4727-90A3-24E0E462267A}"/>
-    <hyperlink ref="B49" r:id="rId48" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{CB04B8C1-D1FC-4F62-AF5B-30FDF8F0719B}"/>
-    <hyperlink ref="B50" r:id="rId49" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{D43A00A8-73FE-4401-B2F7-3971FCD22A95}"/>
-    <hyperlink ref="B51" r:id="rId50" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{9DAB510D-7249-458C-97FB-5AC629D24C36}"/>
-    <hyperlink ref="B52" r:id="rId51" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{C86DA2B1-4F80-4480-934A-2DA8C59F836D}"/>
-    <hyperlink ref="B53" r:id="rId52" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{0BB25034-BE04-4A6B-852C-1895E92D5136}"/>
-    <hyperlink ref="B54" r:id="rId53" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{C30ACD49-0D41-4548-A95E-A0FFE5BECA2F}"/>
-    <hyperlink ref="B55" r:id="rId54" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{223518F5-D418-4E1D-9026-347BF377F7EF}"/>
-    <hyperlink ref="B56" r:id="rId55" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{5D89AD51-3AD4-4433-BBDF-B86F06A91732}"/>
-    <hyperlink ref="B57" r:id="rId56" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{98B0C4C6-7AD6-4305-A7B3-16597740D3FA}"/>
-    <hyperlink ref="B58" r:id="rId57" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{148C9BD0-9F2A-4AB2-96B8-036756F28A1B}"/>
-    <hyperlink ref="B59" r:id="rId58" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{2AE8D5D3-5062-4E2E-837B-E0858B9D1829}"/>
-    <hyperlink ref="B60" r:id="rId59" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{D6A5AB88-ACB4-4542-B918-4C47B364AC42}"/>
-    <hyperlink ref="B61" r:id="rId60" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{7AA5B7BE-E358-436E-A75E-2B6A58B61CBE}"/>
-    <hyperlink ref="B62" r:id="rId61" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{CEFF28BA-2E61-427B-A3B8-B6A0D639C6A2}"/>
-    <hyperlink ref="B63" r:id="rId62" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{D46C5714-3C5F-40AA-9E2A-73CD39421033}"/>
-    <hyperlink ref="B64" r:id="rId63" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{DF3B5984-461F-4E1C-B5E9-BE014307BA47}"/>
-    <hyperlink ref="B65" r:id="rId64" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{6AE50FF1-2AF2-462E-B0F6-F614D1DBAFFB}"/>
-    <hyperlink ref="B66" r:id="rId65" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{0CF7302A-522B-43E8-AE5C-B24A922AB7F6}"/>
-    <hyperlink ref="B67" r:id="rId66" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{C4CF9408-96E0-4316-870A-560C11494A76}"/>
-    <hyperlink ref="B68" r:id="rId67" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{FC493402-C190-4BBE-A6F2-24DDB629A1D8}"/>
-    <hyperlink ref="B69" r:id="rId68" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{41ECEC56-9CEB-493C-A334-91B560019696}"/>
-    <hyperlink ref="B70" r:id="rId69" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{9397E351-E055-48D5-B8F1-153C20204B85}"/>
-    <hyperlink ref="B71" r:id="rId70" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{CB5B3B37-ED92-4F25-B79B-2E714E19146D}"/>
-    <hyperlink ref="B72" r:id="rId71" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{B4C8604A-147B-4996-BD6C-BF0FE69569F1}"/>
-    <hyperlink ref="B73" r:id="rId72" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{9F1D7FBD-0A07-4093-AA7A-A113795F346C}"/>
-    <hyperlink ref="B74" r:id="rId73" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{C8DEB856-D4E2-4166-B24E-D3226B93E30F}"/>
-    <hyperlink ref="B75" r:id="rId74" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{914E4C06-CEBA-4A14-8BE9-9BA2B5FEF3AF}"/>
-    <hyperlink ref="B76" r:id="rId75" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{D59449EA-1767-4E13-A61B-00475E962F84}"/>
-    <hyperlink ref="B77" r:id="rId76" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{6E9824AF-022E-44A7-89F3-CE77EC3994E0}"/>
-    <hyperlink ref="B78" r:id="rId77" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{C6747DC8-B3E2-430B-A81F-253334C8F183}"/>
-    <hyperlink ref="B79" r:id="rId78" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{860055BE-F4D4-4743-823F-D3F6ECBA4F9A}"/>
-    <hyperlink ref="B80" r:id="rId79" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{F32AE5A8-3538-4121-875E-13F5CE330D83}"/>
-    <hyperlink ref="B81" r:id="rId80" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{7B914EE0-75C0-4D01-96B3-F0886AD1D365}"/>
-    <hyperlink ref="B82" r:id="rId81" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{8065AD90-3C54-4661-83FC-91E78297937A}"/>
-    <hyperlink ref="B83" r:id="rId82" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{BE2E25B2-B9A0-403F-BDAC-F595818B3F64}"/>
-    <hyperlink ref="B84" r:id="rId83" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{CAE65109-84C6-4D68-B179-F611411A0000}"/>
-    <hyperlink ref="B85" r:id="rId84" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{F7F854B9-70D8-417E-8BFC-798A226586DB}"/>
-    <hyperlink ref="B86" r:id="rId85" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{B8E6FE0A-0B4A-440F-99BD-666933C41113}"/>
-    <hyperlink ref="B87" r:id="rId86" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{DD6A22A1-DA34-4446-9B35-3DBBBBDEAD4E}"/>
-    <hyperlink ref="B88" r:id="rId87" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{0BAADF4E-A332-4C48-89BE-D1AFF99D4C2E}"/>
-    <hyperlink ref="B89" r:id="rId88" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{E480DC7F-52E4-4C7A-B774-F9FAA7323326}"/>
-    <hyperlink ref="B90" r:id="rId89" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{F26FFA53-594F-4542-B4B6-64C3BE4ADEBA}"/>
-    <hyperlink ref="B91" r:id="rId90" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{837DB4A3-B9D7-4B68-A9BA-00DC83117A16}"/>
-    <hyperlink ref="B92" r:id="rId91" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{3AC431BE-D3E7-4F32-9DCE-4AA7D20FA01F}"/>
-    <hyperlink ref="B93" r:id="rId92" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{DDB5B453-0016-446B-A5DE-69D60ECD89B7}"/>
-    <hyperlink ref="B94" r:id="rId93" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{66F7A293-8012-4F62-93EA-FA0E4A974471}"/>
-    <hyperlink ref="B95" r:id="rId94" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{98DD5767-454B-4D14-B6DD-0D5DF1272D71}"/>
-    <hyperlink ref="B96" r:id="rId95" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{E9251E2C-92DD-4C2F-B72D-E528E3BB1B4B}"/>
-    <hyperlink ref="B97" r:id="rId96" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{B2E363E7-8BDE-47FF-A640-48EBABCE03BA}"/>
-    <hyperlink ref="B98" r:id="rId97" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{1D0C33A0-B01F-42B4-9087-8AF594654BDD}"/>
-    <hyperlink ref="B99" r:id="rId98" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{B01F6ED8-173F-4348-920D-BA3D11FB386C}"/>
-    <hyperlink ref="B100" r:id="rId99" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{760AF525-A6C4-4D1F-A430-696FF37000E8}"/>
-    <hyperlink ref="B101" r:id="rId100" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{3D1B63F6-2B95-4533-BBBA-55525660A250}"/>
-    <hyperlink ref="B102" r:id="rId101" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{157FA96D-E406-45C3-8D63-2B0C3375F1F2}"/>
-    <hyperlink ref="B103" r:id="rId102" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{71F4B70B-193F-452D-B40D-81DCB4025072}"/>
-    <hyperlink ref="B104" r:id="rId103" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{0B6DE2A2-22B2-48E6-9866-BA94F0C20E6B}"/>
-    <hyperlink ref="B105" r:id="rId104" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{E2BA08D9-0092-406F-896E-1E4193C63149}"/>
-    <hyperlink ref="B106" r:id="rId105" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{4E5B3163-5FC2-4526-B805-176ED756CBFB}"/>
-    <hyperlink ref="B107" r:id="rId106" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{255EDBB1-9A38-43E0-B35A-AA10873A4A3A}"/>
-    <hyperlink ref="B108" r:id="rId107" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{04930E3D-6538-45FE-A809-0F1D656C9BAB}"/>
-    <hyperlink ref="B109" r:id="rId108" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{6CBBE060-E7F3-482C-B478-6D32320A0FC0}"/>
-    <hyperlink ref="B110" r:id="rId109" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{75EBB050-EE0B-4F92-ABB2-F89B3816C276}"/>
-    <hyperlink ref="B111" r:id="rId110" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{1652A271-14E5-4256-9A04-EF2A0403ED76}"/>
-    <hyperlink ref="B112" r:id="rId111" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{33247C86-5997-456A-9FEF-4B872FFAA1EA}"/>
-    <hyperlink ref="B113" r:id="rId112" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{19C145BC-4F93-4E2E-AE42-6EB430A2A62D}"/>
-    <hyperlink ref="B114" r:id="rId113" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{0502F601-F979-4DE2-B9F1-257B473F4A91}"/>
-    <hyperlink ref="B115" r:id="rId114" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{82E60B41-3A9C-4591-BD74-0FA1F330C6D6}"/>
-    <hyperlink ref="B116" r:id="rId115" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{E3386B07-9E11-4319-A877-B5906363CC55}"/>
-    <hyperlink ref="B117" r:id="rId116" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{941A2FF6-4247-423E-9831-1E8A340E2C3E}"/>
-    <hyperlink ref="B118" r:id="rId117" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{0C648E27-1A09-4F68-BA6C-11079292E1D6}"/>
-    <hyperlink ref="B119" r:id="rId118" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{44BCB5DD-DD56-4117-993E-AA5408923D57}"/>
-    <hyperlink ref="B120" r:id="rId119" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{7A2469A1-52E4-4D26-8617-C2C796BBA186}"/>
-    <hyperlink ref="B121" r:id="rId120" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{3E07CF78-635D-46B0-859C-4CA426B10BDE}"/>
-    <hyperlink ref="B122" r:id="rId121" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{564CBF70-1A93-425D-A754-3D0D083C6AC5}"/>
-    <hyperlink ref="B123" r:id="rId122" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{B5359921-7E77-4810-841F-7236FD0EC595}"/>
-    <hyperlink ref="B124" r:id="rId123" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{67CC74C0-F397-4391-918D-99F2DE5E78C1}"/>
-    <hyperlink ref="B125" r:id="rId124" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{00B5F964-7CDD-4FB4-B860-67D476D4A941}"/>
-    <hyperlink ref="B126" r:id="rId125" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{45588DD0-2D56-4375-B0F8-42D5894CE6F7}"/>
-    <hyperlink ref="B127" r:id="rId126" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{482420FC-BB46-419B-B275-56E43C12886D}"/>
-    <hyperlink ref="B128" r:id="rId127" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{6C99FFC2-D87C-40CD-B431-F193BD16F02C}"/>
-    <hyperlink ref="B129" r:id="rId128" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{DC61DA94-4561-4C33-9D04-3843284FF772}"/>
-    <hyperlink ref="B130" r:id="rId129" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{9058F30E-D20E-4DF2-9E60-27698BB7ECD8}"/>
-    <hyperlink ref="B131" r:id="rId130" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{E072B588-7CEE-4438-82B8-2762FAB5E44C}"/>
-    <hyperlink ref="B132" r:id="rId131" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{DAD8EAAC-BA72-4C9B-AF10-F9A297A562AC}"/>
-    <hyperlink ref="B133" r:id="rId132" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{7DD81D99-3DB1-4046-ABDA-B966E655BE35}"/>
-    <hyperlink ref="B134" r:id="rId133" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{FE71E0EB-C0D4-436E-9419-9B22A4670011}"/>
-    <hyperlink ref="B135" r:id="rId134" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{2D2E58B5-F072-40C9-9A4B-DC3B9B795D76}"/>
-    <hyperlink ref="B136" r:id="rId135" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{33247685-8F25-4CEB-A8E4-81154DA3D6E6}"/>
-    <hyperlink ref="B137" r:id="rId136" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{B0E2FE21-E896-4F29-AA6E-2B6E0DC44732}"/>
-    <hyperlink ref="B138" r:id="rId137" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{34A80A18-8259-4623-AAD6-91A10A22B5A6}"/>
-    <hyperlink ref="B139" r:id="rId138" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{433E8F2A-5C04-4E62-84B3-11D3E808BE3A}"/>
-    <hyperlink ref="B140" r:id="rId139" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{213C5E81-40FA-4B19-A418-88AFC30757F9}"/>
-    <hyperlink ref="B141" r:id="rId140" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{33EF8BED-FB74-4B32-86D3-7B59B9E5D1C8}"/>
-    <hyperlink ref="B142" r:id="rId141" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{07AFEA58-4851-46FB-BF33-7556EDE99621}"/>
-    <hyperlink ref="B143" r:id="rId142" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{9A672F64-D18A-4A19-8BBE-BA624EC7C742}"/>
-    <hyperlink ref="B144" r:id="rId143" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{41645A5F-7F06-4C92-B400-A560C7775917}"/>
-    <hyperlink ref="B145" r:id="rId144" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{77E15FBB-A34D-4406-8F61-02E10C3F56B7}"/>
-    <hyperlink ref="B146" r:id="rId145" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{E336CF27-81D8-467F-B8B4-FAE652646FC2}"/>
-    <hyperlink ref="B147" r:id="rId146" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{CF94FD9F-469E-4B3B-B92F-7A272B93F5B5}"/>
-    <hyperlink ref="B148" r:id="rId147" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{8EC4B387-A97A-44C6-B9D5-CBCF83B88785}"/>
-    <hyperlink ref="B149" r:id="rId148" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{800F22DA-A429-47D2-9505-DB52C2FBF7AE}"/>
-    <hyperlink ref="B150" r:id="rId149" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{21A3D7ED-3251-499A-85ED-609915E9CD87}"/>
-    <hyperlink ref="B151" r:id="rId150" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{939B13CE-CEB2-42F8-BAAE-B66698D94D2C}"/>
-    <hyperlink ref="B152" r:id="rId151" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{2F181E6B-81F6-41C8-B7D7-2F347D9BB3A7}"/>
-    <hyperlink ref="B153" r:id="rId152" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{CB62286A-8333-486A-BD29-C7EA3871CFE3}"/>
-    <hyperlink ref="B154" r:id="rId153" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{5676FC38-55BE-406D-BA89-192313B0D669}"/>
-    <hyperlink ref="B155" r:id="rId154" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{BC4EBE15-3271-40B7-A2EA-0BCE0C474805}"/>
-    <hyperlink ref="B156" r:id="rId155" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{91A35246-0F9A-44C6-B9E3-ABF15BE4B420}"/>
-    <hyperlink ref="B157" r:id="rId156" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{9C73EAC9-1B22-4015-A5D3-3CE661265521}"/>
-    <hyperlink ref="B158" r:id="rId157" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{1FD6058C-9A68-40A5-B843-9B8AC1D12FCC}"/>
-    <hyperlink ref="B159" r:id="rId158" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{411E85C8-0DED-4180-8560-A3830AE95CAC}"/>
-    <hyperlink ref="B160" r:id="rId159" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{34CB7257-FA9A-4CC7-A8DC-248F6B38EE00}"/>
-    <hyperlink ref="B161" r:id="rId160" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{51E552DC-398F-4077-9E20-526359EA24C4}"/>
-    <hyperlink ref="B162" r:id="rId161" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{E1345F29-60A5-4F95-8FA5-11428CDF06AE}"/>
-    <hyperlink ref="B163" r:id="rId162" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{4759CC20-AE27-4C27-BCFF-8F0D1328155C}"/>
-    <hyperlink ref="B164" r:id="rId163" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{CED8B18B-D62B-44F9-B261-B15CE41CAB06}"/>
-    <hyperlink ref="B165" r:id="rId164" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{71EEBE49-E274-4892-BDC2-0356012E5758}"/>
-    <hyperlink ref="B166" r:id="rId165" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{72BAFBB3-72EF-498F-8F87-3F8E5A7256AC}"/>
-    <hyperlink ref="B167" r:id="rId166" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{06ED6165-8DDD-4E8B-9B77-435922AF5EAA}"/>
-    <hyperlink ref="B168" r:id="rId167" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{767B8E1F-81EF-4A3D-B6AE-723C5E0AF1DD}"/>
-    <hyperlink ref="B169" r:id="rId168" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{971D8E5A-3F5D-4070-B202-8D2D4A0D7A52}"/>
-    <hyperlink ref="B170" r:id="rId169" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{128BEF44-86E1-445F-807B-2F51DA397A48}"/>
-    <hyperlink ref="B171" r:id="rId170" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{8237736E-9831-4117-8961-41ED4851D83B}"/>
-    <hyperlink ref="B172" r:id="rId171" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{BC8C8AF7-0C4C-438F-BECD-96B33BE6D598}"/>
-    <hyperlink ref="B173" r:id="rId172" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{B3CECA2D-B1B1-4DA5-A8A6-A54EB2D0A655}"/>
-    <hyperlink ref="B174" r:id="rId173" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{80061820-0FBE-4DC8-8E97-9D845511491A}"/>
-    <hyperlink ref="B175" r:id="rId174" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{E3A4D7F7-90E0-417F-9320-158E684054DF}"/>
-    <hyperlink ref="B176" r:id="rId175" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{B2D26539-8CAB-4403-9FEA-43960D48AF27}"/>
-    <hyperlink ref="B177" r:id="rId176" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{0E256BFE-F064-4B50-8EEA-822A172CB914}"/>
-    <hyperlink ref="B178" r:id="rId177" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{6C4817CD-0348-46FF-ADD6-B085E0DE48EA}"/>
-    <hyperlink ref="B179" r:id="rId178" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{06C08893-DFA1-4765-9866-91B0552C16CE}"/>
-    <hyperlink ref="B180" r:id="rId179" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{97A4DD54-E75F-499E-9FC7-FDE564818B66}"/>
-    <hyperlink ref="B181" r:id="rId180" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{01CBF0E4-897D-417E-B3A6-05811379C0F4}"/>
-    <hyperlink ref="B182" r:id="rId181" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{497B1AD3-9C19-4FED-8BB6-CA8154A151DE}"/>
-    <hyperlink ref="B183" r:id="rId182" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{4C442DF7-F9E6-4893-A331-0A2944ADDA61}"/>
-    <hyperlink ref="B184" r:id="rId183" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{6C3D3DDA-5D37-4E46-BB2C-8238ED60A771}"/>
-    <hyperlink ref="B185" r:id="rId184" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{B4EE0CD7-0D73-4DDC-82E5-CDD436449712}"/>
-    <hyperlink ref="B186" r:id="rId185" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{F17600FA-D697-42EE-A22D-A3DECC8D0EA0}"/>
-    <hyperlink ref="B187" r:id="rId186" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{08945427-3145-4B06-907A-34408DF553E1}"/>
-    <hyperlink ref="B188" r:id="rId187" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{286C46F3-FC31-45A6-B98F-9256A15A9F04}"/>
-    <hyperlink ref="B189" r:id="rId188" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{3808BBDD-5427-4E50-B7AC-D63D14538881}"/>
-    <hyperlink ref="B190" r:id="rId189" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{A4423169-7811-4F5E-AC4F-11020347CAAE}"/>
-    <hyperlink ref="B191" r:id="rId190" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{E3DC853D-42D0-42A1-AF26-89E4778F8D3E}"/>
-    <hyperlink ref="B192" r:id="rId191" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{0ADAF578-8719-42FF-B981-06DD73CC5477}"/>
-    <hyperlink ref="B193" r:id="rId192" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{C414AC48-A889-4025-B1F1-7D49947C335C}"/>
-    <hyperlink ref="B194" r:id="rId193" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{2F9EA0DE-55C2-4D30-B2BB-45C0631F4431}"/>
-    <hyperlink ref="B195" r:id="rId194" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{6DBAE614-0CFC-4FB9-98F5-F4204075AA1C}"/>
-    <hyperlink ref="B196" r:id="rId195" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{EB2206E7-1CE6-4597-A2FD-75EC39C64A8D}"/>
-    <hyperlink ref="B197" r:id="rId196" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{951C8854-F9B6-464F-918D-0E8B6D2B37D9}"/>
-    <hyperlink ref="B198" r:id="rId197" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{3EFFED48-B87B-4884-8DBC-9FC5A8B301DD}"/>
-    <hyperlink ref="B199" r:id="rId198" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{CECDE225-CB24-4B21-8E17-855EBE540E95}"/>
-    <hyperlink ref="B200" r:id="rId199" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{36EEA3C1-7147-4EC8-9970-BCB7CC21A18D}"/>
-    <hyperlink ref="B201" r:id="rId200" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{6C84DF90-1658-488C-8DB8-0A090A152CE7}"/>
-    <hyperlink ref="B202" r:id="rId201" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{0FE86D38-5518-4A82-890F-4AA65CB24E54}"/>
-    <hyperlink ref="B203" r:id="rId202" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{B99A09FD-7ACD-43EE-8E34-C6D05159A61E}"/>
-    <hyperlink ref="B204" r:id="rId203" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{DD9AD5BB-81E9-46AF-B002-C5269D353C6F}"/>
-    <hyperlink ref="B205" r:id="rId204" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{04D8FFE6-7646-4462-A7CE-7A76999ED815}"/>
-    <hyperlink ref="B206" r:id="rId205" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{081734FE-58A9-48DA-8AE5-7576FEF9C97C}"/>
-    <hyperlink ref="B207" r:id="rId206" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{C552F4E4-A220-478E-8334-3947FCCDE41A}"/>
-    <hyperlink ref="B208" r:id="rId207" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{547662B8-08E6-4626-9177-84652FC11E15}"/>
-    <hyperlink ref="B209" r:id="rId208" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{927B63E7-E668-45D9-BB45-4F631BC63DEF}"/>
-    <hyperlink ref="B210" r:id="rId209" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{B446F068-17BF-44C3-855B-46A9E71DC919}"/>
-    <hyperlink ref="B211" r:id="rId210" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{56C62AF8-FCA5-48BA-AC1C-D690D31BF633}"/>
-    <hyperlink ref="B212" r:id="rId211" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{527470EC-69DC-4724-88FD-54FA8D685E96}"/>
-    <hyperlink ref="B213" r:id="rId212" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{E43ADA12-2ECF-403C-B5FD-366E9E602FF7}"/>
-    <hyperlink ref="B214" r:id="rId213" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{CA5E5C4F-ED59-48FB-BE01-09B4F2EC0D41}"/>
-    <hyperlink ref="B215" r:id="rId214" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{13539E95-92CF-4FCD-9EB4-6B73E8A85232}"/>
-    <hyperlink ref="B216" r:id="rId215" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{D19925C9-BFDC-4D2B-8151-EFF828325F34}"/>
-    <hyperlink ref="B217" r:id="rId216" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{58573B06-0C35-47A9-94B2-57CCD978F92B}"/>
-    <hyperlink ref="B218" r:id="rId217" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{F88A1925-AB82-4CA9-B22E-8B0E5D86A4ED}"/>
-    <hyperlink ref="B219" r:id="rId218" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{E3351A2C-E19F-42EB-9D47-10265ED950D4}"/>
-    <hyperlink ref="B220" r:id="rId219" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{528B1754-2777-4213-885C-D68BE869FF08}"/>
-    <hyperlink ref="B221" r:id="rId220" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{771894E2-E426-4549-80E6-5F8DA931EE47}"/>
-    <hyperlink ref="B222" r:id="rId221" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{518AC170-EED4-4902-B778-46FC0E0E2AC7}"/>
-    <hyperlink ref="B223" r:id="rId222" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{F0351BB8-F344-42C3-AD64-89D49002A70C}"/>
-    <hyperlink ref="B224" r:id="rId223" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{6BC28B04-F90A-4D8C-9DC0-7EA03E3D2A24}"/>
-    <hyperlink ref="B225" r:id="rId224" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{2245EA4A-0EC6-4CA7-82ED-B5115C489C16}"/>
-    <hyperlink ref="B226" r:id="rId225" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{F65D1CD8-71B4-4C82-BC3F-72DEA14F5144}"/>
-    <hyperlink ref="B227" r:id="rId226" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{9E3B3769-643D-441C-8EF3-4BADCD68BC21}"/>
-    <hyperlink ref="B228" r:id="rId227" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{E77B56CF-F134-4B29-9612-6547EC5D0268}"/>
-    <hyperlink ref="B229" r:id="rId228" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{F891E5E7-6601-435E-A705-10D9AEE823AF}"/>
-    <hyperlink ref="B230" r:id="rId229" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{FA372E0B-88F7-4A3A-AC37-FAE481A5E663}"/>
-    <hyperlink ref="B231" r:id="rId230" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{706C9CD0-9D25-49F5-A8FE-0CB911A7A345}"/>
-    <hyperlink ref="B232" r:id="rId231" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{5BD49EA0-7211-46E7-AE12-FB852946CFAF}"/>
-    <hyperlink ref="B233" r:id="rId232" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{5698B022-C76B-4B1F-B005-FEAE6A321827}"/>
-    <hyperlink ref="B234" r:id="rId233" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{AA13C584-1D7E-4FEC-940E-AD02A3E1BB06}"/>
-    <hyperlink ref="B235" r:id="rId234" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{681F5D03-B333-4053-B448-FEE3D730F3FF}"/>
-    <hyperlink ref="B236" r:id="rId235" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{86E3640F-9D97-4647-B28A-7305096E7783}"/>
-    <hyperlink ref="B237" r:id="rId236" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{36552042-47A4-470B-8800-BFAEF9E72EEA}"/>
-    <hyperlink ref="B238" r:id="rId237" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{A0DE25D9-884F-4E9D-884F-33338645E54C}"/>
-    <hyperlink ref="B239" r:id="rId238" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{B623FBB6-96DF-4906-8799-21C4A2B2E9DE}"/>
-    <hyperlink ref="B240" r:id="rId239" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{4A3C219B-23F2-4AC6-AF26-9BE51E5A4448}"/>
-    <hyperlink ref="B241" r:id="rId240" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{F84FBE35-1DA5-4461-9CDC-188D2B4C0250}"/>
-    <hyperlink ref="B242" r:id="rId241" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{55D21CE2-CE13-426B-8415-C63AC2E04272}"/>
-    <hyperlink ref="B243" r:id="rId242" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{3803D345-7DBC-47EB-A0EF-D80538365A75}"/>
-    <hyperlink ref="B244" r:id="rId243" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{79A71740-D9D2-45AB-9DB1-9EE1F0454931}"/>
-    <hyperlink ref="B245" r:id="rId244" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{2DD7D214-1F1E-40B3-A281-E3EFC26FBA64}"/>
-    <hyperlink ref="B246" r:id="rId245" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{BC740576-4170-4612-809A-F5E8EA4D1273}"/>
-    <hyperlink ref="B247" r:id="rId246" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{136D1117-9B28-4E2F-89A1-7E39CCE79B1C}"/>
-    <hyperlink ref="B248" r:id="rId247" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{57600E23-DCA5-483D-B4AE-5AE0EC195BAC}"/>
-    <hyperlink ref="B249" r:id="rId248" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{72296545-28F5-4C91-B8C6-4EEFF7089247}"/>
-    <hyperlink ref="B250" r:id="rId249" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{A906FBEE-DC7B-4A53-A4A1-3EEF9AFB1F85}"/>
-    <hyperlink ref="B251" r:id="rId250" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{EAF2CBDA-B9E8-40C4-89E0-BBFBFA109BAA}"/>
-    <hyperlink ref="B252" r:id="rId251" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{18D2E747-7DA9-4811-9ECE-168F61D993BB}"/>
-    <hyperlink ref="B253" r:id="rId252" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{7503C289-FFD8-48D5-B014-00451D551F24}"/>
-    <hyperlink ref="B254" r:id="rId253" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{A633B497-B112-412B-A713-4FAB7AFF1430}"/>
-    <hyperlink ref="B255" r:id="rId254" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{71A0AE7C-11AD-4347-893F-CE1238FC75EE}"/>
-    <hyperlink ref="B256" r:id="rId255" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{A086D63D-554E-49F1-B2B1-A77330017FC8}"/>
-    <hyperlink ref="B257" r:id="rId256" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{FB779233-407E-49DA-9483-9C5DD8C3249B}"/>
-    <hyperlink ref="B258" r:id="rId257" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{25976891-379C-47BD-95C0-D2D5C8CF4915}"/>
-    <hyperlink ref="B259" r:id="rId258" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{4FEC4760-FACB-47EC-B9DA-FD4491472E43}"/>
-    <hyperlink ref="B260" r:id="rId259" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{A859A8AF-868D-46F5-B95E-2686B92228F7}"/>
-    <hyperlink ref="B261" r:id="rId260" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{246B88E7-99C8-4B5E-98C7-A75AC8E5CAF2}"/>
-    <hyperlink ref="B262" r:id="rId261" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{2CF5A7BA-B23A-4F3C-8756-15E4D5C9C34F}"/>
-    <hyperlink ref="B263" r:id="rId262" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{2ADD1CD0-1FCD-4E36-8A91-3F5FA2A39929}"/>
-    <hyperlink ref="B264" r:id="rId263" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{985D82AA-DCD6-42FD-9B03-9A07259001DA}"/>
-    <hyperlink ref="B265" r:id="rId264" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{FEA1A8D8-0E06-432F-8E94-2848B16AFD69}"/>
-    <hyperlink ref="B266" r:id="rId265" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{BBDF7AA2-2A0F-47FE-85CA-56F1AB2F2885}"/>
-    <hyperlink ref="B267" r:id="rId266" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{7533A0E8-D648-49E5-89B8-F19C75D7401A}"/>
-    <hyperlink ref="B268" r:id="rId267" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{4D0969D9-1C76-44D5-B4AD-B128BB9B9353}"/>
-    <hyperlink ref="B269" r:id="rId268" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{827BD81B-6D85-420C-96CF-974FC37A60AA}"/>
-    <hyperlink ref="B270" r:id="rId269" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{477F6801-E317-4F63-9833-12FD2AD5D0C6}"/>
-    <hyperlink ref="B271" r:id="rId270" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{DD54AD42-92A4-4088-8141-0DBE52BCC58B}"/>
-    <hyperlink ref="B272" r:id="rId271" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{054D22E9-B9F1-4DFA-99B9-2FBA25AF9B90}"/>
-    <hyperlink ref="B273" r:id="rId272" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{DDF2E52E-AC18-4AF1-8A51-02C70C5C804C}"/>
-    <hyperlink ref="B274" r:id="rId273" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{11E143DC-A9AB-4963-AEE0-4CDA8A8DEDCC}"/>
-    <hyperlink ref="B275" r:id="rId274" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{94A602AE-6152-4504-960A-9EB04DD0D2B4}"/>
-    <hyperlink ref="B276" r:id="rId275" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{A34F5893-6237-4D2B-B1E2-513D97CD1F66}"/>
-    <hyperlink ref="B277" r:id="rId276" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{9F754660-BCCC-4F6B-BEC8-FA9CEA8F52C6}"/>
-    <hyperlink ref="B278" r:id="rId277" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{01D84981-3F10-4064-904B-876E4F2ADFE8}"/>
-    <hyperlink ref="B279" r:id="rId278" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{B4A3A69D-E5CA-443A-B3A4-E6A74AB4168A}"/>
-    <hyperlink ref="B280" r:id="rId279" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{9AE965D4-4E64-4F55-99DF-CA7805EE396A}"/>
-    <hyperlink ref="B281" r:id="rId280" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{E9433E91-9302-4D47-9A04-E82EE222CF96}"/>
-    <hyperlink ref="B282" r:id="rId281" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{F300EA66-454F-4CE6-8CF7-7E4AB9CA87BF}"/>
-    <hyperlink ref="B283" r:id="rId282" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{48EE7E62-F138-455E-A759-85A2DA1CF6A5}"/>
-    <hyperlink ref="B284" r:id="rId283" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{AB40068B-745B-43B0-8DC3-5C48BEBC2EA5}"/>
-    <hyperlink ref="B285" r:id="rId284" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{5D34FFF4-911E-4FB2-8497-D201ADAB80BC}"/>
-    <hyperlink ref="B286" r:id="rId285" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{81A4F0A9-DBE5-4D42-9630-FE0B16144F32}"/>
-    <hyperlink ref="B287" r:id="rId286" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{86A79A81-3617-4011-9E90-91E956EF6E8C}"/>
-    <hyperlink ref="B288" r:id="rId287" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{68FF3970-5E01-4B2E-B21B-6326F92DF6B2}"/>
-    <hyperlink ref="B289" r:id="rId288" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{C578DAE5-1B2F-4779-9DA1-F5C198615D57}"/>
-    <hyperlink ref="B290" r:id="rId289" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{0B526969-8140-473F-80B9-2B3D2D646A96}"/>
-    <hyperlink ref="B291" r:id="rId290" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{35B91608-EF3D-4EA6-BE2B-9740612AA935}"/>
-    <hyperlink ref="B292" r:id="rId291" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{BA724D74-2582-4CA0-B032-0931A50E77D5}"/>
-    <hyperlink ref="B293" r:id="rId292" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{CAACBA9A-E30F-4C67-82D2-6B3259343FF7}"/>
-    <hyperlink ref="B294" r:id="rId293" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{97284A22-E0E5-4580-BE4C-ABE43A44621C}"/>
-    <hyperlink ref="B295" r:id="rId294" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{A709B367-BEF4-490D-BF2A-2208186F0AA2}"/>
-    <hyperlink ref="B296" r:id="rId295" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{49353D21-AF50-4CFC-952D-26BF055CD217}"/>
-    <hyperlink ref="B297" r:id="rId296" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{A636C076-2654-4009-ABA3-776D65F52081}"/>
-    <hyperlink ref="B298" r:id="rId297" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{426DFC91-B8AE-4782-8F7C-645079523041}"/>
-    <hyperlink ref="B299" r:id="rId298" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{C9B6010A-2B51-44A6-8B41-4AE3188315A7}"/>
-    <hyperlink ref="B300" r:id="rId299" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{A8C2E756-2490-477C-BBC2-BD85DB304878}"/>
-    <hyperlink ref="B301" r:id="rId300" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{A98DBB7B-1CBF-41DB-9D39-7F95FCA444AB}"/>
-    <hyperlink ref="B302" r:id="rId301" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{0AD28EA2-8570-4819-9FD2-E3E836A1D09E}"/>
-    <hyperlink ref="B303" r:id="rId302" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{8202FBB5-BD0A-4E4B-94AF-56B1C9A403BC}"/>
-    <hyperlink ref="B304" r:id="rId303" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{0F024BB8-996F-4880-9BF2-B068C2DC4964}"/>
-    <hyperlink ref="B305" r:id="rId304" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{4B19BB04-85BA-45E6-8D81-D32A5E719410}"/>
-    <hyperlink ref="B306" r:id="rId305" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{590F6ECB-B153-44B1-A076-19981D8ABE41}"/>
-    <hyperlink ref="B307" r:id="rId306" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{37C70EFF-9E55-4E27-9E3C-6D0918777376}"/>
-    <hyperlink ref="B308" r:id="rId307" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{F2DAA33E-4CD9-44D4-8715-A9DC4BA85321}"/>
-    <hyperlink ref="B309" r:id="rId308" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{6ABAE0BC-5A2F-4315-8CBC-9E60F94F3C94}"/>
-    <hyperlink ref="B310" r:id="rId309" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{49000F37-7B07-4D49-ADBE-FE8231318492}"/>
-    <hyperlink ref="B311" r:id="rId310" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{6C87A2FA-A846-45D2-972A-F3FDD1E2D204}"/>
-    <hyperlink ref="B312" r:id="rId311" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{4EB2989B-49C1-45D1-AD4F-961CF7A53A6A}"/>
-    <hyperlink ref="B313" r:id="rId312" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{78C17D66-D53D-4C05-BFDA-EE549E6C678F}"/>
-    <hyperlink ref="B314" r:id="rId313" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{5DD40606-953C-4C21-AFE4-5D16342D1896}"/>
-    <hyperlink ref="B315" r:id="rId314" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{4A3CB971-0B13-4A1D-8B4D-03F951BE17EE}"/>
-    <hyperlink ref="B316" r:id="rId315" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{13D53D93-B636-4C3E-B621-9DF434C5BD53}"/>
-    <hyperlink ref="B317" r:id="rId316" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{E84077DB-8D8C-499E-8B20-B5C0E3D29669}"/>
-    <hyperlink ref="B318" r:id="rId317" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{B5998E30-3D92-4880-BA90-D5D81AE5F0E8}"/>
-    <hyperlink ref="B319" r:id="rId318" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{604DC4DD-B5AD-4A36-A985-32AD57710E86}"/>
-    <hyperlink ref="B320" r:id="rId319" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{19BDFFEF-D8D1-4567-973F-6B69C462BACC}"/>
-    <hyperlink ref="B321" r:id="rId320" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{F7AC4442-6AED-46BF-95DB-4CF5CE231591}"/>
-    <hyperlink ref="B322" r:id="rId321" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{56DF6E8A-4D64-4103-910A-62DAB419F751}"/>
-    <hyperlink ref="B323" r:id="rId322" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{8F1E1CD7-3E8A-403E-BC58-EB4FDFF8F737}"/>
-    <hyperlink ref="B324" r:id="rId323" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{E6A0A15C-2650-4FDE-9EB1-1DF219838B29}"/>
-    <hyperlink ref="B325" r:id="rId324" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{BF69E825-0054-41CA-960B-22BCC51E2253}"/>
-    <hyperlink ref="B326" r:id="rId325" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{E57732C5-C842-4481-A4DB-64D600C87391}"/>
-    <hyperlink ref="B327" r:id="rId326" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{30D9D5C0-3363-4E44-8DAA-35BC53F5D10A}"/>
-    <hyperlink ref="B328" r:id="rId327" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{90D4FE34-EDE7-44D6-823C-80AF2F37FE63}"/>
-    <hyperlink ref="B329" r:id="rId328" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{7FAE854D-3C39-435A-9367-14FFE54D73EF}"/>
-    <hyperlink ref="B330" r:id="rId329" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{C520878A-4373-4F09-99E3-9DAC29A18014}"/>
-    <hyperlink ref="B331" r:id="rId330" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{1F546122-CBD8-430A-96C7-B11DF31EA6E1}"/>
-    <hyperlink ref="B332" r:id="rId331" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{4E610629-7B0B-4CF6-97D6-63A2D2FD3140}"/>
-    <hyperlink ref="B333" r:id="rId332" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{88C09C4E-704F-4D7B-85F9-E7AC7269B46E}"/>
-    <hyperlink ref="B334" r:id="rId333" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{EE78A2B7-9173-4EA9-A787-BDD237641BFE}"/>
-    <hyperlink ref="B335" r:id="rId334" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{5E8E6DC9-67A1-4F61-96D3-D116A45D5900}"/>
-    <hyperlink ref="B336" r:id="rId335" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{1026C410-0B78-4492-8111-CF0D0B7A6386}"/>
-    <hyperlink ref="B337" r:id="rId336" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{F6AA7555-46D5-47C8-9D25-B356EECC4640}"/>
-    <hyperlink ref="B338" r:id="rId337" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{CB398E75-697D-45B4-BFE7-006365457866}"/>
-    <hyperlink ref="B339" r:id="rId338" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{61E05AA0-F77A-4CF9-809D-90913E75570F}"/>
-    <hyperlink ref="B340" r:id="rId339" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{461E4680-3B37-4E94-B1EE-8816B75A9C98}"/>
-    <hyperlink ref="B341" r:id="rId340" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{95C43A93-A51A-4BD0-A17F-6B7FD8FD32CD}"/>
-    <hyperlink ref="B342" r:id="rId341" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{083D15F8-8FB9-4EA9-865C-ABE55B5F82B3}"/>
-    <hyperlink ref="B343" r:id="rId342" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{68AA3E22-F19B-4202-BFA8-5DC4875F9554}"/>
-    <hyperlink ref="B344" r:id="rId343" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{629FA6C6-0C8B-4BE6-BD9C-80B4B21C4CF7}"/>
-    <hyperlink ref="B345" r:id="rId344" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{7B86C7CE-AB62-48C1-9DC3-A3DB495B895F}"/>
-    <hyperlink ref="B346" r:id="rId345" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{67E73587-9C60-4DE6-A031-DB536A30F936}"/>
-    <hyperlink ref="B347" r:id="rId346" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{D1709A19-17D3-4DAA-8EFA-54B119FC5BDA}"/>
-    <hyperlink ref="B348" r:id="rId347" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{CB952D3B-B833-426B-9A0C-6B357C19283D}"/>
-    <hyperlink ref="B349" r:id="rId348" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{764B5105-1DD6-47CA-9919-04B9AB1761FF}"/>
-    <hyperlink ref="B350" r:id="rId349" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{54D75331-EF5A-4041-ADA5-8C4CC59CAA91}"/>
-    <hyperlink ref="B351" r:id="rId350" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{D67210F4-0EDD-45ED-B99D-A1F558419446}"/>
-    <hyperlink ref="B352" r:id="rId351" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{56322D28-E441-48AA-9C1F-A0373F3A468C}"/>
-    <hyperlink ref="B353" r:id="rId352" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{76F987B9-FBFC-4FD6-BC37-75DAA5C635CA}"/>
-    <hyperlink ref="B354" r:id="rId353" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{986FE7E0-1BCB-449B-B0E7-B6BA15F4266D}"/>
-    <hyperlink ref="B355" r:id="rId354" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{0CEBC685-28CB-4A21-9450-02D49787F54B}"/>
-    <hyperlink ref="B356" r:id="rId355" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{5AA542D7-642A-4EA7-B02F-F4D351A6A99D}"/>
-    <hyperlink ref="B357" r:id="rId356" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{B4BE404C-445B-4C88-AAF4-1D84E4C6D78B}"/>
-    <hyperlink ref="B358" r:id="rId357" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{41B81B8B-02A5-4552-88E1-2D098CE0031E}"/>
-    <hyperlink ref="B359" r:id="rId358" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{D569916B-8A14-4F25-8019-7A2AD2BDF559}"/>
-    <hyperlink ref="B360" r:id="rId359" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{5A814E8E-EF5A-46B0-BB9E-DBB9D406274C}"/>
-    <hyperlink ref="B361" r:id="rId360" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{42F72589-3D98-494C-ACC1-292FDEF888E4}"/>
-    <hyperlink ref="B362" r:id="rId361" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{B1C22D6A-9BBC-4226-B494-B2B6AC2F9275}"/>
-    <hyperlink ref="B363" r:id="rId362" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{1FE47460-0250-4D27-BF9B-CA6E9D3FFB0E}"/>
-    <hyperlink ref="B364" r:id="rId363" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{A94B6AD7-FD00-4BBC-B48E-B90B7C95E093}"/>
-    <hyperlink ref="B365" r:id="rId364" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{32AA71F8-C404-4F98-8E1E-692EA9F954D2}"/>
-    <hyperlink ref="B366" r:id="rId365" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{5BB350EE-7F08-4AC1-A4DD-EE90B5F9E7DA}"/>
-    <hyperlink ref="B367" r:id="rId366" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{5CF5CDFA-9F74-4F3D-8619-4FA978C95F58}"/>
-    <hyperlink ref="B368" r:id="rId367" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{41F26A06-3512-4ADF-8C53-54B3B9167AFF}"/>
-    <hyperlink ref="B369" r:id="rId368" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{480270A0-3E93-4752-8E7F-B34ED3F42479}"/>
-    <hyperlink ref="B370" r:id="rId369" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{E3C1AADE-299C-4153-B4C4-9ED47AC0EB69}"/>
-    <hyperlink ref="B371" r:id="rId370" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{A028608E-F6C8-4CC8-BC22-FB9E93B5CB6A}"/>
-    <hyperlink ref="B372" r:id="rId371" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{EF740482-93EF-4B2A-8C0A-ED94666D80C8}"/>
-    <hyperlink ref="B373" r:id="rId372" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{CF358AD6-25EF-48DE-A56E-BD132BBAF4CA}"/>
-    <hyperlink ref="B374" r:id="rId373" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{26AA3B67-5FCB-4C9B-8341-C61E0B116475}"/>
-    <hyperlink ref="B375" r:id="rId374" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{DFD0CBD1-2184-4D04-814E-A1D7D85E8CB7}"/>
-    <hyperlink ref="B376" r:id="rId375" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{165F17B4-D4CE-4C4D-B7B8-5DCE6B7D26AA}"/>
-    <hyperlink ref="B377" r:id="rId376" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{DB589655-8D2B-4FFB-BDB8-2DDBE2926A19}"/>
-    <hyperlink ref="B378" r:id="rId377" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{1B7A2A72-04E1-4455-B772-FC93C28EB53B}"/>
-    <hyperlink ref="B379" r:id="rId378" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{9ECE7E05-457F-4A9F-9F51-8E62ECF80DC2}"/>
-    <hyperlink ref="B380" r:id="rId379" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{5937B4EF-F28A-4E57-AA54-C3C3A10615C0}"/>
-    <hyperlink ref="B381" r:id="rId380" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{2F321C37-EBE9-4D56-92CB-01EDC542CD1A}"/>
-    <hyperlink ref="B382" r:id="rId381" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{691B48D9-A762-47CA-80D6-14067C53D62F}"/>
-    <hyperlink ref="B383" r:id="rId382" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{5A82374A-A82B-4E93-A25F-1323F7DB4090}"/>
-    <hyperlink ref="B384" r:id="rId383" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{60F41A01-AC64-4035-BBAB-A596C8ADD590}"/>
-    <hyperlink ref="B385" r:id="rId384" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{6BB95897-563A-41DB-8D95-9ABADA810E97}"/>
-    <hyperlink ref="B386" r:id="rId385" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{CA0767F0-54E7-4E7F-9097-1955E8A44605}"/>
-    <hyperlink ref="B387" r:id="rId386" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{3992F54A-A6FC-4055-BAE4-60C69E1A2ACC}"/>
-    <hyperlink ref="B388" r:id="rId387" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{F99F994B-7E24-4715-BA09-E184FA284143}"/>
-    <hyperlink ref="B389" r:id="rId388" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{ED035FE2-430E-4FB3-9653-89D73EDACF97}"/>
-    <hyperlink ref="B390" r:id="rId389" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{A98E8E2D-CAA9-4CC7-8129-9BA6378D72DB}"/>
-    <hyperlink ref="B391" r:id="rId390" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{C39A9224-4DC2-4FC8-88A4-61F19C144F14}"/>
-    <hyperlink ref="B392" r:id="rId391" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{89FBA7FE-5F89-4CA0-8B15-AE4416213DD4}"/>
-    <hyperlink ref="B393" r:id="rId392" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{63A24957-5865-466A-817C-03ED1C1E744D}"/>
-    <hyperlink ref="B394" r:id="rId393" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{BE2C3CB9-8D87-48A8-BDF9-2C2595F1E75F}"/>
-    <hyperlink ref="B395" r:id="rId394" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{FADC0CBF-C21F-441A-8EE1-5487E74ADF19}"/>
-    <hyperlink ref="B396" r:id="rId395" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{E66E78DF-DCBC-4C58-B74B-0B5F4BDD59D3}"/>
-    <hyperlink ref="B397" r:id="rId396" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{F7F7FAD3-97F7-4900-9C0C-2A2955DAC164}"/>
-    <hyperlink ref="B398" r:id="rId397" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{D4BF7FAF-0587-422A-86F6-09A63BCD7EE7}"/>
-    <hyperlink ref="B399" r:id="rId398" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{B4EDCD7A-FDF1-4205-AAB0-5F2A7A7B0E92}"/>
-    <hyperlink ref="B400" r:id="rId399" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{F0A4E92F-1180-4F34-9FA6-2F66AD6E8C71}"/>
-    <hyperlink ref="B401" r:id="rId400" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{EAA18C91-DB1D-46B5-8366-A5A70FA5A6BC}"/>
-    <hyperlink ref="B402" r:id="rId401" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{E511911F-64B1-483F-868A-63C087C2C2C4}"/>
-    <hyperlink ref="B403" r:id="rId402" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{C222A1CC-BA59-4B59-A213-45555FCBFE13}"/>
-    <hyperlink ref="B404" r:id="rId403" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{3AA84F4F-02BB-4D48-AE9B-4F826D4C66D2}"/>
-    <hyperlink ref="B405" r:id="rId404" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{02261EEF-59A6-4A4D-831D-1CD06B669A42}"/>
-    <hyperlink ref="B406" r:id="rId405" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{3B90A68F-06F6-4245-AAC2-AC2F521E3A85}"/>
-    <hyperlink ref="B407" r:id="rId406" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{51C14D95-96C9-4495-ADF6-6DC65DA8427C}"/>
-    <hyperlink ref="B408" r:id="rId407" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{74DEFF47-5A1A-4128-9672-C014E6D6DA26}"/>
-    <hyperlink ref="B409" r:id="rId408" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{38D848E0-1C09-4312-9849-9F6D15217B4C}"/>
-    <hyperlink ref="B410" r:id="rId409" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{A22CDCFE-5B44-41C0-B444-290B23A13CCD}"/>
-    <hyperlink ref="B411" r:id="rId410" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{F0C4B2C7-3936-43B5-A4EC-61727E6A2A1C}"/>
-    <hyperlink ref="B412" r:id="rId411" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{A648A417-14DF-4460-9158-9D8768092D1D}"/>
-    <hyperlink ref="B413" r:id="rId412" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{3FC446AF-F9E6-4C82-87E1-5A62A3C4C49B}"/>
-    <hyperlink ref="B414" r:id="rId413" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{E207FA0C-E46E-4821-B47D-A0F0ED3883DF}"/>
-    <hyperlink ref="B415" r:id="rId414" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{9604945A-70FD-4FCA-9270-1702C5347140}"/>
-    <hyperlink ref="B416" r:id="rId415" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{368E22F3-7212-406F-ADCF-52942AB0F7FF}"/>
-    <hyperlink ref="B417" r:id="rId416" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{B46CBC30-6FBF-4197-AFFB-83455717F2CB}"/>
-    <hyperlink ref="B418" r:id="rId417" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{5D4C0407-CCAA-40E1-95D4-00A02B7A5835}"/>
-    <hyperlink ref="B419" r:id="rId418" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{AD9F5503-207F-4DEA-8E9D-FE1E1C039884}"/>
-    <hyperlink ref="B420" r:id="rId419" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{C83C1FF2-B9D4-4442-B247-C7EFC34E9772}"/>
-    <hyperlink ref="B421" r:id="rId420" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{2FB92152-CA93-4632-9DC2-B533003CB9BF}"/>
-    <hyperlink ref="B422" r:id="rId421" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{90D46EDB-E40D-46EA-823C-9B065EE2DB00}"/>
-    <hyperlink ref="B423" r:id="rId422" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{3F400062-4226-4831-A3C8-6E36280C1C31}"/>
-    <hyperlink ref="B424" r:id="rId423" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{7BE21A4B-BF93-4B9B-923D-260A400115A8}"/>
-    <hyperlink ref="B425" r:id="rId424" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{C9CE27EB-2BBF-4805-848C-478970198E64}"/>
-    <hyperlink ref="B426" r:id="rId425" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{7D992D7E-7176-47E5-A494-6469FC590137}"/>
-    <hyperlink ref="B427" r:id="rId426" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{0906F1B1-DA8F-4ED8-AA07-C13479DA40FB}"/>
-    <hyperlink ref="B428" r:id="rId427" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{736833B1-23E8-4E0D-9622-C6EF96F8B355}"/>
-    <hyperlink ref="B429" r:id="rId428" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{1432F7CC-0583-4EC7-A22A-343CC24A7DEF}"/>
-    <hyperlink ref="B430" r:id="rId429" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{54C396AB-C9A0-4CCB-8DAE-2EC302169D9F}"/>
-    <hyperlink ref="B431" r:id="rId430" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{4FFC37FE-A31F-48CC-AC80-C5458744F815}"/>
-    <hyperlink ref="B432" r:id="rId431" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{9286D6ED-EC90-4D75-AE9B-0AABAAB05B80}"/>
-    <hyperlink ref="B433" r:id="rId432" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{D4869934-05A6-4B5B-9034-25C9095792D0}"/>
-    <hyperlink ref="B434" r:id="rId433" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{2EDC4B83-6D12-464A-B224-12A6B5488C4A}"/>
-    <hyperlink ref="B435" r:id="rId434" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{AFCFE523-137E-45ED-8D1E-A1A555F2A68F}"/>
-    <hyperlink ref="B436" r:id="rId435" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{9B0A2BB0-95D5-4E28-8795-0ED44927984C}"/>
-    <hyperlink ref="B437" r:id="rId436" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{E129A24E-B5C8-4CDD-851E-E996CA92F0A0}"/>
-    <hyperlink ref="B438" r:id="rId437" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{B2B62077-F54E-4BBA-9BD8-FC08DD80E3BE}"/>
-    <hyperlink ref="B439" r:id="rId438" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{18F7F271-C77D-4FE7-A012-1A0A3B9D08D2}"/>
-    <hyperlink ref="B440" r:id="rId439" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{5C661616-D048-48F4-B73B-CA41FDDE7437}"/>
-    <hyperlink ref="B441" r:id="rId440" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{91371260-80D5-4A4E-890C-715EE9951CA4}"/>
-    <hyperlink ref="B442" r:id="rId441" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{F0444F9D-5E62-4553-B0F4-F0AAFB29C487}"/>
-    <hyperlink ref="B443" r:id="rId442" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{C7AE60B9-00D8-4AB5-85AB-862BCFFA2226}"/>
-    <hyperlink ref="B444" r:id="rId443" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{EE5A2E7B-1A21-435E-9621-3650097391CF}"/>
-    <hyperlink ref="B445" r:id="rId444" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{BC384492-9903-434A-A7DC-FCB2F644A16D}"/>
-    <hyperlink ref="B446" r:id="rId445" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{23039448-F4D6-4E90-9D9F-03DE8A586301}"/>
-    <hyperlink ref="B447" r:id="rId446" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{5E0031D7-36C3-4A69-9977-E86C938F5B7C}"/>
-    <hyperlink ref="B448" r:id="rId447" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{40A1E66A-98CF-420B-A1D2-34285522AA81}"/>
-    <hyperlink ref="B449" r:id="rId448" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{D437209D-1463-45CD-94FB-83E099633E86}"/>
-    <hyperlink ref="B450" r:id="rId449" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{A3BF121C-123C-404B-B62B-6728C379BD43}"/>
-    <hyperlink ref="B451" r:id="rId450" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{A01E1D9D-5F50-47EA-9084-BAB2DA7AAF33}"/>
-    <hyperlink ref="B452" r:id="rId451" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{1E6855D8-4425-4234-AC61-9A9437586F9E}"/>
-    <hyperlink ref="B453" r:id="rId452" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{C0FAB512-B15F-463A-B51B-5ACD8AE021D4}"/>
-    <hyperlink ref="B454" r:id="rId453" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{7BDCBD6B-3EB3-49F0-ADFD-323CD5DFDA1C}"/>
-    <hyperlink ref="B455" r:id="rId454" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{B216FE8F-34F9-46E0-8EBA-057C2747782E}"/>
-    <hyperlink ref="B456" r:id="rId455" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{02671F8E-E501-4BF2-8699-7511E297FD4F}"/>
-    <hyperlink ref="B457" r:id="rId456" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{150AC0BD-B0CE-45B9-8868-EDDFFF1B1979}"/>
-    <hyperlink ref="B458" r:id="rId457" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{EACA0710-4C1D-496D-85E6-9E371E227AA6}"/>
-    <hyperlink ref="B459" r:id="rId458" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{E0A8A35D-6C8E-4DD7-9D8D-6B13537CCC77}"/>
-    <hyperlink ref="B460" r:id="rId459" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{AC2A39E4-3944-4232-ACDA-412BA5153452}"/>
-    <hyperlink ref="B461" r:id="rId460" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{A5E6EE87-02B8-43CB-B4DD-41EE69A6F030}"/>
-    <hyperlink ref="B462" r:id="rId461" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{62BA1765-DE02-43F8-8932-18E1B0000E03}"/>
-    <hyperlink ref="B463" r:id="rId462" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{C3E1FFB8-D15F-4E0A-BC72-89476B783D2B}"/>
-    <hyperlink ref="B464" r:id="rId463" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{9092447E-1A8C-4042-B344-057EA515D891}"/>
-    <hyperlink ref="B465" r:id="rId464" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{1E78194B-E69B-4D66-9538-67903D9CFA3E}"/>
-    <hyperlink ref="B466" r:id="rId465" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{6231443E-A346-4862-81FB-9BC2F00E54B7}"/>
-    <hyperlink ref="B467" r:id="rId466" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{6D44BAC6-B1C1-43D6-B48D-B472FEA54EC9}"/>
-    <hyperlink ref="B468" r:id="rId467" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{EA964502-C3A7-4CC2-BECB-F40EACE5BBE3}"/>
-    <hyperlink ref="B469" r:id="rId468" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{4F539457-ED36-4995-A9C7-A5835EB87A04}"/>
-    <hyperlink ref="B470" r:id="rId469" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{03E1B5B4-63C2-41CE-962B-B1B0E4525BC0}"/>
-    <hyperlink ref="B471" r:id="rId470" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{6BA3AC7F-F520-44E2-BB8F-9CE5A2707EA9}"/>
-    <hyperlink ref="B472" r:id="rId471" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{249C00F4-5CAB-4C7E-A694-FC66C2F92582}"/>
-    <hyperlink ref="B473" r:id="rId472" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{5D0989A7-8C42-473C-A25F-229F8FDCD5E3}"/>
-    <hyperlink ref="B474" r:id="rId473" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{BFF66C53-34B7-4EB5-9439-51EE4095CD80}"/>
-    <hyperlink ref="B475" r:id="rId474" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{875A2461-09EF-4E75-A724-BB359DD6DC6D}"/>
-    <hyperlink ref="B476" r:id="rId475" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{C7C74E37-D1C1-4B4E-8022-752F5A94A21D}"/>
-    <hyperlink ref="B477" r:id="rId476" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{E6CD68A4-30FC-4528-8329-6E7852C93781}"/>
-    <hyperlink ref="B478" r:id="rId477" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{75E508E1-0AAD-441D-9978-A9FF0E044313}"/>
-    <hyperlink ref="B479" r:id="rId478" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{B4B9FCAA-CFFD-4976-B11F-68655E4C21C1}"/>
-    <hyperlink ref="B480" r:id="rId479" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{8A2CCDE6-0A62-4B85-A0A0-21396ABAD673}"/>
-    <hyperlink ref="B481" r:id="rId480" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{6E3429E9-F5C3-4F61-A095-8AAD12A03648}"/>
-    <hyperlink ref="B482" r:id="rId481" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{53FFEC6F-7F73-4704-BF2E-2FEFD95C2789}"/>
-    <hyperlink ref="B483" r:id="rId482" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{67D780F5-56AA-4BAF-9946-BDFFA5D2853C}"/>
-    <hyperlink ref="B484" r:id="rId483" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{B9A646D1-C259-4928-9577-1D9102DD9C42}"/>
-    <hyperlink ref="B485" r:id="rId484" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{CD92633C-DA17-45B2-9398-0C8D58E9D772}"/>
-    <hyperlink ref="B486" r:id="rId485" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{F646CB17-C5EB-4E70-A3D1-3C4042691473}"/>
-    <hyperlink ref="B487" r:id="rId486" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{78A5DD8B-27DA-449D-9B58-577BB332E2D3}"/>
-    <hyperlink ref="B488" r:id="rId487" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{017FD7F2-065E-4DE1-B3E4-D7B438845703}"/>
-    <hyperlink ref="B489" r:id="rId488" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{45B8B0DB-A233-4B55-862C-B900FCF51266}"/>
-    <hyperlink ref="B490" r:id="rId489" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{A588D08A-8DE6-4619-8968-43CFC333B7C4}"/>
-    <hyperlink ref="B491" r:id="rId490" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{ED68F24D-6DCB-411D-AEBE-579DB360D700}"/>
-    <hyperlink ref="B492" r:id="rId491" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{1D3F9DEA-613A-49A3-A498-BC902CA44F2C}"/>
-    <hyperlink ref="B493" r:id="rId492" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{2AB12218-4D3C-4E1C-AAA4-DF135DE8A0A4}"/>
-    <hyperlink ref="B494" r:id="rId493" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{122C2EB8-D831-43EC-884B-87349F9D657D}"/>
-    <hyperlink ref="B495" r:id="rId494" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{4FEFC7DD-D9F3-4555-B7D9-0D8A2B843B9D}"/>
-    <hyperlink ref="B496" r:id="rId495" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{D74E9D57-96A1-43C6-98A0-2AEDC8599BEA}"/>
-    <hyperlink ref="B497" r:id="rId496" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{757991D9-7825-49A4-B4CC-402970542912}"/>
-    <hyperlink ref="B498" r:id="rId497" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{7B354DA5-9C62-4199-B2D6-03096EDA0676}"/>
-    <hyperlink ref="B499" r:id="rId498" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{ACC931D1-D78B-400C-B7D0-FAF770221457}"/>
-    <hyperlink ref="B500" r:id="rId499" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{7428D80D-C852-41AD-B45D-9CC0E82B0E77}"/>
-    <hyperlink ref="B501" r:id="rId500" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{CD3BED48-A8A8-4424-914A-9B8B8D37ED46}"/>
-    <hyperlink ref="B502" r:id="rId501" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{11B42407-FF7B-4B84-9C0E-AC86FD4F329A}"/>
-    <hyperlink ref="B503" r:id="rId502" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{2EC426A0-41E2-40F0-9682-F9FA14132263}"/>
-    <hyperlink ref="B504" r:id="rId503" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{64787C04-4F2F-49E3-8509-15CE1B42C626}"/>
-    <hyperlink ref="B505" r:id="rId504" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{211AC364-F99D-4AD2-8D54-31D906AB3B33}"/>
-    <hyperlink ref="B506" r:id="rId505" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{188F4D1B-0353-4943-81E2-8D4072834425}"/>
-    <hyperlink ref="B507" r:id="rId506" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{33A44D45-571D-468F-8674-8B769C071E26}"/>
-    <hyperlink ref="B508" r:id="rId507" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{E0CEA95B-BAC5-4F86-89AA-19FE504DEB05}"/>
-    <hyperlink ref="B509" r:id="rId508" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{D95E2CE9-1ED0-48D4-AF16-E7CF90CA4FFF}"/>
-    <hyperlink ref="B510" r:id="rId509" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{923AE0B9-F795-406B-8C74-021B793FA37D}"/>
-    <hyperlink ref="B511" r:id="rId510" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{30BA14D1-4846-4D76-AB32-0D31077F88D3}"/>
-    <hyperlink ref="B512" r:id="rId511" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{80D9FE93-AB00-4493-8E0A-021FEA290C8B}"/>
-    <hyperlink ref="B513" r:id="rId512" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{6DCED198-1B24-4038-84E9-F043BAA36B55}"/>
-    <hyperlink ref="B514" r:id="rId513" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{1DE3A312-0C91-4C94-9652-F5E4B03F01FA}"/>
-    <hyperlink ref="B515" r:id="rId514" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{D6F23A45-6C60-40C6-B5F6-33345CAF9013}"/>
-    <hyperlink ref="B516" r:id="rId515" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{07AE75B3-88B3-4A61-9AE4-A086BADBD0AE}"/>
-    <hyperlink ref="B517" r:id="rId516" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{9FCF0F7A-1784-4875-A1C3-456543F9ED73}"/>
-    <hyperlink ref="B518" r:id="rId517" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{E768C849-4847-4DC5-9D78-06A1A5135FA6}"/>
-    <hyperlink ref="B519" r:id="rId518" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{2D3E7549-793A-4222-8C65-A433B77BA4DB}"/>
-    <hyperlink ref="B520" r:id="rId519" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{ABB6513D-A064-4BAA-B4B2-26D2EA985F5B}"/>
-    <hyperlink ref="B521" r:id="rId520" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{6C0758B5-6F54-4D99-9EEC-E4E572422D48}"/>
-    <hyperlink ref="B522" r:id="rId521" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{8C420500-63F8-4625-8F4F-B4BDF137C6F0}"/>
-    <hyperlink ref="B523" r:id="rId522" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{E2EFD4CA-9CA2-455C-8C9C-126B4A056937}"/>
-    <hyperlink ref="B524" r:id="rId523" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{AA80E77B-4834-4EDA-9626-513CD576708A}"/>
-    <hyperlink ref="B525" r:id="rId524" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{83FA665E-7135-4827-A174-AE6585F167AE}"/>
-    <hyperlink ref="B526" r:id="rId525" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{DBB52557-2A87-41EA-920C-598DBD5A4AD0}"/>
-    <hyperlink ref="B527" r:id="rId526" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{5640E184-2A7F-471D-A2C6-545E3A5BB810}"/>
-    <hyperlink ref="B528" r:id="rId527" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{283B021E-9069-4FE4-AA78-ABF2A59985CC}"/>
-    <hyperlink ref="B529" r:id="rId528" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{1EBB9AB3-C7E7-4BC0-B1C9-DF5D7F2B314D}"/>
-    <hyperlink ref="B530" r:id="rId529" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{3D845054-7FAF-4A0C-8978-BD1F562FD24D}"/>
-    <hyperlink ref="B531" r:id="rId530" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{912CECB8-5489-4410-895B-86EC31F16A0C}"/>
-    <hyperlink ref="B532" r:id="rId531" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{9FC558E8-BC0A-49C5-B75E-1ADCE4A78592}"/>
-    <hyperlink ref="B533" r:id="rId532" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{F41BB1EF-B0AC-49F0-B8BC-FA7DF1A89EB0}"/>
-    <hyperlink ref="B534" r:id="rId533" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{69827ECB-7B8C-49D8-81D7-635C1F2A3889}"/>
-    <hyperlink ref="B535" r:id="rId534" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{A16D1BD6-4651-4A7E-A589-EB94A681DB41}"/>
-    <hyperlink ref="B536" r:id="rId535" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{33D973A1-7718-41C4-9959-EA1864436042}"/>
-    <hyperlink ref="B537" r:id="rId536" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{41B2830E-6EE9-46C5-B979-64C440CAFCA0}"/>
-    <hyperlink ref="B538" r:id="rId537" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{1773F004-3962-464C-96A6-890DAED92C54}"/>
-    <hyperlink ref="B539" r:id="rId538" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{D7FF09CA-E517-4846-B2E1-141033DEB92B}"/>
-    <hyperlink ref="B540" r:id="rId539" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{044326FD-4B27-471B-80FE-859D357CE70C}"/>
-    <hyperlink ref="B541" r:id="rId540" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{C679E49E-FE38-4AE3-8CF0-591AF71F2542}"/>
-    <hyperlink ref="B542" r:id="rId541" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{A6994290-63F9-4265-9639-BDC1B0AE28A1}"/>
-    <hyperlink ref="B543" r:id="rId542" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{F1A81D9A-0619-484B-A28E-BBC512824803}"/>
-    <hyperlink ref="B544" r:id="rId543" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{87060BFF-F1C8-42E3-B7F5-E4FBB9BDBEB7}"/>
-    <hyperlink ref="B545" r:id="rId544" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{21AF296F-C1CB-4946-BD6C-755701966306}"/>
-    <hyperlink ref="B546" r:id="rId545" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{EF683061-647A-476E-A9F7-B5E00C38FD86}"/>
-    <hyperlink ref="B547" r:id="rId546" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{32B8614B-2DDB-459B-AB19-4D3814D39B38}"/>
-    <hyperlink ref="B548" r:id="rId547" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{09ED3796-3ABA-4799-AD37-E410F294CA61}"/>
-    <hyperlink ref="B549" r:id="rId548" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{7346A9D8-8A36-4175-9DB6-F6BB78CC09CB}"/>
-    <hyperlink ref="B550" r:id="rId549" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{0EB6CACD-CF72-492F-81C5-4148FF3160AB}"/>
-    <hyperlink ref="B551" r:id="rId550" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{3FC8B90E-9826-4CFF-B495-0BFA2D254B15}"/>
-    <hyperlink ref="B552" r:id="rId551" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{23ABE0C8-D9CC-4954-A1F3-5C59111BE650}"/>
-    <hyperlink ref="B553" r:id="rId552" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{E0BB417D-3F65-4531-9B27-B19A23AB83E0}"/>
-    <hyperlink ref="B554" r:id="rId553" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{EBB97022-1C3A-436A-84B3-F8B264BBA0C7}"/>
-    <hyperlink ref="B555" r:id="rId554" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{0A78CAFB-19CB-4A78-B13A-44EC9CF36CDB}"/>
-    <hyperlink ref="B556" r:id="rId555" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{F7EBA6A8-92F1-4610-8D14-31C03AE30D4C}"/>
-    <hyperlink ref="B557" r:id="rId556" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{D106D439-5823-4962-8E90-138CF3103F97}"/>
-    <hyperlink ref="B558" r:id="rId557" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{D1C73434-AF11-4674-A49C-4CA12FC227BE}"/>
-    <hyperlink ref="B559" r:id="rId558" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{621B517E-1FDE-4845-A93E-6DD0CC2F4495}"/>
-    <hyperlink ref="B560" r:id="rId559" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{B406251C-3C26-49A3-BD91-415888306AE4}"/>
-    <hyperlink ref="B561" r:id="rId560" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{A8359F5E-3389-41F6-89A2-55AD6786EAB2}"/>
-    <hyperlink ref="B562" r:id="rId561" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{3E0694D2-8CEA-4950-9AEC-806BB47E03D5}"/>
-    <hyperlink ref="B563" r:id="rId562" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{441DD825-E16B-4E15-818B-62FD65B3E7CB}"/>
-    <hyperlink ref="B564" r:id="rId563" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{570D0ADE-B625-44EF-9BBB-51ECA613BDDE}"/>
-    <hyperlink ref="B565" r:id="rId564" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{07B8D25F-13E0-46DB-A8D9-20E11CAF7877}"/>
-    <hyperlink ref="B566" r:id="rId565" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{60AB386F-1601-4604-802F-88E1E40C65FB}"/>
-    <hyperlink ref="B567" r:id="rId566" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{DD1A592D-BCB4-4FED-957B-E8DD8800C2BE}"/>
-    <hyperlink ref="B568" r:id="rId567" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{CAFC5D63-CBF3-4C7B-9882-EED553420162}"/>
-    <hyperlink ref="B569" r:id="rId568" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{9A2ECE6A-2961-46DF-B022-90430094F83D}"/>
-    <hyperlink ref="B570" r:id="rId569" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{3D51CB28-B0BD-49DC-913E-A667C27A4472}"/>
-    <hyperlink ref="B571" r:id="rId570" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{D67FE6BF-87F8-4AB8-8DBA-4A1EEEEE7827}"/>
-    <hyperlink ref="B572" r:id="rId571" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{B6CA24A9-351A-4251-B05D-9BF677D00CBA}"/>
-    <hyperlink ref="B573" r:id="rId572" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{DC221050-9BF4-49FB-BAE1-A1E1E9BB3492}"/>
-    <hyperlink ref="B574" r:id="rId573" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{24A301C6-E49B-4DAB-8267-9BE8496026E5}"/>
-    <hyperlink ref="B575" r:id="rId574" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{91EF76BD-DC20-43D8-BB88-A519F4EF41E1}"/>
-    <hyperlink ref="B576" r:id="rId575" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{CFF144B9-F31B-41B5-BE5E-006B0669DD9E}"/>
-    <hyperlink ref="B577" r:id="rId576" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{95C58BD1-E3BA-4FEE-999C-38C058499344}"/>
-    <hyperlink ref="B578" r:id="rId577" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{35E3F954-5C88-4A35-A36C-C5337C359F63}"/>
-    <hyperlink ref="B579" r:id="rId578" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{E703F73D-E24D-44FC-8EB8-854865580C22}"/>
-    <hyperlink ref="B580" r:id="rId579" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{9CC94723-F779-40E6-A464-5CB37B7332FF}"/>
-    <hyperlink ref="B581" r:id="rId580" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{DF1DE1A7-FB8B-46AD-B56C-25FE3D0A51E6}"/>
-    <hyperlink ref="B582" r:id="rId581" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{BEC68843-3425-46E1-BA8B-63C1D394EE98}"/>
-    <hyperlink ref="B583" r:id="rId582" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{CE160C7F-6C8A-4929-8E3B-8987C5B84C09}"/>
-    <hyperlink ref="B584" r:id="rId583" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{B66B987A-D6A7-4522-8BC2-94400AB75C51}"/>
-    <hyperlink ref="B585" r:id="rId584" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{F07E1562-DFF4-4C85-9B8F-03C89DBF8D34}"/>
-    <hyperlink ref="B586" r:id="rId585" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{439562FF-193C-403B-87D9-5E644A58F54E}"/>
-    <hyperlink ref="B587" r:id="rId586" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{5DD49ED0-7917-411E-9860-CCCE2FF05A8A}"/>
-    <hyperlink ref="B588" r:id="rId587" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{66B12F30-1D0F-4708-9C06-24F76666CBAC}"/>
-    <hyperlink ref="B589" r:id="rId588" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{0C12B3B7-3E0D-41EE-BC1F-4BF671A645F4}"/>
-    <hyperlink ref="B590" r:id="rId589" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{CD160F8E-393B-4820-815A-194F850A64BD}"/>
-    <hyperlink ref="B591" r:id="rId590" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{037F9D88-7D54-4E37-ABAA-221E4A7A6E38}"/>
-    <hyperlink ref="B592" r:id="rId591" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{3D0143F3-2B62-42EA-965E-CE36FFF4C741}"/>
-    <hyperlink ref="B593" r:id="rId592" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{30E78A02-DC0E-40D3-8863-B8BCBE5BB939}"/>
-    <hyperlink ref="B594" r:id="rId593" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{7F34979B-DA09-4906-B60D-04651203C86A}"/>
-    <hyperlink ref="B595" r:id="rId594" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{193FF426-6FFE-4B4C-A6C5-D5F648E57951}"/>
-    <hyperlink ref="B596" r:id="rId595" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{3DE64119-17AB-41BB-9306-DF8A5A948734}"/>
-    <hyperlink ref="B597" r:id="rId596" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{4DB537CA-E853-413D-B21F-0E118AA52BC9}"/>
-    <hyperlink ref="B598" r:id="rId597" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{F41FB329-49C2-4E87-94D9-F1782D34D491}"/>
-    <hyperlink ref="B599" r:id="rId598" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{A46CC8E4-4182-4BAB-AEE4-DA77103ED078}"/>
-    <hyperlink ref="B600" r:id="rId599" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{2FA4ED2C-9E70-4B6B-84FB-34052E6C23E4}"/>
-    <hyperlink ref="B601" r:id="rId600" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{8357617A-B5C5-42CD-8D1A-EB27FB6369CA}"/>
-    <hyperlink ref="B602" r:id="rId601" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{61D44628-558D-40E1-93C1-58E1C061F646}"/>
-    <hyperlink ref="B603" r:id="rId602" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{4049078A-AF2B-4663-9044-22D2D609889A}"/>
-    <hyperlink ref="B604" r:id="rId603" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{36368F06-9299-464F-A3D4-CA72C8940254}"/>
-    <hyperlink ref="B605" r:id="rId604" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{E039B769-9537-4C71-A3B8-3496FC08AAEB}"/>
-    <hyperlink ref="B606" r:id="rId605" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{C4877A9F-0648-403C-BDED-5491FE3453A0}"/>
-    <hyperlink ref="B607" r:id="rId606" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{E1490B6D-6F7D-4C2F-95CF-6C368F055861}"/>
-    <hyperlink ref="B608" r:id="rId607" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{78FC071F-E6FB-4A8F-8B97-C0C71BE73AE8}"/>
-    <hyperlink ref="B609" r:id="rId608" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{A37AEC63-595D-42AE-A7F7-D34C5D6D910A}"/>
-    <hyperlink ref="B610" r:id="rId609" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{9F687167-3198-4F38-B802-A450ECEBBEF8}"/>
-    <hyperlink ref="B611" r:id="rId610" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{CB7EF311-B7CA-49BE-92A5-19E486795F74}"/>
-    <hyperlink ref="B612" r:id="rId611" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{6373C204-AF70-4521-938E-966144CDAA28}"/>
-    <hyperlink ref="B613" r:id="rId612" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{FDA7A017-4567-46DA-99D0-44E7A9E84283}"/>
-    <hyperlink ref="B614" r:id="rId613" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{B4408E17-0AEF-4A6F-8843-D4B2F53B22DB}"/>
-    <hyperlink ref="B615" r:id="rId614" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{910FBE95-D75E-44E3-925F-21E0FDCD890C}"/>
-    <hyperlink ref="B616" r:id="rId615" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{212474BF-E976-47D1-A9A5-54D48A8F7368}"/>
-    <hyperlink ref="B617" r:id="rId616" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{25AA6FCA-CD2F-4AF3-9A3C-F3CDAD66BB8F}"/>
-    <hyperlink ref="B618" r:id="rId617" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{887971BC-9417-4A0C-AF68-4FF80624E152}"/>
-    <hyperlink ref="B619" r:id="rId618" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{A3949554-3A2D-4FC3-9026-AFD75571502D}"/>
-    <hyperlink ref="B620" r:id="rId619" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{9E005C9B-F191-452B-8A27-DCEA9A875196}"/>
-    <hyperlink ref="B621" r:id="rId620" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{646A3DE1-5C0E-41BB-A258-28A02B7EEBB4}"/>
-    <hyperlink ref="B622" r:id="rId621" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{66361E7F-F372-4545-AA77-4EFE32AB545C}"/>
-    <hyperlink ref="B623" r:id="rId622" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{76F4838A-DDB5-408D-BA46-E926EEE37F26}"/>
-    <hyperlink ref="B624" r:id="rId623" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{702F85C4-95A3-4D35-8512-2116AFF3AA31}"/>
-    <hyperlink ref="B625" r:id="rId624" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{269A62E2-D19E-4FF4-A509-E607EEA6B9FC}"/>
-    <hyperlink ref="B626" r:id="rId625" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{FF1B688A-EF7E-4ED4-8807-0E1B2DBE8103}"/>
-    <hyperlink ref="B627" r:id="rId626" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{C8D61331-F90D-4086-A0EA-60763802BB9B}"/>
-    <hyperlink ref="B628" r:id="rId627" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{050688E3-3252-4EEA-8364-1BB3F9958875}"/>
-    <hyperlink ref="B629" r:id="rId628" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{C0ADABB1-7904-4080-AEB5-9A0FF84935D4}"/>
-    <hyperlink ref="B630" r:id="rId629" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{40408F82-000E-434F-A1E7-FD19B2ED08E1}"/>
-    <hyperlink ref="B631" r:id="rId630" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{59B84310-872F-4A4D-96D9-754667D35661}"/>
-    <hyperlink ref="B632" r:id="rId631" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{03EEFED7-DF16-4353-9962-C4089A3DC3D6}"/>
-    <hyperlink ref="B633" r:id="rId632" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{92DEBD18-9FBD-4553-9CE6-F26B8F6AED24}"/>
-    <hyperlink ref="B634" r:id="rId633" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{6EB9688E-26E5-4A30-96A7-31123B70E6A7}"/>
-    <hyperlink ref="B635" r:id="rId634" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{CE4FB230-9A82-4151-8828-8C2138FD64DE}"/>
-    <hyperlink ref="B636" r:id="rId635" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{8825999D-E40E-4529-A89D-DA2DCD6D472F}"/>
-    <hyperlink ref="B637" r:id="rId636" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{26B87D17-A1C8-4BCF-8770-60571D0F0850}"/>
-    <hyperlink ref="B638" r:id="rId637" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{49A0D06A-E5E9-4EDB-97AA-D6F3A963DD8D}"/>
-    <hyperlink ref="B639" r:id="rId638" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{9B64D6D5-31BF-4209-8F82-8C472AB1A7D2}"/>
-    <hyperlink ref="B640" r:id="rId639" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{A65131C5-1607-4F70-A242-91DA8D342C13}"/>
-    <hyperlink ref="B641" r:id="rId640" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{4C636A59-199C-4CFD-BBE3-D1E14EE97499}"/>
-    <hyperlink ref="B642" r:id="rId641" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{56E22A2B-7788-4921-BF7E-E77F882BCFCC}"/>
-    <hyperlink ref="B643" r:id="rId642" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{2A80D0C6-3966-484E-9C57-D59F6E6E78FE}"/>
-    <hyperlink ref="B644" r:id="rId643" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{F049A965-3B38-4943-AC13-1262334F2735}"/>
-    <hyperlink ref="B645" r:id="rId644" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{7E3F5670-0B0A-404D-B413-DFB7836AA028}"/>
-    <hyperlink ref="B646" r:id="rId645" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{96C781A3-AE14-4BBE-AC28-60B3004D5909}"/>
-    <hyperlink ref="B647" r:id="rId646" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{78400785-029C-4FE0-A8C8-999A3FC633A5}"/>
-    <hyperlink ref="B648" r:id="rId647" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{1B2D9562-019A-4049-9A7B-A62EA64D9565}"/>
-    <hyperlink ref="B649" r:id="rId648" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{FB92E03D-8452-41FE-8AA4-61CF567E206E}"/>
-    <hyperlink ref="B650" r:id="rId649" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{77FC0335-14B0-41FC-856D-9F59EB423D07}"/>
-    <hyperlink ref="B651" r:id="rId650" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{CEEB9EEC-32C3-4EAB-9D0B-8413CE1976DE}"/>
-    <hyperlink ref="B652" r:id="rId651" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{202B3D23-D7BC-449E-B23B-15697342D8CA}"/>
-    <hyperlink ref="B653" r:id="rId652" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{6046B02E-4C1E-40D4-96F5-5F87C952E1D6}"/>
-    <hyperlink ref="B654" r:id="rId653" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{0697B461-7E5A-4BD7-9049-4837D9B89FDB}"/>
-    <hyperlink ref="B655" r:id="rId654" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{A07063EC-DA8D-4306-A515-579D89B1BEB2}"/>
-    <hyperlink ref="B656" r:id="rId655" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{10F9EFB2-F547-4A9C-97CA-5798F4A41960}"/>
-    <hyperlink ref="B657" r:id="rId656" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{02F42EA0-18BD-4B65-A27E-BF900DA217BF}"/>
-    <hyperlink ref="B658" r:id="rId657" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{B3611025-5789-48E4-A989-A1104105D4F6}"/>
-    <hyperlink ref="B659" r:id="rId658" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{2E7DFBF1-DBDB-4329-9CDA-B590DF72F102}"/>
-    <hyperlink ref="B660" r:id="rId659" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{61428DD1-5B4A-4302-A34E-1320FC66FC2D}"/>
-    <hyperlink ref="B661" r:id="rId660" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{F988066C-643D-405D-B492-F5E9821FB235}"/>
-    <hyperlink ref="B662" r:id="rId661" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{06A8FE0C-937D-4E19-B9D3-1745BAE36861}"/>
-    <hyperlink ref="B663" r:id="rId662" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{4B37F497-B36C-415F-88B9-7852370EE600}"/>
-    <hyperlink ref="B664" r:id="rId663" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{BB9B08F2-C384-4D90-95A6-7C1066FE6C52}"/>
-    <hyperlink ref="B665" r:id="rId664" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{6652A69C-F986-4468-878D-A641642B8DE7}"/>
-    <hyperlink ref="B666" r:id="rId665" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{D2F47EB0-2778-4EBF-A780-A9677D5D5C7F}"/>
-    <hyperlink ref="B667" r:id="rId666" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{FF8A6769-1305-4103-AF07-8A6BCD7AFDB9}"/>
-    <hyperlink ref="B668" r:id="rId667" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{55308AC4-6918-4ABB-A0F6-DCDCC0205E1E}"/>
-    <hyperlink ref="B669" r:id="rId668" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{6B9D1C72-B978-4260-A4B0-26E2E0744370}"/>
-    <hyperlink ref="B670" r:id="rId669" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{44065B61-FA00-40AB-94A2-4956DF30C405}"/>
-    <hyperlink ref="B671" r:id="rId670" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{E8996849-F0EE-4E3B-B36B-544385147AE6}"/>
-    <hyperlink ref="B672" r:id="rId671" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{CEAF7B34-862A-4498-B6A9-6C512FFAEE50}"/>
-    <hyperlink ref="B673" r:id="rId672" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{1064A2C0-CB3A-402E-86A4-63DBC492B3C0}"/>
-    <hyperlink ref="B674" r:id="rId673" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{953D93AD-9710-4AA4-8F0F-B855889F605C}"/>
-    <hyperlink ref="B675" r:id="rId674" display="https://www.nba.com/stats/team/1610612745/" xr:uid="{BC7894FB-22FC-4FB8-94C5-F0B78404307C}"/>
-    <hyperlink ref="B676" r:id="rId675" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{93310717-9B1A-4E62-BDB2-4BCABBF8BE3B}"/>
-    <hyperlink ref="B677" r:id="rId676" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{217715F5-C982-46A9-86D7-E6141D59E59C}"/>
-    <hyperlink ref="B678" r:id="rId677" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{77649C87-4A0A-4C7B-A039-7FEDB7CDC2DB}"/>
-    <hyperlink ref="B679" r:id="rId678" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{C4C3BDB9-AD23-49A0-8955-1A98BFEA0B04}"/>
-    <hyperlink ref="B680" r:id="rId679" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{BC785709-FC3D-4359-9E1E-263F79C649C3}"/>
-    <hyperlink ref="B681" r:id="rId680" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{6D193FA6-C39F-456A-BCB9-AA0473DF2A8E}"/>
-    <hyperlink ref="B682" r:id="rId681" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{4D44EDAD-419E-4E90-8211-CE1FE3D5A863}"/>
-    <hyperlink ref="B683" r:id="rId682" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{A4BACE17-E488-4C58-BBFA-B6EDE23074B4}"/>
-    <hyperlink ref="B684" r:id="rId683" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{0E4A48F9-3E2E-43C1-84FC-B5D889D4DE4F}"/>
-    <hyperlink ref="B685" r:id="rId684" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{62C87C30-B99D-46BB-9A06-1CFEC2A1B6D5}"/>
-    <hyperlink ref="B686" r:id="rId685" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{620890EB-83A8-4997-81DA-245465DC36B3}"/>
-    <hyperlink ref="B687" r:id="rId686" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{3A7F3B14-E201-4677-B4B6-35C4FF7C25DE}"/>
-    <hyperlink ref="B688" r:id="rId687" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{8F758E66-163F-4DA9-A0FD-93BA4CEE4A22}"/>
-    <hyperlink ref="B689" r:id="rId688" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{5CFC1C1E-ADE6-4D8E-A818-FFE8C0F4DA2C}"/>
-    <hyperlink ref="B690" r:id="rId689" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{B2058E45-86A3-4AF9-B3C2-97DB4D2F67EA}"/>
-    <hyperlink ref="B691" r:id="rId690" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{8A6CECDE-F0F1-4327-9496-3A914CA2713E}"/>
-    <hyperlink ref="B692" r:id="rId691" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{A747242F-DFB9-4F2D-BE56-D69429F58126}"/>
-    <hyperlink ref="B693" r:id="rId692" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{DFE5CEFA-D6D2-42DA-8AA1-BD0213259B87}"/>
-    <hyperlink ref="B694" r:id="rId693" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{A8278BA2-8221-4919-9ED5-E3C72971C9C7}"/>
-    <hyperlink ref="B695" r:id="rId694" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{3D8C132E-FCFA-45A0-B549-300CCC72A4C4}"/>
-    <hyperlink ref="B696" r:id="rId695" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{101D7F3B-C433-449F-A2BE-C6C79968D125}"/>
-    <hyperlink ref="B697" r:id="rId696" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{C7790286-2816-4187-9FB5-13CEBEF73DEB}"/>
-    <hyperlink ref="B698" r:id="rId697" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{68AC9A02-2BC2-48D9-849C-A25C0543162F}"/>
-    <hyperlink ref="B699" r:id="rId698" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{14561E3A-9243-4F6A-A4E8-0F96ADDA8EA0}"/>
-    <hyperlink ref="B700" r:id="rId699" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{ED58DB97-399F-40AA-B340-2D13BA831055}"/>
-    <hyperlink ref="B701" r:id="rId700" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{E4C62DF7-E880-46BD-AD3B-C7B750EE9DBF}"/>
-    <hyperlink ref="B702" r:id="rId701" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{72355B37-F0E4-4F13-B0A9-8FF703406134}"/>
-    <hyperlink ref="B703" r:id="rId702" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{4B1DFA39-4C2C-4BBE-9E39-84F054D9B9A5}"/>
-    <hyperlink ref="B704" r:id="rId703" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{C9B89F57-3A07-40D7-8333-EF6B8438DD98}"/>
-    <hyperlink ref="B705" r:id="rId704" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{DDCA8183-110B-4663-B3FA-885706F52549}"/>
-    <hyperlink ref="B706" r:id="rId705" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{A496F131-C5AC-4E02-A906-C024D506D5FF}"/>
-    <hyperlink ref="B707" r:id="rId706" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{2FFCC0C1-A875-4912-AA51-C61599252EA4}"/>
-    <hyperlink ref="B708" r:id="rId707" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{28D4607D-89D2-4D7B-9E25-DBF052DAEBFA}"/>
-    <hyperlink ref="B709" r:id="rId708" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{813DE212-09FC-480F-AB9C-C7B2FBB9A808}"/>
-    <hyperlink ref="B710" r:id="rId709" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{A262C29D-A0E2-4C00-B05D-109331F8B7BE}"/>
-    <hyperlink ref="B711" r:id="rId710" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{C41B9013-B7D5-4936-B5EC-1E3B4B716077}"/>
-    <hyperlink ref="B712" r:id="rId711" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{19893460-D948-4FF8-86B8-10DC327F2CFB}"/>
-    <hyperlink ref="B713" r:id="rId712" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{4DBE52EE-DC77-427F-97A3-A17D331DE183}"/>
-    <hyperlink ref="B714" r:id="rId713" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{7C6916E3-1120-41A1-ABEA-F66773EDB973}"/>
-    <hyperlink ref="B715" r:id="rId714" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{0BC9C579-C642-460B-8E8C-D0F279950C6D}"/>
-    <hyperlink ref="B716" r:id="rId715" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{2B58EE44-5188-4B7F-BD74-3F3912EDCCD2}"/>
-    <hyperlink ref="B717" r:id="rId716" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{1C01ED9D-C2E9-41E6-B0E1-FC4C71477D65}"/>
-    <hyperlink ref="B718" r:id="rId717" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{D8AF50D3-9A2B-4453-A158-E0198EDFBBE9}"/>
-    <hyperlink ref="B719" r:id="rId718" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{6F7D6E7A-B8A5-4399-A113-FF8EDB6E12B5}"/>
-    <hyperlink ref="B720" r:id="rId719" display="https://www.nba.com/stats/team/1610612753/" xr:uid="{082AA127-A1EE-4C73-B2FD-42579A3D467A}"/>
-    <hyperlink ref="B721" r:id="rId720" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{16301E75-8B6F-407D-80FA-AD768841A664}"/>
-    <hyperlink ref="B722" r:id="rId721" display="https://www.nba.com/stats/team/1610612746/" xr:uid="{8E2AFEE0-5746-438C-9A98-97B079186B6A}"/>
-    <hyperlink ref="B723" r:id="rId722" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{DAF96F70-34A1-4713-87EE-A14B1082270C}"/>
-    <hyperlink ref="B724" r:id="rId723" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{9714C183-5871-4AE3-88A3-AE2844B4AD4E}"/>
-    <hyperlink ref="B725" r:id="rId724" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{F2AB5121-02A2-4A1B-8F9C-5E2BE3C1DAA7}"/>
-    <hyperlink ref="B726" r:id="rId725" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{161B9EF1-7CD1-448F-A016-0FA8B2397E51}"/>
-    <hyperlink ref="B727" r:id="rId726" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{3218097F-D869-466B-AF78-53DFD1D4C03A}"/>
-    <hyperlink ref="B728" r:id="rId727" display="https://www.nba.com/stats/team/1610612744/" xr:uid="{4B8A36AB-3703-48F9-905D-E8D51BCFDFFC}"/>
-    <hyperlink ref="B729" r:id="rId728" display="https://www.nba.com/stats/team/1610612752/" xr:uid="{B5F07EBF-CAC6-4E2F-A128-8AAD20CE51CE}"/>
-    <hyperlink ref="B730" r:id="rId729" display="https://www.nba.com/stats/team/1610612761/" xr:uid="{083BE7CA-A828-4728-85A5-E1D3A1A93884}"/>
-    <hyperlink ref="B731" r:id="rId730" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{0781E60C-AB2D-4E1B-8AD1-D84528C5E7BC}"/>
-    <hyperlink ref="B732" r:id="rId731" display="https://www.nba.com/stats/team/1610612751/" xr:uid="{84B2C3A0-BF23-4AEA-A3BA-E6879805BD77}"/>
-    <hyperlink ref="B733" r:id="rId732" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{49944DFF-1421-4B5B-B621-64816A504B6E}"/>
-    <hyperlink ref="B734" r:id="rId733" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{8AC7BD08-C53D-4EAB-AAC7-1646F7D178DF}"/>
-    <hyperlink ref="B735" r:id="rId734" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{B37A99B6-25A4-4230-8415-3C1616925C9D}"/>
-    <hyperlink ref="B736" r:id="rId735" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{86E198C1-B6F4-4936-85CC-27B3F7F735F4}"/>
-    <hyperlink ref="B737" r:id="rId736" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{0963A5D2-61EA-4AC1-A0C7-5FE8D786EC43}"/>
-    <hyperlink ref="B738" r:id="rId737" display="https://www.nba.com/stats/team/1610612755/" xr:uid="{5587C758-F6C3-462D-B272-636F657A398E}"/>
-    <hyperlink ref="B739" r:id="rId738" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{A4760F65-2D24-4A66-B485-54AB046A6009}"/>
-    <hyperlink ref="B740" r:id="rId739" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{A71FAB3F-D412-44E3-BB90-73951B55C0B4}"/>
-    <hyperlink ref="B741" r:id="rId740" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{269E68A9-4ED2-4F62-A808-0113B122F523}"/>
-    <hyperlink ref="B742" r:id="rId741" display="https://www.nba.com/stats/team/1610612740/" xr:uid="{2EAEB796-56B4-4E61-B226-F57C620C3CDB}"/>
-    <hyperlink ref="B743" r:id="rId742" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{F2BFDEAE-395C-4736-9B0D-62689029A655}"/>
-    <hyperlink ref="B744" r:id="rId743" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{DB2FFA1D-DC95-4F57-895F-95D24342AAE0}"/>
-    <hyperlink ref="B745" r:id="rId744" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{BC56D1A6-7F29-45E7-B2D2-41E6B8BAE7D9}"/>
-    <hyperlink ref="B746" r:id="rId745" display="https://www.nba.com/stats/team/1610612760/" xr:uid="{1687FC27-3BED-4C3B-9735-9E3106FD046B}"/>
-    <hyperlink ref="B747" r:id="rId746" display="https://www.nba.com/stats/team/1610612741/" xr:uid="{B66F8AB8-01AE-4508-8BAB-C6F2A3AC8220}"/>
-    <hyperlink ref="B748" r:id="rId747" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{1F0FF268-6512-424F-B4E8-630D2C1778FB}"/>
-    <hyperlink ref="B749" r:id="rId748" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{DC96A442-F8BA-4BC4-BD53-073D7825C7F2}"/>
-    <hyperlink ref="B750" r:id="rId749" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{2DF76062-9F55-4C96-BBA3-C9F48F4D8422}"/>
-    <hyperlink ref="B751" r:id="rId750" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{3583BF54-072C-4E47-9FC8-398E27F57920}"/>
-    <hyperlink ref="B752" r:id="rId751" display="https://www.nba.com/stats/team/1610612758/" xr:uid="{AFD9477B-6C0A-45F1-BF6E-15B0EA439CD9}"/>
-    <hyperlink ref="B753" r:id="rId752" display="https://www.nba.com/stats/team/1610612764/" xr:uid="{AE405AED-1E89-4E50-8C84-0CF1DC467406}"/>
-    <hyperlink ref="B754" r:id="rId753" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{B7E4FE56-BE63-486B-9A93-A237622B85C8}"/>
-    <hyperlink ref="B755" r:id="rId754" display="https://www.nba.com/stats/team/1610612743/" xr:uid="{C2FAB24F-6883-4FC1-8B8A-D68E445E4C90}"/>
-    <hyperlink ref="B756" r:id="rId755" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{EF4F50C7-F929-4171-A518-696F7121F19F}"/>
-    <hyperlink ref="B757" r:id="rId756" display="https://www.nba.com/stats/team/1610612763/" xr:uid="{9AF43FFA-224D-4531-985F-77556EEBE295}"/>
-    <hyperlink ref="B758" r:id="rId757" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{26447A7A-895C-408A-925E-406334E707A6}"/>
-    <hyperlink ref="B759" r:id="rId758" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{F735F173-F8E4-4F9F-B93A-457EC9937C9E}"/>
-    <hyperlink ref="B760" r:id="rId759" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{4558B30D-531E-4BA5-8033-04067B4E3C57}"/>
-    <hyperlink ref="B761" r:id="rId760" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{FBFC4610-896F-4F07-BFDE-1B4FEC349002}"/>
-    <hyperlink ref="B762" r:id="rId761" display="https://www.nba.com/stats/team/1610612749/" xr:uid="{392A41DE-0999-4F90-A1D5-9F142E1C4031}"/>
-    <hyperlink ref="B763" r:id="rId762" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{E1DF49F3-85E2-441A-B04F-FADE94A2EA69}"/>
-    <hyperlink ref="B764" r:id="rId763" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{D474C405-F519-4984-BCB4-89B5CC055570}"/>
-    <hyperlink ref="B765" r:id="rId764" display="https://www.nba.com/stats/team/1610612765/" xr:uid="{87D3E0A3-FEFD-41C4-86D0-AEC68BD7B3EC}"/>
-    <hyperlink ref="B766" r:id="rId765" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{7332DA87-86BF-43E1-8452-AFEDDD1A329A}"/>
-    <hyperlink ref="B767" r:id="rId766" display="https://www.nba.com/stats/team/1610612739/" xr:uid="{61CC1162-2E77-4B69-9AE7-DEE53E427FC9}"/>
-    <hyperlink ref="B768" r:id="rId767" display="https://www.nba.com/stats/team/1610612750/" xr:uid="{8E7495FD-B8BF-4730-BCED-1486D4C2D7DD}"/>
-    <hyperlink ref="B769" r:id="rId768" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{B0937756-715A-49C0-B7E8-F9C78985155E}"/>
-    <hyperlink ref="B770" r:id="rId769" display="https://www.nba.com/stats/team/1610612737/" xr:uid="{D45608EF-2806-48E0-B9C2-86711DEF8DE2}"/>
-    <hyperlink ref="B771" r:id="rId770" display="https://www.nba.com/stats/team/1610612762/" xr:uid="{0D3610D7-F6C0-4AAE-B98C-FCACD4BA8782}"/>
-    <hyperlink ref="B772" r:id="rId771" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{F5FAAA5D-0384-4920-92D5-526816038460}"/>
-    <hyperlink ref="B773" r:id="rId772" display="https://www.nba.com/stats/team/1610612754/" xr:uid="{4B9E1659-789B-4A0E-8D7D-286A5FAFF749}"/>
-    <hyperlink ref="B774" r:id="rId773" display="https://www.nba.com/stats/team/1610612759/" xr:uid="{B1F8B3A8-CB20-4341-BC16-7E4B42CC4AE3}"/>
-    <hyperlink ref="B775" r:id="rId774" display="https://www.nba.com/stats/team/1610612766/" xr:uid="{CF3B563F-D4D0-4822-ACCF-2FB84F21EC6D}"/>
-    <hyperlink ref="B776" r:id="rId775" display="https://www.nba.com/stats/team/1610612757/" xr:uid="{5F5B60D7-5BF1-40DE-8703-FF76E90E2663}"/>
-    <hyperlink ref="B777" r:id="rId776" display="https://www.nba.com/stats/team/1610612742/" xr:uid="{D5933977-B1EE-429F-BC3F-F907016076AD}"/>
-    <hyperlink ref="B778" r:id="rId777" display="https://www.nba.com/stats/team/1610612756/" xr:uid="{790C26DD-C950-4473-A4D3-33ED5A8F2673}"/>
-    <hyperlink ref="B779" r:id="rId778" display="https://www.nba.com/stats/team/1610612738/" xr:uid="{7ABF8259-278E-4718-B5BA-116F54A53137}"/>
-    <hyperlink ref="B780" r:id="rId779" display="https://www.nba.com/stats/team/1610612747/" xr:uid="{B4EA070C-8F86-4286-A43D-3381ED637590}"/>
-    <hyperlink ref="B781" r:id="rId780" display="https://www.nba.com/stats/team/1610612748/" xr:uid="{D5047DFC-F5D7-432C-8948-1E18398A1F33}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B23" r:id="rId22" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B27" r:id="rId26" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B29" r:id="rId28" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B30" r:id="rId29" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B31" r:id="rId30" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B32" r:id="rId31" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B33" r:id="rId32" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B34" r:id="rId33" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B35" r:id="rId34" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B36" r:id="rId35" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B37" r:id="rId36" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B38" r:id="rId37" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B39" r:id="rId38" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B40" r:id="rId39" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B41" r:id="rId40" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B42" r:id="rId41" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B43" r:id="rId42" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B44" r:id="rId43" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B45" r:id="rId44" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B46" r:id="rId45" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B47" r:id="rId46" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B48" r:id="rId47" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B49" r:id="rId48" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B50" r:id="rId49" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B51" r:id="rId50" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B52" r:id="rId51" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B53" r:id="rId52" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B54" r:id="rId53" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B55" r:id="rId54" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B56" r:id="rId55" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B57" r:id="rId56" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B58" r:id="rId57" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B59" r:id="rId58" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B60" r:id="rId59" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B61" r:id="rId60" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B62" r:id="rId61" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B63" r:id="rId62" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B64" r:id="rId63" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B65" r:id="rId64" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B66" r:id="rId65" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B67" r:id="rId66" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B68" r:id="rId67" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B69" r:id="rId68" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B70" r:id="rId69" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B71" r:id="rId70" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B72" r:id="rId71" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B73" r:id="rId72" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B74" r:id="rId73" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B75" r:id="rId74" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B76" r:id="rId75" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B77" r:id="rId76" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B78" r:id="rId77" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B79" r:id="rId78" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B80" r:id="rId79" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B81" r:id="rId80" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B82" r:id="rId81" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B83" r:id="rId82" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B84" r:id="rId83" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B85" r:id="rId84" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B86" r:id="rId85" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B87" r:id="rId86" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B88" r:id="rId87" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B89" r:id="rId88" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B90" r:id="rId89" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B91" r:id="rId90" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B92" r:id="rId91" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B93" r:id="rId92" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B94" r:id="rId93" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B95" r:id="rId94" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B96" r:id="rId95" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B97" r:id="rId96" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B98" r:id="rId97" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B99" r:id="rId98" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B100" r:id="rId99" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B101" r:id="rId100" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B102" r:id="rId101" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B103" r:id="rId102" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B104" r:id="rId103" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B105" r:id="rId104" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B106" r:id="rId105" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B107" r:id="rId106" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B108" r:id="rId107" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B109" r:id="rId108" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B110" r:id="rId109" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B111" r:id="rId110" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B112" r:id="rId111" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B113" r:id="rId112" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B114" r:id="rId113" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B115" r:id="rId114" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B116" r:id="rId115" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B117" r:id="rId116" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B118" r:id="rId117" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B119" r:id="rId118" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B120" r:id="rId119" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B121" r:id="rId120" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B122" r:id="rId121" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B123" r:id="rId122" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B124" r:id="rId123" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B125" r:id="rId124" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B126" r:id="rId125" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B127" r:id="rId126" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B128" r:id="rId127" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B129" r:id="rId128" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B130" r:id="rId129" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B131" r:id="rId130" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B132" r:id="rId131" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B133" r:id="rId132" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B134" r:id="rId133" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B135" r:id="rId134" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B136" r:id="rId135" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B137" r:id="rId136" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B138" r:id="rId137" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B139" r:id="rId138" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B140" r:id="rId139" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B141" r:id="rId140" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B142" r:id="rId141" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B143" r:id="rId142" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B144" r:id="rId143" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B145" r:id="rId144" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B146" r:id="rId145" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B147" r:id="rId146" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B148" r:id="rId147" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B149" r:id="rId148" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B150" r:id="rId149" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B151" r:id="rId150" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B152" r:id="rId151" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B153" r:id="rId152" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B154" r:id="rId153" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B155" r:id="rId154" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B156" r:id="rId155" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B157" r:id="rId156" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B158" r:id="rId157" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B159" r:id="rId158" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B160" r:id="rId159" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B161" r:id="rId160" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B162" r:id="rId161" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B163" r:id="rId162" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B164" r:id="rId163" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B165" r:id="rId164" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B166" r:id="rId165" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B167" r:id="rId166" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B168" r:id="rId167" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B169" r:id="rId168" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B170" r:id="rId169" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B171" r:id="rId170" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B172" r:id="rId171" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B173" r:id="rId172" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B174" r:id="rId173" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B175" r:id="rId174" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B176" r:id="rId175" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B177" r:id="rId176" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B178" r:id="rId177" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B179" r:id="rId178" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B180" r:id="rId179" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B181" r:id="rId180" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B182" r:id="rId181" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B183" r:id="rId182" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B184" r:id="rId183" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B185" r:id="rId184" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B186" r:id="rId185" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B187" r:id="rId186" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B188" r:id="rId187" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B189" r:id="rId188" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B190" r:id="rId189" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B191" r:id="rId190" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B192" r:id="rId191" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B193" r:id="rId192" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B194" r:id="rId193" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B195" r:id="rId194" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B196" r:id="rId195" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B197" r:id="rId196" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B198" r:id="rId197" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B199" r:id="rId198" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B200" r:id="rId199" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B201" r:id="rId200" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B202" r:id="rId201" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B203" r:id="rId202" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B204" r:id="rId203" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B205" r:id="rId204" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B206" r:id="rId205" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B207" r:id="rId206" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B208" r:id="rId207" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B209" r:id="rId208" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B210" r:id="rId209" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B211" r:id="rId210" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B212" r:id="rId211" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B213" r:id="rId212" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B214" r:id="rId213" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B215" r:id="rId214" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B216" r:id="rId215" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B217" r:id="rId216" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B218" r:id="rId217" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B219" r:id="rId218" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B220" r:id="rId219" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B221" r:id="rId220" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B222" r:id="rId221" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B223" r:id="rId222" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B224" r:id="rId223" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B225" r:id="rId224" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B226" r:id="rId225" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B227" r:id="rId226" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B228" r:id="rId227" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B229" r:id="rId228" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B230" r:id="rId229" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B231" r:id="rId230" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B232" r:id="rId231" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B233" r:id="rId232" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B234" r:id="rId233" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B235" r:id="rId234" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B236" r:id="rId235" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B237" r:id="rId236" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B238" r:id="rId237" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B239" r:id="rId238" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B240" r:id="rId239" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B241" r:id="rId240" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B242" r:id="rId241" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B243" r:id="rId242" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B244" r:id="rId243" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B245" r:id="rId244" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B246" r:id="rId245" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B247" r:id="rId246" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B248" r:id="rId247" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B249" r:id="rId248" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B250" r:id="rId249" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B251" r:id="rId250" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B252" r:id="rId251" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B253" r:id="rId252" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B254" r:id="rId253" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B255" r:id="rId254" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B256" r:id="rId255" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B257" r:id="rId256" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B258" r:id="rId257" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B259" r:id="rId258" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B260" r:id="rId259" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B261" r:id="rId260" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B262" r:id="rId261" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B263" r:id="rId262" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B264" r:id="rId263" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B265" r:id="rId264" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B266" r:id="rId265" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B267" r:id="rId266" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B268" r:id="rId267" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B269" r:id="rId268" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B270" r:id="rId269" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B271" r:id="rId270" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B272" r:id="rId271" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B273" r:id="rId272" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B274" r:id="rId273" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B275" r:id="rId274" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B276" r:id="rId275" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B277" r:id="rId276" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B278" r:id="rId277" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B279" r:id="rId278" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B280" r:id="rId279" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B281" r:id="rId280" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B282" r:id="rId281" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B283" r:id="rId282" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B284" r:id="rId283" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B285" r:id="rId284" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B286" r:id="rId285" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B287" r:id="rId286" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B288" r:id="rId287" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B289" r:id="rId288" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B290" r:id="rId289" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B291" r:id="rId290" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B292" r:id="rId291" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B293" r:id="rId292" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B294" r:id="rId293" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B295" r:id="rId294" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B296" r:id="rId295" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B297" r:id="rId296" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B298" r:id="rId297" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B299" r:id="rId298" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B300" r:id="rId299" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B301" r:id="rId300" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B302" r:id="rId301" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B303" r:id="rId302" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B304" r:id="rId303" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B305" r:id="rId304" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B306" r:id="rId305" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B307" r:id="rId306" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B308" r:id="rId307" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B309" r:id="rId308" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B310" r:id="rId309" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B311" r:id="rId310" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B312" r:id="rId311" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B313" r:id="rId312" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B314" r:id="rId313" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B315" r:id="rId314" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B316" r:id="rId315" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B317" r:id="rId316" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B318" r:id="rId317" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B319" r:id="rId318" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B320" r:id="rId319" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B321" r:id="rId320" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B322" r:id="rId321" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B323" r:id="rId322" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B324" r:id="rId323" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B325" r:id="rId324" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B326" r:id="rId325" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B327" r:id="rId326" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B328" r:id="rId327" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B329" r:id="rId328" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B330" r:id="rId329" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B331" r:id="rId330" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B332" r:id="rId331" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B333" r:id="rId332" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B334" r:id="rId333" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B335" r:id="rId334" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B336" r:id="rId335" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B337" r:id="rId336" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B338" r:id="rId337" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B339" r:id="rId338" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B340" r:id="rId339" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B341" r:id="rId340" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B342" r:id="rId341" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B343" r:id="rId342" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B344" r:id="rId343" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B345" r:id="rId344" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B346" r:id="rId345" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B347" r:id="rId346" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B348" r:id="rId347" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B349" r:id="rId348" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B350" r:id="rId349" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B351" r:id="rId350" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B352" r:id="rId351" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B353" r:id="rId352" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B354" r:id="rId353" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B355" r:id="rId354" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B356" r:id="rId355" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B357" r:id="rId356" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B358" r:id="rId357" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B359" r:id="rId358" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B360" r:id="rId359" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B361" r:id="rId360" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B362" r:id="rId361" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B363" r:id="rId362" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B364" r:id="rId363" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B365" r:id="rId364" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B366" r:id="rId365" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B367" r:id="rId366" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B368" r:id="rId367" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B369" r:id="rId368" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B370" r:id="rId369" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B371" r:id="rId370" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B372" r:id="rId371" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B373" r:id="rId372" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B374" r:id="rId373" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B375" r:id="rId374" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B376" r:id="rId375" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B377" r:id="rId376" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B378" r:id="rId377" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B379" r:id="rId378" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B380" r:id="rId379" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B381" r:id="rId380" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B382" r:id="rId381" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B383" r:id="rId382" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B384" r:id="rId383" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B385" r:id="rId384" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B386" r:id="rId385" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B387" r:id="rId386" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B388" r:id="rId387" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B389" r:id="rId388" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B390" r:id="rId389" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B391" r:id="rId390" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B392" r:id="rId391" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B393" r:id="rId392" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B394" r:id="rId393" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B395" r:id="rId394" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B396" r:id="rId395" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B397" r:id="rId396" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B398" r:id="rId397" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B399" r:id="rId398" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B400" r:id="rId399" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B401" r:id="rId400" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B402" r:id="rId401" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B403" r:id="rId402" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B404" r:id="rId403" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B405" r:id="rId404" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B406" r:id="rId405" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B407" r:id="rId406" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B408" r:id="rId407" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B409" r:id="rId408" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B410" r:id="rId409" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B411" r:id="rId410" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B412" r:id="rId411" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B413" r:id="rId412" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B414" r:id="rId413" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B415" r:id="rId414" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B416" r:id="rId415" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B417" r:id="rId416" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B418" r:id="rId417" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B419" r:id="rId418" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B420" r:id="rId419" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B421" r:id="rId420" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B422" r:id="rId421" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B423" r:id="rId422" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B424" r:id="rId423" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B425" r:id="rId424" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B426" r:id="rId425" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B427" r:id="rId426" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B428" r:id="rId427" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B429" r:id="rId428" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B430" r:id="rId429" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B431" r:id="rId430" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B432" r:id="rId431" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B433" r:id="rId432" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B434" r:id="rId433" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B435" r:id="rId434" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B436" r:id="rId435" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B437" r:id="rId436" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B438" r:id="rId437" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B439" r:id="rId438" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B440" r:id="rId439" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B441" r:id="rId440" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B442" r:id="rId441" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B443" r:id="rId442" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B444" r:id="rId443" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B445" r:id="rId444" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B446" r:id="rId445" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B447" r:id="rId446" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B448" r:id="rId447" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B449" r:id="rId448" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B450" r:id="rId449" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B451" r:id="rId450" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B452" r:id="rId451" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B453" r:id="rId452" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B454" r:id="rId453" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B455" r:id="rId454" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B456" r:id="rId455" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B457" r:id="rId456" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B458" r:id="rId457" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B459" r:id="rId458" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B460" r:id="rId459" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B461" r:id="rId460" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B462" r:id="rId461" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B463" r:id="rId462" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B464" r:id="rId463" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B465" r:id="rId464" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B466" r:id="rId465" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B467" r:id="rId466" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B468" r:id="rId467" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B469" r:id="rId468" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B470" r:id="rId469" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B471" r:id="rId470" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B472" r:id="rId471" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B473" r:id="rId472" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B474" r:id="rId473" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B475" r:id="rId474" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B476" r:id="rId475" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B477" r:id="rId476" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B478" r:id="rId477" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B479" r:id="rId478" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B480" r:id="rId479" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B481" r:id="rId480" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B482" r:id="rId481" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B483" r:id="rId482" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B484" r:id="rId483" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B485" r:id="rId484" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B486" r:id="rId485" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B487" r:id="rId486" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B488" r:id="rId487" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B489" r:id="rId488" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B490" r:id="rId489" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B491" r:id="rId490" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B492" r:id="rId491" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B493" r:id="rId492" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B494" r:id="rId493" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B495" r:id="rId494" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B496" r:id="rId495" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B497" r:id="rId496" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B498" r:id="rId497" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B499" r:id="rId498" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B500" r:id="rId499" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B501" r:id="rId500" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B502" r:id="rId501" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B503" r:id="rId502" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B504" r:id="rId503" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B505" r:id="rId504" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B506" r:id="rId505" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B507" r:id="rId506" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B508" r:id="rId507" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B509" r:id="rId508" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B510" r:id="rId509" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B511" r:id="rId510" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B512" r:id="rId511" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B513" r:id="rId512" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B514" r:id="rId513" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B515" r:id="rId514" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B516" r:id="rId515" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B517" r:id="rId516" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B518" r:id="rId517" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B519" r:id="rId518" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B520" r:id="rId519" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B521" r:id="rId520" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B522" r:id="rId521" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B523" r:id="rId522" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B524" r:id="rId523" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B525" r:id="rId524" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B526" r:id="rId525" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B527" r:id="rId526" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B528" r:id="rId527" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B529" r:id="rId528" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B530" r:id="rId529" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B531" r:id="rId530" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B532" r:id="rId531" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B533" r:id="rId532" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B534" r:id="rId533" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B535" r:id="rId534" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B536" r:id="rId535" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B537" r:id="rId536" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B538" r:id="rId537" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B539" r:id="rId538" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B540" r:id="rId539" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B541" r:id="rId540" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B542" r:id="rId541" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B543" r:id="rId542" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B544" r:id="rId543" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B545" r:id="rId544" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B546" r:id="rId545" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B547" r:id="rId546" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B548" r:id="rId547" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B549" r:id="rId548" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B550" r:id="rId549" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B551" r:id="rId550" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B552" r:id="rId551" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B553" r:id="rId552" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B554" r:id="rId553" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B555" r:id="rId554" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B556" r:id="rId555" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B557" r:id="rId556" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B558" r:id="rId557" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B559" r:id="rId558" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B560" r:id="rId559" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B561" r:id="rId560" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B562" r:id="rId561" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B563" r:id="rId562" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B564" r:id="rId563" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B565" r:id="rId564" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B566" r:id="rId565" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B567" r:id="rId566" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B568" r:id="rId567" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B569" r:id="rId568" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B570" r:id="rId569" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B571" r:id="rId570" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B572" r:id="rId571" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B573" r:id="rId572" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B574" r:id="rId573" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B575" r:id="rId574" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B576" r:id="rId575" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B577" r:id="rId576" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B578" r:id="rId577" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B579" r:id="rId578" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B580" r:id="rId579" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B581" r:id="rId580" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B582" r:id="rId581" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B583" r:id="rId582" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B584" r:id="rId583" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B585" r:id="rId584" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B586" r:id="rId585" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B587" r:id="rId586" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B588" r:id="rId587" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B589" r:id="rId588" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B590" r:id="rId589" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B591" r:id="rId590" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B592" r:id="rId591" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B593" r:id="rId592" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B594" r:id="rId593" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B595" r:id="rId594" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B596" r:id="rId595" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B597" r:id="rId596" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B598" r:id="rId597" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B599" r:id="rId598" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B600" r:id="rId599" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B601" r:id="rId600" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B602" r:id="rId601" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B603" r:id="rId602" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B604" r:id="rId603" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B605" r:id="rId604" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B606" r:id="rId605" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B607" r:id="rId606" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B608" r:id="rId607" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B609" r:id="rId608" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B610" r:id="rId609" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B611" r:id="rId610" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B612" r:id="rId611" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B613" r:id="rId612" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B614" r:id="rId613" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B615" r:id="rId614" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B616" r:id="rId615" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B617" r:id="rId616" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B618" r:id="rId617" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B619" r:id="rId618" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B620" r:id="rId619" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B621" r:id="rId620" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B622" r:id="rId621" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B623" r:id="rId622" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B624" r:id="rId623" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B625" r:id="rId624" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B626" r:id="rId625" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B627" r:id="rId626" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B628" r:id="rId627" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B629" r:id="rId628" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B630" r:id="rId629" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B631" r:id="rId630" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B632" r:id="rId631" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B633" r:id="rId632" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B634" r:id="rId633" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B635" r:id="rId634" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B636" r:id="rId635" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B637" r:id="rId636" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B638" r:id="rId637" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B639" r:id="rId638" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B640" r:id="rId639" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B641" r:id="rId640" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B642" r:id="rId641" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B643" r:id="rId642" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B644" r:id="rId643" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B645" r:id="rId644" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B646" r:id="rId645" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B647" r:id="rId646" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B648" r:id="rId647" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B649" r:id="rId648" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B650" r:id="rId649" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B651" r:id="rId650" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B652" r:id="rId651" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B653" r:id="rId652" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B654" r:id="rId653" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B655" r:id="rId654" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B656" r:id="rId655" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B657" r:id="rId656" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B658" r:id="rId657" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B659" r:id="rId658" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B660" r:id="rId659" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B661" r:id="rId660" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B662" r:id="rId661" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B663" r:id="rId662" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B664" r:id="rId663" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B665" r:id="rId664" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B666" r:id="rId665" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B667" r:id="rId666" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B668" r:id="rId667" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B669" r:id="rId668" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B670" r:id="rId669" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B671" r:id="rId670" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B672" r:id="rId671" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B673" r:id="rId672" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B674" r:id="rId673" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B675" r:id="rId674" display="https://www.nba.com/stats/team/1610612745/"/>
+    <hyperlink ref="B676" r:id="rId675" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B677" r:id="rId676" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B678" r:id="rId677" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B679" r:id="rId678" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B680" r:id="rId679" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B681" r:id="rId680" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B682" r:id="rId681" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B683" r:id="rId682" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B684" r:id="rId683" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B685" r:id="rId684" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B686" r:id="rId685" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B687" r:id="rId686" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B688" r:id="rId687" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B689" r:id="rId688" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B690" r:id="rId689" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B691" r:id="rId690" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B692" r:id="rId691" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B693" r:id="rId692" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B694" r:id="rId693" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B695" r:id="rId694" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B696" r:id="rId695" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B697" r:id="rId696" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B698" r:id="rId697" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B699" r:id="rId698" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B700" r:id="rId699" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B701" r:id="rId700" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B702" r:id="rId701" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B703" r:id="rId702" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B704" r:id="rId703" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B705" r:id="rId704" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B706" r:id="rId705" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B707" r:id="rId706" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B708" r:id="rId707" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B709" r:id="rId708" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B710" r:id="rId709" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B711" r:id="rId710" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B712" r:id="rId711" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B713" r:id="rId712" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B714" r:id="rId713" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B715" r:id="rId714" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B716" r:id="rId715" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B717" r:id="rId716" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B718" r:id="rId717" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B719" r:id="rId718" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B720" r:id="rId719" display="https://www.nba.com/stats/team/1610612753/"/>
+    <hyperlink ref="B721" r:id="rId720" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B722" r:id="rId721" display="https://www.nba.com/stats/team/1610612746/"/>
+    <hyperlink ref="B723" r:id="rId722" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B724" r:id="rId723" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B725" r:id="rId724" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B726" r:id="rId725" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B727" r:id="rId726" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B728" r:id="rId727" display="https://www.nba.com/stats/team/1610612744/"/>
+    <hyperlink ref="B729" r:id="rId728" display="https://www.nba.com/stats/team/1610612752/"/>
+    <hyperlink ref="B730" r:id="rId729" display="https://www.nba.com/stats/team/1610612761/"/>
+    <hyperlink ref="B731" r:id="rId730" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B732" r:id="rId731" display="https://www.nba.com/stats/team/1610612751/"/>
+    <hyperlink ref="B733" r:id="rId732" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B734" r:id="rId733" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B735" r:id="rId734" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B736" r:id="rId735" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B737" r:id="rId736" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B738" r:id="rId737" display="https://www.nba.com/stats/team/1610612755/"/>
+    <hyperlink ref="B739" r:id="rId738" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B740" r:id="rId739" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B741" r:id="rId740" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B742" r:id="rId741" display="https://www.nba.com/stats/team/1610612740/"/>
+    <hyperlink ref="B743" r:id="rId742" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B744" r:id="rId743" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B745" r:id="rId744" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B746" r:id="rId745" display="https://www.nba.com/stats/team/1610612760/"/>
+    <hyperlink ref="B747" r:id="rId746" display="https://www.nba.com/stats/team/1610612741/"/>
+    <hyperlink ref="B748" r:id="rId747" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B749" r:id="rId748" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B750" r:id="rId749" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B751" r:id="rId750" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B752" r:id="rId751" display="https://www.nba.com/stats/team/1610612758/"/>
+    <hyperlink ref="B753" r:id="rId752" display="https://www.nba.com/stats/team/1610612764/"/>
+    <hyperlink ref="B754" r:id="rId753" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B755" r:id="rId754" display="https://www.nba.com/stats/team/1610612743/"/>
+    <hyperlink ref="B756" r:id="rId755" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B757" r:id="rId756" display="https://www.nba.com/stats/team/1610612763/"/>
+    <hyperlink ref="B758" r:id="rId757" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B759" r:id="rId758" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B760" r:id="rId759" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B761" r:id="rId760" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B762" r:id="rId761" display="https://www.nba.com/stats/team/1610612749/"/>
+    <hyperlink ref="B763" r:id="rId762" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B764" r:id="rId763" display="https://www.nba.com/stats/team/1610612748/"/>
+    <hyperlink ref="B765" r:id="rId764" display="https://www.nba.com/stats/team/1610612765/"/>
+    <hyperlink ref="B766" r:id="rId765" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B767" r:id="rId766" display="https://www.nba.com/stats/team/1610612739/"/>
+    <hyperlink ref="B768" r:id="rId767" display="https://www.nba.com/stats/team/1610612750/"/>
+    <hyperlink ref="B769" r:id="rId768" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B770" r:id="rId769" display="https://www.nba.com/stats/team/1610612737/"/>
+    <hyperlink ref="B771" r:id="rId770" display="https://www.nba.com/stats/team/1610612762/"/>
+    <hyperlink ref="B772" r:id="rId771" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B773" r:id="rId772" display="https://www.nba.com/stats/team/1610612754/"/>
+    <hyperlink ref="B774" r:id="rId773" display="https://www.nba.com/stats/team/1610612759/"/>
+    <hyperlink ref="B775" r:id="rId774" display="https://www.nba.com/stats/team/1610612766/"/>
+    <hyperlink ref="B776" r:id="rId775" display="https://www.nba.com/stats/team/1610612757/"/>
+    <hyperlink ref="B777" r:id="rId776" display="https://www.nba.com/stats/team/1610612742/"/>
+    <hyperlink ref="B778" r:id="rId777" display="https://www.nba.com/stats/team/1610612756/"/>
+    <hyperlink ref="B779" r:id="rId778" display="https://www.nba.com/stats/team/1610612738/"/>
+    <hyperlink ref="B780" r:id="rId779" display="https://www.nba.com/stats/team/1610612747/"/>
+    <hyperlink ref="B781" r:id="rId780" display="https://www.nba.com/stats/team/1610612748/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
